--- a/stats/exp_stats.xlsx
+++ b/stats/exp_stats.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Reg" sheetId="1" r:id="rId2"/>
     <sheet name="SVM" sheetId="2" r:id="rId3"/>
     <sheet name="CNN" sheetId="3" r:id="rId4"/>
+    <sheet name="traces" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="53">
   <si>
     <t>C = 0.1</t>
   </si>
@@ -78,29 +79,176 @@
     <t>lag_t=5</t>
   </si>
   <si>
-    <t>acc / at round #</t>
-  </si>
-  <si>
-    <t>crash=0.1</t>
-  </si>
-  <si>
-    <t>SAFA, Reg (C=0.5, B= , E=)</t>
-  </si>
-  <si>
-    <t>SAFA, SVM (C=0.5, B= , E=)</t>
-  </si>
-  <si>
     <t>SAFA, CNN (C=0.5, B= , E=)</t>
+  </si>
+  <si>
+    <t>mu = N/M</t>
+  </si>
+  <si>
+    <t>Crash_prob=E</t>
+  </si>
+  <si>
+    <t>crash_prob</t>
+  </si>
+  <si>
+    <t>lr</t>
+  </si>
+  <si>
+    <t>D~N(mu, 0.3*mu)</t>
+  </si>
+  <si>
+    <t>SAFA, Reg (M=5, R= 50, E=3, B=5, C=0.5)</t>
+  </si>
+  <si>
+    <t>best loss / at round #</t>
+  </si>
+  <si>
+    <t>0.0315/44</t>
+  </si>
+  <si>
+    <t>0.819/49</t>
+  </si>
+  <si>
+    <t>0.704/49</t>
+  </si>
+  <si>
+    <t>0.0315/40</t>
+  </si>
+  <si>
+    <t>0.0316/39</t>
+  </si>
+  <si>
+    <t>0.0315/47</t>
+  </si>
+  <si>
+    <t>0.0314/64</t>
+  </si>
+  <si>
+    <t>0.0315/57</t>
+  </si>
+  <si>
+    <t>0.0316/53</t>
+  </si>
+  <si>
+    <t>0.0315/64</t>
+  </si>
+  <si>
+    <t>0.0314/55</t>
+  </si>
+  <si>
+    <t>0.0315/91</t>
+  </si>
+  <si>
+    <t>0.0315/79</t>
+  </si>
+  <si>
+    <t>0.0314/79</t>
+  </si>
+  <si>
+    <t>0.0315/75</t>
+  </si>
+  <si>
+    <t>0.0316/74</t>
+  </si>
+  <si>
+    <t>0.0408/98</t>
+  </si>
+  <si>
+    <t>0.0369/99</t>
+  </si>
+  <si>
+    <t>0.0339/99</t>
+  </si>
+  <si>
+    <t>0.0317/98</t>
+  </si>
+  <si>
+    <t>0.0375/99</t>
+  </si>
+  <si>
+    <t>0.623/49</t>
+  </si>
+  <si>
+    <t>C=0.5</t>
+  </si>
+  <si>
+    <t>0.559/49</t>
+  </si>
+  <si>
+    <t>0.564/49</t>
+  </si>
+  <si>
+    <t>0.305/99</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SAFA, SVM (M=500, R= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, E=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, B=100, C=0.5)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -126,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -137,6 +285,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,189 +576,308 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="H2" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="H10" s="4">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="2" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="H17" s="4">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>0.7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A17:F17"/>
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N33"/>
+  <dimension ref="A2:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A15" sqref="A15:N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,40 +887,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="I2" s="3" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="I2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="I3" s="3" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="I3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -715,22 +993,22 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="I9" s="3" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="I9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -802,127 +1080,127 @@
         <v>0.7</v>
       </c>
     </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="A21" s="1">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="A22" s="1">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="B24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="A28" s="1">
         <v>0.7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="I3:N3"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="A17:F17"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="I9:N9"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="I3:N3"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="I2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -931,10 +1209,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N33"/>
+  <dimension ref="A2:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,40 +1222,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="I2" s="3" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="I2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="I3" s="3" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="I3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -1050,22 +1328,22 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="I9" s="3" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="I9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1137,121 +1415,121 @@
         <v>0.7</v>
       </c>
     </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="A21" s="1">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="A22" s="1">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="B24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="A28" s="1">
         <v>0.7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A23:F23"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="I2:N2"/>
     <mergeCell ref="A3:F3"/>
@@ -1266,10 +1544,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N33"/>
+  <dimension ref="A2:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1279,40 +1557,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="I2" s="3" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="I2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="I3" s="3" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="I3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -1385,22 +1663,22 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="I9" s="3" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="I9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1472,121 +1750,121 @@
         <v>0.7</v>
       </c>
     </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="A21" s="1">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="A22" s="1">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="B24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="A28" s="1">
         <v>0.7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A23:F23"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="I2:N2"/>
     <mergeCell ref="A3:F3"/>
@@ -1597,4 +1875,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/stats/exp_stats.xlsx
+++ b/stats/exp_stats.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="381">
   <si>
     <t>C = 0.1</t>
   </si>
@@ -282,9 +282,6 @@
     <t>Accuracy (CNN, M=100,R=50, E=5, B=40)</t>
   </si>
   <si>
-    <t>SAFA (lag = 3,5,4,5)</t>
-  </si>
-  <si>
     <t>Accuracy (SVM, M=500, R= 100, E=5, B=100)</t>
   </si>
   <si>
@@ -297,336 +294,60 @@
     <t>0.0315/31</t>
   </si>
   <si>
-    <t>30823.62/-</t>
-  </si>
-  <si>
-    <t>21247.91/-</t>
-  </si>
-  <si>
-    <t>70783.99/0.170</t>
-  </si>
-  <si>
-    <t>30741.76/0.039</t>
-  </si>
-  <si>
-    <t>33396.76/0.039</t>
-  </si>
-  <si>
-    <t>31599.13/-</t>
-  </si>
-  <si>
-    <t>28401.52/0.000</t>
-  </si>
-  <si>
     <t>0.0315/50</t>
   </si>
   <si>
-    <t>0.0415/-</t>
-  </si>
-  <si>
-    <t>87184.33/0.169</t>
-  </si>
-  <si>
-    <t>0.0380/-</t>
-  </si>
-  <si>
-    <t>0.0359/-</t>
-  </si>
-  <si>
-    <t>0.0385/97</t>
-  </si>
-  <si>
     <t>0.0345/99</t>
   </si>
   <si>
     <t>0.0315/67</t>
   </si>
   <si>
-    <t>0.0428/99</t>
-  </si>
-  <si>
-    <t>26528.6/-</t>
-  </si>
-  <si>
-    <t>0.0342/-</t>
-  </si>
-  <si>
-    <t>61737.83/0.044</t>
-  </si>
-  <si>
     <t>0.0340/99</t>
   </si>
   <si>
-    <t>38488.48/0.024</t>
-  </si>
-  <si>
     <t>0.0315/68</t>
   </si>
   <si>
-    <t>59342.37/-</t>
-  </si>
-  <si>
-    <t>47449.39/0.002</t>
-  </si>
-  <si>
     <t>0.0315/49</t>
   </si>
   <si>
-    <t>85754.55/0.0001</t>
-  </si>
-  <si>
     <t>0.0315/58</t>
   </si>
   <si>
-    <t>76253.94/-</t>
-  </si>
-  <si>
-    <t>0.0453/-</t>
-  </si>
-  <si>
-    <t>55202.93/0.020</t>
-  </si>
-  <si>
-    <t>81434.63/0.055</t>
-  </si>
-  <si>
     <t>0.0315/43</t>
   </si>
   <si>
-    <t>0.0490/-</t>
-  </si>
-  <si>
-    <t>57016.65/0.002</t>
-  </si>
-  <si>
     <t>0.0315/38</t>
   </si>
   <si>
-    <t>107306.93/0.135</t>
-  </si>
-  <si>
-    <t>50279.82/-</t>
-  </si>
-  <si>
-    <t>92219.81/-</t>
-  </si>
-  <si>
-    <t>0.0534/-</t>
-  </si>
-  <si>
-    <t>98820.42/0.035</t>
-  </si>
-  <si>
-    <t>50818.25/0.044</t>
-  </si>
-  <si>
-    <t>72224.50/-</t>
-  </si>
-  <si>
     <t>0.0546/-</t>
   </si>
   <si>
-    <t>47910.64/0.000</t>
-  </si>
-  <si>
-    <t>0.0315/33</t>
-  </si>
-  <si>
-    <t>72224.49/0.169</t>
-  </si>
-  <si>
     <t>71487.51/-</t>
   </si>
   <si>
-    <t>0.0646/-</t>
-  </si>
-  <si>
-    <t>72224.49/0.042</t>
-  </si>
-  <si>
-    <t>71487.50/0.052</t>
-  </si>
-  <si>
-    <t>0.0315/25</t>
-  </si>
-  <si>
-    <t>71487.50/0.000</t>
-  </si>
-  <si>
-    <t>0.0315/26</t>
-  </si>
-  <si>
-    <t>29267.58/-</t>
-  </si>
-  <si>
-    <t>0.0518/-</t>
-  </si>
-  <si>
-    <t>30633.89/-</t>
-  </si>
-  <si>
-    <t>0.0574/-</t>
-  </si>
-  <si>
-    <t>0.0637/95</t>
-  </si>
-  <si>
-    <t>88002.69/0.274</t>
-  </si>
-  <si>
-    <t>89175.13/0.375</t>
-  </si>
-  <si>
-    <t>0.0552/99</t>
-  </si>
-  <si>
-    <t>38065.00/0.148</t>
-  </si>
-  <si>
-    <t>23839.95/-</t>
-  </si>
-  <si>
-    <t>36647.89/0.061</t>
-  </si>
-  <si>
-    <t>0.0315/92</t>
-  </si>
-  <si>
-    <t>0.0355/99</t>
-  </si>
-  <si>
-    <t>74435.44/0.344</t>
-  </si>
-  <si>
-    <t>0.0640/95</t>
-  </si>
-  <si>
-    <t>20011.56/-</t>
-  </si>
-  <si>
     <t>0.0496/-</t>
   </si>
   <si>
-    <t>0.0679/-</t>
-  </si>
-  <si>
-    <t>44219.07/0.216</t>
-  </si>
-  <si>
-    <t>0.0489/98</t>
-  </si>
-  <si>
-    <t>32055.23/0.213</t>
-  </si>
-  <si>
-    <t>0.0394/98</t>
-  </si>
-  <si>
-    <t>68093.67/-</t>
-  </si>
-  <si>
-    <t>0.0341/-</t>
-  </si>
-  <si>
-    <t>25362.50/0.069</t>
-  </si>
-  <si>
-    <t>90649.10/0.368</t>
-  </si>
-  <si>
-    <t>0.0360/97</t>
-  </si>
-  <si>
-    <t>65021.20/-</t>
-  </si>
-  <si>
     <t>0.0317/-</t>
   </si>
   <si>
-    <t>86971.24/0.154</t>
-  </si>
-  <si>
-    <t>0.0338/99</t>
-  </si>
-  <si>
-    <t>59347.78/-</t>
-  </si>
-  <si>
-    <t>0.0319/-</t>
-  </si>
-  <si>
-    <t>86280.53/0.259</t>
-  </si>
-  <si>
-    <t>0.0345/91</t>
-  </si>
-  <si>
-    <t>61906.70/0.370</t>
-  </si>
-  <si>
     <t>0.0316/99</t>
   </si>
   <si>
-    <t>75948.61/0.069</t>
-  </si>
-  <si>
-    <t>0.0315/76</t>
-  </si>
-  <si>
-    <t>61906.70/0.174</t>
-  </si>
-  <si>
-    <t>0.0337/99</t>
-  </si>
-  <si>
-    <t>87152.14/-</t>
-  </si>
-  <si>
     <t>0.0369/-</t>
   </si>
   <si>
-    <t>73698.47/-</t>
-  </si>
-  <si>
-    <t>73698.46/0.355</t>
-  </si>
-  <si>
-    <t>0.0315/90</t>
-  </si>
-  <si>
-    <t>97294.49/0.255</t>
-  </si>
-  <si>
-    <t>0.0316/32</t>
-  </si>
-  <si>
     <t>0.0315/62</t>
   </si>
   <si>
-    <t>73698.46/0.171</t>
-  </si>
-  <si>
     <t>0.0360/99</t>
   </si>
   <si>
-    <t>93672.22/0.062</t>
-  </si>
-  <si>
     <t>0.0315/65</t>
   </si>
   <si>
-    <t>95808.00/-</t>
-  </si>
-  <si>
-    <t>0.0422/-</t>
-  </si>
-  <si>
-    <t>95807.99/0.245</t>
-  </si>
-  <si>
-    <t>95807.99/0.060</t>
-  </si>
-  <si>
     <t>Reg (M=5, R= 100, E=3, B=5, C=0.5)</t>
   </si>
   <si>
@@ -852,9 +573,6 @@
     <t>SAFA (lag = 7)</t>
   </si>
   <si>
-    <t>EUR / VV</t>
-  </si>
-  <si>
     <t>lag=2</t>
   </si>
   <si>
@@ -885,24 +603,9 @@
     <t>0.0334/99</t>
   </si>
   <si>
-    <t>0.0349/99</t>
-  </si>
-  <si>
-    <t>0.0328/99</t>
-  </si>
-  <si>
-    <t>0.0315/48</t>
-  </si>
-  <si>
     <t>0.0315/39</t>
   </si>
   <si>
-    <t>0.0327/99</t>
-  </si>
-  <si>
-    <t>0.0316/45</t>
-  </si>
-  <si>
     <t>belows are for plot</t>
   </si>
   <si>
@@ -918,262 +621,575 @@
     <t>VV</t>
   </si>
   <si>
-    <t>0.0315/78</t>
-  </si>
-  <si>
-    <t>0.0367/99</t>
-  </si>
-  <si>
-    <t>0.0376/99</t>
-  </si>
-  <si>
     <t>0.0315/69</t>
   </si>
   <si>
-    <t>0.0362/99</t>
-  </si>
-  <si>
     <t>0.0353/99</t>
   </si>
   <si>
-    <t>0.0315/60</t>
-  </si>
-  <si>
-    <t>0.0342/97</t>
-  </si>
-  <si>
     <t>0.0350/99</t>
   </si>
   <si>
-    <t>0.0379/99</t>
-  </si>
-  <si>
-    <t>0.0315/54</t>
-  </si>
-  <si>
-    <t>0.0343/99</t>
-  </si>
-  <si>
-    <t>0.0316/42</t>
-  </si>
-  <si>
     <t>0.0314/39</t>
   </si>
   <si>
-    <t>0.704/0.470</t>
-  </si>
-  <si>
-    <t>0.680/0.338</t>
-  </si>
-  <si>
-    <t>0.662/0.217</t>
-  </si>
-  <si>
-    <t>0.638/0.098</t>
-  </si>
-  <si>
-    <t>0.560/0.385</t>
-  </si>
-  <si>
-    <t>0.550/0.375</t>
-  </si>
-  <si>
-    <t>0.560/0.358</t>
-  </si>
-  <si>
-    <t>0.242/0.220</t>
-  </si>
-  <si>
-    <t>0.554/0.300</t>
-  </si>
-  <si>
-    <t>0.180/0.071</t>
-  </si>
-  <si>
-    <t>0.520/0.229</t>
-  </si>
-  <si>
-    <t>0.536/0.091</t>
-  </si>
-  <si>
-    <t>0.260/0.362</t>
-  </si>
-  <si>
-    <t>0.234/0.271</t>
-  </si>
-  <si>
-    <t>0.186/0.037</t>
-  </si>
-  <si>
-    <t>0.200/0.380</t>
-  </si>
-  <si>
-    <t>0.198/0.373</t>
-  </si>
-  <si>
-    <t>0.148/0.720</t>
-  </si>
-  <si>
-    <t>0.196/0.259</t>
-  </si>
-  <si>
-    <t>0.136/0.331</t>
-  </si>
-  <si>
-    <t>0.186/0.213</t>
-  </si>
-  <si>
-    <t>0.112/0.140</t>
-  </si>
-  <si>
-    <t>0.100/0.048</t>
-  </si>
-  <si>
-    <t>0.162/0.096</t>
-  </si>
-  <si>
-    <t>0.0335/98</t>
-  </si>
-  <si>
-    <t>0.260/0.388</t>
-  </si>
-  <si>
-    <t>0.168/0.862</t>
-  </si>
-  <si>
-    <t>0.262/0.644</t>
-  </si>
-  <si>
-    <t>0.0314/35</t>
-  </si>
-  <si>
-    <t>0.710/0.410</t>
-  </si>
-  <si>
-    <t>0.084/0.009</t>
-  </si>
-  <si>
-    <t>0.0408/99</t>
-  </si>
-  <si>
-    <t>0.130/0.355</t>
-  </si>
-  <si>
-    <t>0.0383/99</t>
-  </si>
-  <si>
-    <t>0.200/0.336</t>
-  </si>
-  <si>
-    <t>0.0314/63</t>
-  </si>
-  <si>
-    <t>0.162/0.941</t>
-  </si>
-  <si>
-    <t>0.214/0.105</t>
-  </si>
-  <si>
-    <t>0.0351/99</t>
-  </si>
-  <si>
-    <t>0.200/0.449</t>
-  </si>
-  <si>
-    <t>0.0314/70</t>
-  </si>
-  <si>
-    <t>0.200/0.467</t>
-  </si>
-  <si>
-    <t>0.0314/67</t>
-  </si>
-  <si>
-    <t>0.200/0.392</t>
-  </si>
-  <si>
-    <t>0.200/0.434</t>
-  </si>
-  <si>
-    <t>0.0316/60</t>
-  </si>
-  <si>
-    <t>0.306/1.447</t>
-  </si>
-  <si>
-    <t>0.558/0.466</t>
-  </si>
-  <si>
-    <t>0.0314/50</t>
-  </si>
-  <si>
-    <t>0.300/1.542</t>
-  </si>
-  <si>
-    <t>0.137/0.018</t>
-  </si>
-  <si>
-    <t>0.0424/98</t>
-  </si>
-  <si>
-    <t>0.252/0.385</t>
-  </si>
-  <si>
     <t>0.0336/99</t>
   </si>
   <si>
-    <t>0.700/0.365</t>
-  </si>
-  <si>
-    <t>0.706/0.366</t>
-  </si>
-  <si>
-    <t>0.560/0.315</t>
-  </si>
-  <si>
-    <t>0.566/0.354</t>
-  </si>
-  <si>
-    <t>0.706/0.382</t>
-  </si>
-  <si>
-    <t>0.568/0.300</t>
-  </si>
-  <si>
-    <t>0.278/0.534</t>
-  </si>
-  <si>
-    <t>0.304/0.677</t>
-  </si>
-  <si>
-    <t>0.702/0.495</t>
-  </si>
-  <si>
-    <t>0.290/1.033</t>
-  </si>
-  <si>
-    <t>0.288/1.037</t>
-  </si>
-  <si>
-    <t>0.0325/97</t>
-  </si>
-  <si>
-    <t>0.296/0.942</t>
-  </si>
-  <si>
-    <t>0.310/1.465</t>
-  </si>
-  <si>
-    <t>0.164/1.043</t>
-  </si>
-  <si>
-    <t>0.172/1.208</t>
-  </si>
-  <si>
-    <t>0.704/0.454</t>
-  </si>
-  <si>
-    <t>0.310/1.468</t>
+    <t>0.0410/-</t>
+  </si>
+  <si>
+    <t>0.0364/-</t>
+  </si>
+  <si>
+    <t>0.0426/99</t>
+  </si>
+  <si>
+    <t>0.0315/-</t>
+  </si>
+  <si>
+    <t>0.0331/-</t>
+  </si>
+  <si>
+    <t>0.0315/99</t>
+  </si>
+  <si>
+    <t>0.0373/-</t>
+  </si>
+  <si>
+    <t>0.0484/-</t>
+  </si>
+  <si>
+    <t>0.0475/-</t>
+  </si>
+  <si>
+    <t>0.0315/32</t>
+  </si>
+  <si>
+    <t>0.0314/42</t>
+  </si>
+  <si>
+    <t>0.0315/36</t>
+  </si>
+  <si>
+    <t>0.0647/-</t>
+  </si>
+  <si>
+    <t>0.0316/28</t>
+  </si>
+  <si>
+    <t>24375.49/-</t>
+  </si>
+  <si>
+    <t>09755.41/-</t>
+  </si>
+  <si>
+    <t>57385.94/0.166</t>
+  </si>
+  <si>
+    <t>44845.42/0.077</t>
+  </si>
+  <si>
+    <t>30616.40/0.000</t>
+  </si>
+  <si>
+    <t>38556.03/0.000</t>
+  </si>
+  <si>
+    <t>33916.92/-</t>
+  </si>
+  <si>
+    <t>40846.47/-</t>
+  </si>
+  <si>
+    <t>52821.89/0.168</t>
+  </si>
+  <si>
+    <t>52002.50/0.053</t>
+  </si>
+  <si>
+    <t>36961.76/0.000</t>
+  </si>
+  <si>
+    <t>45443.36/-</t>
+  </si>
+  <si>
+    <t>46045.96/0.000</t>
+  </si>
+  <si>
+    <t>54250.93/0.154</t>
+  </si>
+  <si>
+    <t>31872.08/-</t>
+  </si>
+  <si>
+    <t>43237.08/0.000</t>
+  </si>
+  <si>
+    <t>33486.35/0.039</t>
+  </si>
+  <si>
+    <t>74722.46/-</t>
+  </si>
+  <si>
+    <t>30302.47/0.000</t>
+  </si>
+  <si>
+    <t>90719.54/0.135</t>
+  </si>
+  <si>
+    <t>69164.74/-</t>
+  </si>
+  <si>
+    <t>82720.99/0.000</t>
+  </si>
+  <si>
+    <t>70262.58/0.029</t>
+  </si>
+  <si>
+    <t>55441.57/0.000</t>
+  </si>
+  <si>
+    <t>79594.34/-</t>
+  </si>
+  <si>
+    <t>79594.33/0.035</t>
+  </si>
+  <si>
+    <t>79594.33/0.000</t>
+  </si>
+  <si>
+    <t>23825.20/-</t>
+  </si>
+  <si>
+    <t>0.0579/-</t>
+  </si>
+  <si>
+    <t>23660.42/-</t>
+  </si>
+  <si>
+    <t>76646.39/0.362</t>
+  </si>
+  <si>
+    <t>0.0649/97</t>
+  </si>
+  <si>
+    <t>50575.42/0.248</t>
+  </si>
+  <si>
+    <t>0.0459/95</t>
+  </si>
+  <si>
+    <t>35340.08/0.056</t>
+  </si>
+  <si>
+    <t>38924.55/-</t>
+  </si>
+  <si>
+    <t>0.0451/-</t>
+  </si>
+  <si>
+    <t>24153.97/0.000</t>
+  </si>
+  <si>
+    <t>51588.92/0.330</t>
+  </si>
+  <si>
+    <t>0.0463/97</t>
+  </si>
+  <si>
+    <t>32129.60/-</t>
+  </si>
+  <si>
+    <t>0.0356/-</t>
+  </si>
+  <si>
+    <t>43222.15/0.072</t>
+  </si>
+  <si>
+    <t>47247.54/0.276</t>
+  </si>
+  <si>
+    <t>0.0341/98</t>
+  </si>
+  <si>
+    <t>43755.01/-</t>
+  </si>
+  <si>
+    <t>50114.95/0.326</t>
+  </si>
+  <si>
+    <t>0.0334/96</t>
+  </si>
+  <si>
+    <t>37116.73/0.009</t>
+  </si>
+  <si>
+    <t>0.0315/85</t>
+  </si>
+  <si>
+    <t>48353.83/0.032</t>
+  </si>
+  <si>
+    <t>0.0325/99</t>
+  </si>
+  <si>
+    <t>66422.62/-</t>
+  </si>
+  <si>
+    <t>0.0339/-</t>
+  </si>
+  <si>
+    <t>95029.93/0.201</t>
+  </si>
+  <si>
+    <t>82515.28/0.000</t>
+  </si>
+  <si>
+    <t>38312.03/-</t>
+  </si>
+  <si>
+    <t>0.0387/-</t>
+  </si>
+  <si>
+    <t>0.0315/87</t>
+  </si>
+  <si>
+    <t>40163.80/0.214</t>
+  </si>
+  <si>
+    <t>39916.89/0.004</t>
+  </si>
+  <si>
+    <t>0.0314/56</t>
+  </si>
+  <si>
+    <t>0.0439/-</t>
+  </si>
+  <si>
+    <t>71487.50/0.008</t>
+  </si>
+  <si>
+    <t>71487.50/0.252</t>
+  </si>
+  <si>
+    <t>60861.78/-</t>
+  </si>
+  <si>
+    <t>70013.53/0.374</t>
+  </si>
+  <si>
+    <t>70013.53/0.039</t>
+  </si>
+  <si>
+    <t>57484.81/-</t>
+  </si>
+  <si>
+    <t>0.0327/-</t>
+  </si>
+  <si>
+    <t>57484.80/0.354</t>
+  </si>
+  <si>
+    <t>57484.80/0.038</t>
+  </si>
+  <si>
+    <t>0.0323/99</t>
+  </si>
+  <si>
+    <t>78120.37/-</t>
+  </si>
+  <si>
+    <t>0.0540/-</t>
+  </si>
+  <si>
+    <t>78120.36/0.131</t>
+  </si>
+  <si>
+    <t>78120.36/0.000</t>
+  </si>
+  <si>
+    <t>0.0314/41</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SAFA (lag = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>0.0317/99</t>
+  </si>
+  <si>
+    <t>0.0318/99</t>
+  </si>
+  <si>
+    <t>0.0322/99</t>
+  </si>
+  <si>
+    <t>0.0316/50</t>
+  </si>
+  <si>
+    <t>0.0315/41</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>EUR / SR</t>
+  </si>
+  <si>
+    <t>Version Variance</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VV</t>
+  </si>
+  <si>
+    <t>0.174/0.598</t>
+  </si>
+  <si>
+    <t>0.200/0.786</t>
+  </si>
+  <si>
+    <t>0.166/0.462</t>
+  </si>
+  <si>
+    <t>0.0315/88</t>
+  </si>
+  <si>
+    <t>0.0315/96</t>
+  </si>
+  <si>
+    <t>0.0316/92</t>
+  </si>
+  <si>
+    <t>0.176/0.426</t>
+  </si>
+  <si>
+    <t>0.200/0.696</t>
+  </si>
+  <si>
+    <t>0.200/0.714</t>
+  </si>
+  <si>
+    <t>0.198/0.702</t>
+  </si>
+  <si>
+    <t>0.254/0.582</t>
+  </si>
+  <si>
+    <t>0.296/0.458</t>
+  </si>
+  <si>
+    <t>0.290/0.398</t>
+  </si>
+  <si>
+    <t>0.286/0.364</t>
+  </si>
+  <si>
+    <t>0.200/0.694</t>
+  </si>
+  <si>
+    <t>0.564/0.764</t>
+  </si>
+  <si>
+    <t>0.310/0.582</t>
+  </si>
+  <si>
+    <t>0.308/0.364</t>
+  </si>
+  <si>
+    <t>0.300/0.346</t>
+  </si>
+  <si>
+    <t>0.562/0.716</t>
+  </si>
+  <si>
+    <t>0.298/0.328</t>
+  </si>
+  <si>
+    <t>0.298/0.326</t>
+  </si>
+  <si>
+    <t>0.0315/97</t>
+  </si>
+  <si>
+    <t>0.0327/97</t>
+  </si>
+  <si>
+    <t>0.304/0.316</t>
+  </si>
+  <si>
+    <t>0.0314/37</t>
+  </si>
+  <si>
+    <t>0.692/0.720</t>
+  </si>
+  <si>
+    <t>0.696/0.698</t>
+  </si>
+  <si>
+    <t>0.178/0.382</t>
+  </si>
+  <si>
+    <t>0.170/0.366</t>
+  </si>
+  <si>
+    <t>0.0324/99</t>
+  </si>
+  <si>
+    <t>0.200/0.712</t>
+  </si>
+  <si>
+    <t>0.172/0.308</t>
+  </si>
+  <si>
+    <t>0.560/0.706</t>
+  </si>
+  <si>
+    <t>0.564/0.704</t>
+  </si>
+  <si>
+    <t>0.562/0.688</t>
+  </si>
+  <si>
+    <t>0.200/0.660</t>
+  </si>
+  <si>
+    <t>0.0316/59</t>
+  </si>
+  <si>
+    <t>0.298/0.334</t>
+  </si>
+  <si>
+    <t>0.550/0.670</t>
+  </si>
+  <si>
+    <t>0.712/0.714</t>
+  </si>
+  <si>
+    <t>0.702/0.704</t>
+  </si>
+  <si>
+    <t>0.694/0.700</t>
+  </si>
+  <si>
+    <t>0.200/0.740</t>
+  </si>
+  <si>
+    <t>0.178/0.344</t>
+  </si>
+  <si>
+    <t>0.0333/99</t>
+  </si>
+  <si>
+    <t>0.178/0.352</t>
+  </si>
+  <si>
+    <t>0.168/0.318</t>
+  </si>
+  <si>
+    <t>0.200/0.704</t>
+  </si>
+  <si>
+    <t>0.200/0.722</t>
+  </si>
+  <si>
+    <t>0.0315/59</t>
+  </si>
+  <si>
+    <t>0.558/0.744</t>
+  </si>
+  <si>
+    <t>0.568/0.726</t>
+  </si>
+  <si>
+    <t>0.562/0.724</t>
+  </si>
+  <si>
+    <t>0.310/0.352</t>
+  </si>
+  <si>
+    <t>0.292/0.318</t>
+  </si>
+  <si>
+    <t>0.570/0.710</t>
+  </si>
+  <si>
+    <t>0.0314/48</t>
+  </si>
+  <si>
+    <t>0.288/0.314</t>
+  </si>
+  <si>
+    <t>0.0334/98</t>
+  </si>
+  <si>
+    <t>0.714/0.784</t>
+  </si>
+  <si>
+    <t>0.716/0.718</t>
+  </si>
+  <si>
+    <t>0.288/0.308</t>
+  </si>
+  <si>
+    <t>0.692/0.692</t>
+  </si>
+  <si>
+    <t>0.290/0.300</t>
+  </si>
+  <si>
+    <t>0.292/0.450</t>
+  </si>
+  <si>
+    <t>0.176/0.296</t>
+  </si>
+  <si>
+    <t>0.296/0.308</t>
+  </si>
+  <si>
+    <t>0.312/0.406</t>
+  </si>
+  <si>
+    <t>0.0315/94</t>
+  </si>
+  <si>
+    <t>0.710/0.712</t>
+  </si>
+  <si>
+    <t>0.298/0.318</t>
+  </si>
+  <si>
+    <t>0.0326/98</t>
+  </si>
+  <si>
+    <t>0.700/0.700</t>
+  </si>
+  <si>
+    <t>Effective Update Ratio (Upload = latest + stragglers)</t>
+  </si>
+  <si>
+    <t>Sync. Ratio (Download = latest + deprecated)</t>
   </si>
 </sst>
 </file>
@@ -1255,7 +1271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1277,9 +1293,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1289,26 +1302,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1323,16 +1321,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1447,40 +1466,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'lag&amp;EUR&amp;VV'!$B$43:$K$43</c:f>
+              <c:f>'lag&amp;EUR&amp;VV'!$B$52:$K$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>3.15E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.15E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.15E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.1399999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.1600000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.15E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.1399999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.15E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.1399999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.1600000000000003E-2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1511,40 +1500,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'lag&amp;EUR&amp;VV'!$B$44:$K$44</c:f>
+              <c:f>'lag&amp;EUR&amp;VV'!$B$53:$K$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>4.0800000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.6700000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.7600000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.6200000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.8300000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.5299999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.27E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.6600000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.5499999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.6200000000000003E-2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1575,40 +1534,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'lag&amp;EUR&amp;VV'!$B$47:$K$47</c:f>
+              <c:f>'lag&amp;EUR&amp;VV'!$B$56:$K$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>3.15E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.15E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.15E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.15E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.15E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.15E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.15E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.15E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.15E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.1399999999999997E-2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1639,40 +1568,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'lag&amp;EUR&amp;VV'!$B$48:$K$48</c:f>
+              <c:f>'lag&amp;EUR&amp;VV'!$B$57:$K$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>3.4200000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.5099999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.49E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.4000000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.3500000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.49E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.2000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.3599999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.2800000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.5400000000000001E-2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1703,40 +1602,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'lag&amp;EUR&amp;VV'!$B$51:$K$51</c:f>
+              <c:f>'lag&amp;EUR&amp;VV'!$B$60:$K$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>3.15E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.15E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.15E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.15E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.15E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.15E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.1399999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.1600000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.1399999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.1600000000000003E-2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1767,40 +1636,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'lag&amp;EUR&amp;VV'!$B$52:$K$52</c:f>
+              <c:f>'lag&amp;EUR&amp;VV'!$B$61:$K$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>4.24E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.7900000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.4299999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.3599999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.3399999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.5000000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.2099999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.2500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.39E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.2800000000000003E-2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2111,40 +1950,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'lag&amp;EUR&amp;VV'!$B$57:$K$57</c:f>
+              <c:f>'lag&amp;EUR&amp;VV'!$B$66:$K$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.16200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.186</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.19600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.19800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2175,40 +1984,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'lag&amp;EUR&amp;VV'!$B$58:$K$58</c:f>
+              <c:f>'lag&amp;EUR&amp;VV'!$B$67:$K$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>8.4000000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.112</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.13600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.14799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.16800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.16200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.16400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.17199999999999999</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2239,40 +2018,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'lag&amp;EUR&amp;VV'!$B$61:$K$61</c:f>
+              <c:f>'lag&amp;EUR&amp;VV'!$B$70:$K$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.53600000000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.52</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.55400000000000005</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.56000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.56799999999999995</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.56599999999999995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.56000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.56000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.55800000000000005</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2303,40 +2052,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'lag&amp;EUR&amp;VV'!$B$62:$K$62</c:f>
+              <c:f>'lag&amp;EUR&amp;VV'!$B$71:$K$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.186</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.214</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.23400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.26200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.29599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.28999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.30599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.3</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2367,40 +2086,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'lag&amp;EUR&amp;VV'!$B$65:$K$65</c:f>
+              <c:f>'lag&amp;EUR&amp;VV'!$B$74:$K$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.63800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.66200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.68</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.70599999999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.70599999999999996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.71</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.70399999999999996</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.70399999999999996</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.70199999999999996</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2431,40 +2120,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'lag&amp;EUR&amp;VV'!$B$66:$K$66</c:f>
+              <c:f>'lag&amp;EUR&amp;VV'!$B$75:$K$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.13700000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.24199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.252</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.27800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.30399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.28799999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.31</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.31</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2774,40 +2433,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'lag&amp;EUR&amp;VV'!$B$71:$K$71</c:f>
+              <c:f>'lag&amp;EUR&amp;VV'!$B$94:$K$94</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>9.6000000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.21299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.25900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.33600000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.373</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.39200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.46700000000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.44900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.434</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2838,40 +2467,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'lag&amp;EUR&amp;VV'!$B$72:$K$72</c:f>
+              <c:f>'lag&amp;EUR&amp;VV'!$B$95:$K$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>8.9999999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.8000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.33100000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.35499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.72</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.68200000000000005</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.94099999999999995</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0429999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.208</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2902,40 +2501,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'lag&amp;EUR&amp;VV'!$B$75:$K$75</c:f>
+              <c:f>'lag&amp;EUR&amp;VV'!$B$98:$K$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>9.0999999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.22900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.315</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.35399999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.35799999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.38500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.46600000000000003</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2966,40 +2535,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'lag&amp;EUR&amp;VV'!$B$76:$K$76</c:f>
+              <c:f>'lag&amp;EUR&amp;VV'!$B$99:$K$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>3.6999999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.105</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.27100000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.36199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.38800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.64400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.94199999999999995</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0329999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.4470000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.542</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3030,40 +2569,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'lag&amp;EUR&amp;VV'!$B$79:$K$79</c:f>
+              <c:f>'lag&amp;EUR&amp;VV'!$B$102:$K$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>9.8000000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.217</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.33800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.36499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.36599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.38200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.41</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.45400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.47</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.495</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3094,40 +2603,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'lag&amp;EUR&amp;VV'!$B$80:$K$80</c:f>
+              <c:f>'lag&amp;EUR&amp;VV'!$B$103:$K$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1.7999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.0999999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.38500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.38800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.53400000000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.67700000000000005</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0369999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.4650000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.468</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5006,15 +4485,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5036,15 +4515,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>490537</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5066,15 +4545,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:colOff>80962</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:colOff>538162</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5373,14 +4852,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
       <c r="H1" t="s">
         <v>16</v>
       </c>
@@ -5395,14 +4874,14 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
       <c r="H2" s="4">
         <v>1E-4</v>
       </c>
@@ -5411,14 +4890,14 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="A3" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -5476,13 +4955,13 @@
       <c r="C6" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>80</v>
       </c>
       <c r="G6">
@@ -5499,10 +4978,10 @@
       <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F7" t="s">
@@ -5538,14 +5017,14 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="A10" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -5603,7 +5082,7 @@
       <c r="C13" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>57</v>
       </c>
       <c r="E13" t="s">
@@ -5626,13 +5105,13 @@
       <c r="C14" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>58</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="15" t="s">
         <v>56</v>
       </c>
       <c r="G14">
@@ -5665,14 +5144,14 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="A17" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
@@ -5707,7 +5186,7 @@
       <c r="C19" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="10" t="s">
         <v>43</v>
       </c>
       <c r="E19" s="6" t="s">
@@ -5730,10 +5209,10 @@
       <c r="C20" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="11" t="s">
         <v>73</v>
       </c>
       <c r="F20" t="s">
@@ -5747,7 +5226,7 @@
       <c r="A21" s="3">
         <v>0.5</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C21" t="s">
@@ -5787,27 +5266,27 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
+      <c r="A25" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A1:F1"/>
     <mergeCell ref="A25:J25"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5830,19 +5309,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
       <c r="G1" s="7" t="s">
-        <v>267</v>
+        <v>174</v>
       </c>
       <c r="H1" t="s">
-        <v>207</v>
+        <v>114</v>
       </c>
       <c r="I1" t="s">
         <v>17</v>
@@ -5852,32 +5331,32 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
       <c r="G2" s="7"/>
       <c r="I2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="A3" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -5890,120 +5369,120 @@
         <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>210</v>
+        <v>117</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>211</v>
+        <v>118</v>
       </c>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
+      <c r="A5" s="18">
         <v>0.1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>215</v>
+        <v>120</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>216</v>
+        <v>123</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="21">
+        <v>89</v>
+      </c>
+      <c r="G5" s="17">
         <v>0.09</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="24">
+      <c r="A6" s="18">
         <v>0.3</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>214</v>
+      <c r="B6" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="F6" s="14" t="s">
+      <c r="E6" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="G6" s="27">
+      <c r="F6" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="21">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
+      <c r="A7" s="18">
         <v>0.5</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="G7" s="27">
+      <c r="B7" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G7" s="21">
         <v>0.05</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
+      <c r="A8" s="18">
         <v>0.7</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>233</v>
+      <c r="B8" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>140</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="G8" s="20">
+        <v>141</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G8" s="16">
         <v>0.03</v>
       </c>
       <c r="I8" t="s">
-        <v>268</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="24"/>
+      <c r="A9" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="18"/>
       <c r="I9" s="29" t="s">
-        <v>269</v>
+        <v>176</v>
       </c>
       <c r="J9" s="29"/>
       <c r="K9" s="29"/>
@@ -6011,7 +5490,7 @@
       <c r="M9" s="29"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -6024,26 +5503,26 @@
         <v>12</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>210</v>
+        <v>117</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>211</v>
+        <v>118</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>270</v>
+        <v>177</v>
       </c>
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
+      <c r="A11" s="18">
         <v>0.1</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>121</v>
+      <c r="C11" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>69</v>
@@ -6052,13 +5531,13 @@
         <v>21</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>218</v>
+        <v>125</v>
       </c>
       <c r="G11" s="5">
         <v>0.27</v>
       </c>
       <c r="I11" s="30" t="s">
-        <v>273</v>
+        <v>180</v>
       </c>
       <c r="J11" s="30"/>
       <c r="K11" s="30"/>
@@ -6066,87 +5545,87 @@
       <c r="M11" s="30"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
+      <c r="A12" s="18">
         <v>0.3</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="G12" s="28">
+      <c r="C12" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" s="22">
         <v>0.21</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
+      <c r="A13" s="18">
         <v>0.5</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="F13" s="15" t="s">
+      <c r="B13" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="22">
         <v>0.15</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
+      <c r="A14" s="18">
         <v>0.7</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>241</v>
+      <c r="B14" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>148</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="G14" s="24">
+      <c r="F14" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="18">
         <v>0.09</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="24"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -6159,118 +5638,118 @@
         <v>12</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>210</v>
+        <v>117</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>211</v>
+        <v>118</v>
       </c>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
+      <c r="A17" s="18">
         <v>0.1</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>219</v>
+      <c r="C17" s="12" t="s">
+        <v>126</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>220</v>
+        <v>127</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>222</v>
+        <v>129</v>
       </c>
       <c r="G17" s="5">
         <v>0.45</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="24">
+      <c r="A18" s="18">
         <v>0.3</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="E18" s="13" t="s">
+      <c r="B18" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="G18" s="28">
+      <c r="F18" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" s="22">
         <v>0.35</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
+      <c r="A19" s="18">
         <v>0.5</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="C19" s="13" t="s">
+      <c r="B19" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="F19" s="14" t="s">
+      <c r="E19" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="F19" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="22">
         <v>0.25</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="24">
+      <c r="A20" s="18">
         <v>0.7</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>245</v>
+      <c r="B20" s="12" t="s">
+        <v>152</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="G20" s="28">
+        <v>178</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="22">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="24"/>
+      <c r="A21" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -6283,114 +5762,114 @@
         <v>12</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>210</v>
+        <v>117</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>211</v>
+        <v>118</v>
       </c>
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="24">
+      <c r="A23" s="18">
         <v>0.1</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>224</v>
+        <v>130</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>225</v>
+        <v>132</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G23" s="5">
         <v>0.63</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="24">
+      <c r="A24" s="18">
         <v>0.3</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="G24" s="28">
+      <c r="D24" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="22">
         <v>0.49</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="24">
+      <c r="A25" s="18">
         <v>0.5</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="G25" s="28">
+      <c r="B25" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G25" s="22">
         <v>0.35</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="24">
+      <c r="A26" s="18">
         <v>0.7</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>253</v>
+      <c r="B26" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="G26" s="28">
+        <v>154</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="G26" s="22">
         <v>0.21</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
+      <c r="A27" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
       <c r="G27" s="7"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -6407,10 +5886,10 @@
         <v>12</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>210</v>
+        <v>117</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>211</v>
+        <v>118</v>
       </c>
       <c r="G28" s="2"/>
     </row>
@@ -6419,19 +5898,19 @@
         <v>0.1</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>224</v>
+        <v>134</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>228</v>
+        <v>135</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>224</v>
+        <v>131</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>228</v>
+        <v>135</v>
       </c>
       <c r="G29" s="5">
         <v>0.9</v>
@@ -6441,22 +5920,22 @@
       <c r="A30" s="7">
         <v>0.3</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="D30" s="13" t="s">
+      <c r="C30" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="G30" s="28">
+      <c r="E30" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="G30" s="22">
         <v>0.7</v>
       </c>
     </row>
@@ -6464,22 +5943,22 @@
       <c r="A31" s="7">
         <v>0.5</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="G31" s="28">
+      <c r="B31" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="G31" s="22">
         <v>0.5</v>
       </c>
     </row>
@@ -6487,53 +5966,53 @@
       <c r="A32" s="7">
         <v>0.7</v>
       </c>
-      <c r="B32" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>259</v>
+      <c r="B32" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>166</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="G32" s="28">
+        <v>179</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G32" s="22">
         <v>0.3</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
+      <c r="A35" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A15:F15"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A27:F27"/>
     <mergeCell ref="A35:K35"/>
     <mergeCell ref="I9:M9"/>
     <mergeCell ref="I10:K10"/>
     <mergeCell ref="I11:M11"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A15:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6542,10 +6021,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R80"/>
+  <dimension ref="A1:R103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F37" workbookViewId="0">
-      <selection activeCell="S80" sqref="S80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6558,24 +6037,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
       <c r="L1" s="7" t="s">
-        <v>267</v>
+        <v>174</v>
       </c>
       <c r="M1" t="s">
-        <v>207</v>
+        <v>114</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -6591,85 +6070,85 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
+      <c r="A4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>276</v>
+        <v>182</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>277</v>
+        <v>183</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>278</v>
+        <v>184</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>279</v>
+        <v>185</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>280</v>
+        <v>186</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>281</v>
+        <v>187</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>282</v>
+        <v>188</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>283</v>
+        <v>189</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="24"/>
+        <v>190</v>
+      </c>
+      <c r="L5" s="16"/>
+      <c r="M5" s="18"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
@@ -6677,146 +6156,146 @@
       <c r="R5" s="5"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="24">
+      <c r="A6" s="18">
         <v>0.3</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="13"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>356</v>
-      </c>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="14"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
-        <v>0.7</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>299</v>
-      </c>
       <c r="E7" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="M7" s="24"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
+        <v>296</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="M7" s="18"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
       <c r="Q7" s="6"/>
-      <c r="R7" s="13"/>
+      <c r="R7" s="12"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>276</v>
+        <v>182</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>277</v>
+        <v>183</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>278</v>
+        <v>184</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>279</v>
+        <v>185</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>280</v>
+        <v>186</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>281</v>
+        <v>187</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>282</v>
+        <v>188</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>283</v>
+        <v>189</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="24"/>
+        <v>190</v>
+      </c>
+      <c r="L9" s="22"/>
+      <c r="M9" s="18"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
@@ -6824,147 +6303,147 @@
       <c r="R9" s="5"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="24">
+      <c r="A10" s="18">
         <v>0.3</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="K10" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="L10" s="28"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
+      <c r="B10" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L10" s="22"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
       <c r="P10" s="6"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="14"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="13"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
+      <c r="A11" s="18">
         <v>0.7</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="I11" s="14" t="s">
+      <c r="B11" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="I11" s="13" t="s">
         <v>364</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="K11" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
+        <v>377</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
       <c r="Q11" s="6"/>
-      <c r="R11" s="13"/>
+      <c r="R11" s="12"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
+      <c r="A12" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>276</v>
+        <v>182</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>277</v>
+        <v>183</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>278</v>
+        <v>184</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>279</v>
+        <v>185</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>280</v>
+        <v>186</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>281</v>
+        <v>187</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>282</v>
+        <v>188</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>283</v>
+        <v>189</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>284</v>
+        <v>190</v>
       </c>
       <c r="L13" s="5"/>
-      <c r="M13" s="24"/>
+      <c r="M13" s="18"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
@@ -6972,1650 +6451,1950 @@
       <c r="R13" s="5"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
+      <c r="A14" s="18">
         <v>0.3</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="13" t="s">
+      <c r="B14" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="14" t="s">
-        <v>339</v>
+      <c r="F14" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>300</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>309</v>
+        <v>69</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="K14" s="14" t="s">
-        <v>291</v>
+        <v>19</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>128</v>
       </c>
       <c r="L14" s="5"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
       <c r="P14" s="6"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="14"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="13"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
+      <c r="A15" s="18">
         <v>0.7</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>362</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>31</v>
+      <c r="B15" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>161</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="L15" s="28"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
+        <v>298</v>
+      </c>
+      <c r="L15" s="22"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
       <c r="Q15" s="6"/>
-      <c r="R15" s="13"/>
+      <c r="R15" s="12"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="L16" s="28"/>
+      <c r="L16" s="22"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
+      <c r="A17" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
       <c r="L17" s="5"/>
+      <c r="M17" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
+      <c r="A18" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
       <c r="L18" s="5"/>
+      <c r="M18" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>276</v>
+        <v>182</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>277</v>
+        <v>183</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>278</v>
+        <v>184</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>279</v>
+        <v>185</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>280</v>
+        <v>186</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>281</v>
+        <v>187</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>282</v>
+        <v>188</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>283</v>
+        <v>189</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="L19" s="28"/>
+        <v>190</v>
+      </c>
+      <c r="L19" s="22"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="24">
+      <c r="A20" s="18">
         <v>0.3</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" t="s">
+        <v>306</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="L20" s="22"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="F21" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="C20" s="32" t="s">
-        <v>331</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="I20" s="14" t="s">
+      <c r="G21" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="I21" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="J20" s="26" t="s">
-        <v>350</v>
-      </c>
-      <c r="K20" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="L20" s="28"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="24">
-        <v>0.7</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="H21" s="14" t="s">
+      <c r="J21" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="I21" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>379</v>
-      </c>
-      <c r="K21" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="L21" s="28"/>
+      <c r="K21" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="L21" s="22"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
       <c r="L22" s="7"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>276</v>
+        <v>182</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>278</v>
+        <v>183</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>184</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>279</v>
+        <v>185</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>280</v>
+        <v>186</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>281</v>
+        <v>187</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>282</v>
+        <v>188</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>283</v>
+        <v>189</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>284</v>
+        <v>190</v>
       </c>
       <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="24">
+      <c r="A24" s="18">
         <v>0.3</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>322</v>
+      <c r="B24" s="12" t="s">
+        <v>320</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="E24" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="K25" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="F24" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>368</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="I24" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="J24" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="K24" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="L24" s="5"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="24">
-        <v>0.7</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>336</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="J25" s="14" t="s">
-        <v>357</v>
-      </c>
-      <c r="K25" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="L25" s="28"/>
+      <c r="L25" s="22"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="28"/>
+      <c r="A26" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="22"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>276</v>
+        <v>182</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>277</v>
+        <v>183</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>278</v>
+        <v>184</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>279</v>
+        <v>185</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>280</v>
+        <v>186</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>281</v>
+        <v>187</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>282</v>
+        <v>188</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>283</v>
+        <v>189</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="L27" s="28"/>
+        <v>190</v>
+      </c>
+      <c r="L27" s="22"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="24">
+      <c r="A28" s="18">
         <v>0.3</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="E28" s="14" t="s">
+      <c r="B28" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="C28" t="s">
+        <v>331</v>
+      </c>
+      <c r="D28" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="G28" s="32" t="s">
+      <c r="E28" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="I28" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="J28" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="K28" s="24" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="I29" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="J29" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="K29" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="H28" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="I28" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="J28" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="K28" s="14" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="24">
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="M32" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="B35">
+        <v>0.126</v>
+      </c>
+      <c r="C35" s="24">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="D35" s="10">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="E35" s="13">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="F35" s="13">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="G35" s="13">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="H35" s="13">
+        <v>0.434</v>
+      </c>
+      <c r="I35" s="13">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="J35" s="20">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="K35" s="13">
+        <v>0.55100000000000005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="19">
         <v>0.7</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>336</v>
-      </c>
-      <c r="G29" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="H29" s="14" t="s">
-        <v>372</v>
-      </c>
-      <c r="I29" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="J29" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="K29" s="14" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
+      <c r="B36" s="12">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="C36" s="12">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="D36" s="12">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="E36" s="12">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="F36" s="13">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="G36" s="13">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="H36" s="13">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="I36" s="13">
+        <v>1.0509999999999999</v>
+      </c>
+      <c r="J36" s="13">
+        <v>1.276</v>
+      </c>
+      <c r="K36" s="13">
+        <v>1.5589999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>292</v>
+      <c r="A38" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="B39" s="12">
+        <v>0.121</v>
+      </c>
+      <c r="C39" s="12">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="D39" s="12">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="E39" s="13">
+        <v>0.32</v>
+      </c>
+      <c r="F39" s="13">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="G39" s="13">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="H39" s="13">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="I39" s="13">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="J39" s="13">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="K39" s="13">
+        <v>0.45300000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
+      <c r="A40" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="B40" s="12">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="C40" s="13">
+        <v>0.154</v>
+      </c>
+      <c r="D40" s="12">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="E40" s="13">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="F40" s="13">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="G40" s="13">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="H40" s="13">
+        <v>0.746</v>
+      </c>
+      <c r="I40" s="13">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="J40" s="13">
+        <v>1.1459999999999999</v>
+      </c>
+      <c r="K40" s="13">
+        <v>1.468</v>
+      </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
+      <c r="A41" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>276</v>
+        <v>182</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>277</v>
+        <v>183</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>278</v>
+        <v>184</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>279</v>
+        <v>185</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>280</v>
+        <v>186</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>281</v>
+        <v>187</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>282</v>
+        <v>188</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>283</v>
+        <v>189</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>284</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="24">
+      <c r="A43" s="19">
         <v>0.3</v>
       </c>
       <c r="B43" s="13">
-        <v>3.15E-2</v>
-      </c>
-      <c r="C43" s="13">
-        <v>3.15E-2</v>
+        <v>0.114</v>
+      </c>
+      <c r="C43">
+        <v>0.23799999999999999</v>
       </c>
       <c r="D43" s="13">
-        <v>3.15E-2</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="E43" s="13">
-        <v>3.1399999999999997E-2</v>
+        <v>0.318</v>
       </c>
       <c r="F43" s="13">
-        <v>3.1600000000000003E-2</v>
-      </c>
-      <c r="G43" s="13">
-        <v>3.15E-2</v>
-      </c>
-      <c r="H43" s="13">
-        <v>3.1399999999999997E-2</v>
-      </c>
-      <c r="I43" s="13">
-        <v>3.15E-2</v>
-      </c>
-      <c r="J43" s="13">
-        <v>3.1399999999999997E-2</v>
-      </c>
-      <c r="K43" s="14">
-        <v>3.1600000000000003E-2</v>
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="G43" s="24">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="H43" s="24">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="I43" s="24">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="J43" s="24">
+        <v>0.433</v>
+      </c>
+      <c r="K43" s="24">
+        <v>0.46800000000000003</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="24">
+      <c r="A44" s="19">
         <v>0.7</v>
       </c>
-      <c r="B44" s="14">
-        <v>4.0800000000000003E-2</v>
-      </c>
-      <c r="C44" s="13">
-        <v>3.6700000000000003E-2</v>
-      </c>
-      <c r="D44" s="13">
-        <v>3.7600000000000001E-2</v>
+      <c r="B44" s="13">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="C44" s="12">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="D44" s="12">
+        <v>0.23200000000000001</v>
       </c>
       <c r="E44" s="13">
-        <v>3.6200000000000003E-2</v>
-      </c>
-      <c r="F44" s="14">
-        <v>3.8300000000000001E-2</v>
-      </c>
-      <c r="G44" s="14">
-        <v>3.5299999999999998E-2</v>
-      </c>
-      <c r="H44" s="14">
-        <v>3.27E-2</v>
-      </c>
-      <c r="I44" s="14">
-        <v>3.6600000000000001E-2</v>
-      </c>
-      <c r="J44" s="14">
-        <v>3.5499999999999997E-2</v>
-      </c>
-      <c r="K44" s="14">
-        <v>3.6200000000000003E-2</v>
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="F44" s="13">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="G44" s="24">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="H44" s="24">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="I44" s="24">
+        <v>1.125</v>
+      </c>
+      <c r="J44" s="24">
+        <v>1.137</v>
+      </c>
+      <c r="K44" s="24">
+        <v>1.423</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="19"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="28"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="18">
+        <v>0.3</v>
+      </c>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="13"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="B53" s="13"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="24" t="s">
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B55" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="J46" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="K46" s="5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="24">
+      <c r="C55" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="18">
         <v>0.3</v>
       </c>
-      <c r="B47" s="13">
-        <v>3.15E-2</v>
-      </c>
-      <c r="C47" s="13">
-        <v>3.15E-2</v>
-      </c>
-      <c r="D47" s="13">
-        <v>3.15E-2</v>
-      </c>
-      <c r="E47" s="13">
-        <v>3.15E-2</v>
-      </c>
-      <c r="F47" s="13">
-        <v>3.15E-2</v>
-      </c>
-      <c r="G47" s="13">
-        <v>3.15E-2</v>
-      </c>
-      <c r="H47" s="13">
-        <v>3.15E-2</v>
-      </c>
-      <c r="I47" s="13">
-        <v>3.15E-2</v>
-      </c>
-      <c r="J47" s="13">
-        <v>3.15E-2</v>
-      </c>
-      <c r="K47" s="14">
-        <v>3.1399999999999997E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="24">
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="13"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="18">
         <v>0.7</v>
       </c>
-      <c r="B48" s="13">
-        <v>3.4200000000000001E-2</v>
-      </c>
-      <c r="C48" s="13">
-        <v>3.5099999999999999E-2</v>
-      </c>
-      <c r="D48" s="13">
-        <v>3.49E-2</v>
-      </c>
-      <c r="E48" s="13">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="F48" s="13">
-        <v>3.3500000000000002E-2</v>
-      </c>
-      <c r="G48" s="13">
-        <v>3.49E-2</v>
-      </c>
-      <c r="H48" s="13">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="I48" s="13">
-        <v>3.3599999999999998E-2</v>
-      </c>
-      <c r="J48" s="13">
-        <v>3.2800000000000003E-2</v>
-      </c>
-      <c r="K48" s="14">
-        <v>3.5400000000000001E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="25"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="24" t="s">
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="13"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="28"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B59" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="J50" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="K50" s="5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="24">
+      <c r="C59" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="18">
         <v>0.3</v>
       </c>
-      <c r="B51" s="13">
-        <v>3.15E-2</v>
-      </c>
-      <c r="C51" s="13">
-        <v>3.15E-2</v>
-      </c>
-      <c r="D51" s="13">
-        <v>3.15E-2</v>
-      </c>
-      <c r="E51" s="13">
-        <v>3.15E-2</v>
-      </c>
-      <c r="F51" s="13">
-        <v>3.15E-2</v>
-      </c>
-      <c r="G51" s="13">
-        <v>3.15E-2</v>
-      </c>
-      <c r="H51" s="13">
-        <v>3.1399999999999997E-2</v>
-      </c>
-      <c r="I51" s="13">
-        <v>3.1600000000000003E-2</v>
-      </c>
-      <c r="J51" s="13">
-        <v>3.1399999999999997E-2</v>
-      </c>
-      <c r="K51" s="14">
-        <v>3.1600000000000003E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="24">
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="13"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="18">
         <v>0.7</v>
       </c>
-      <c r="B52" s="13">
-        <v>4.24E-2</v>
-      </c>
-      <c r="C52" s="13">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="D52" s="13">
-        <v>3.4299999999999997E-2</v>
-      </c>
-      <c r="E52" s="13">
-        <v>3.3599999999999998E-2</v>
-      </c>
-      <c r="F52" s="13">
-        <v>3.3399999999999999E-2</v>
-      </c>
-      <c r="G52" s="13">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="H52" s="13">
-        <v>3.2099999999999997E-2</v>
-      </c>
-      <c r="I52" s="13">
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="J52" s="13">
-        <v>3.39E-2</v>
-      </c>
-      <c r="K52" s="14">
-        <v>3.2800000000000003E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="23" t="s">
-        <v>229</v>
-      </c>
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="23"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="24" t="s">
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="13"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="B63" s="31"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="31"/>
+      <c r="K63" s="31"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B64" s="26"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="26"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B65" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="J56" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="K56" s="5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="24">
+      <c r="C65" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="18">
         <v>0.3</v>
       </c>
-      <c r="B57" s="13">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="C57" s="32">
-        <v>0.186</v>
-      </c>
-      <c r="D57" s="11">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="E57" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="F57" s="14">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="G57" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="H57" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="I57" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="J57" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="K57" s="14">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="24">
+      <c r="B66" s="12"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="13"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="18">
         <v>0.7</v>
       </c>
-      <c r="B58" s="13">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C58" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="D58" s="13">
-        <v>0.112</v>
-      </c>
-      <c r="E58" s="13">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="F58" s="14">
-        <v>0.13</v>
-      </c>
-      <c r="G58" s="14">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="H58" s="14">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="I58" s="14">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="J58" s="14">
-        <v>0.16400000000000001</v>
-      </c>
-      <c r="K58" s="14">
-        <v>0.17199999999999999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="25" t="s">
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="13"/>
+      <c r="K67" s="13"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
-      <c r="I59" s="25"/>
-      <c r="J59" s="25"/>
-      <c r="K59" s="25"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="24" t="s">
+      <c r="B68" s="28"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="28"/>
+      <c r="K68" s="28"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B69" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C60" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="J60" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="K60" s="5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="24">
+      <c r="C69" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K69" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="18">
         <v>0.3</v>
       </c>
-      <c r="B61" s="13">
-        <v>0.53600000000000003</v>
-      </c>
-      <c r="C61" s="13">
-        <v>0.52</v>
-      </c>
-      <c r="D61" s="13">
-        <v>0.55400000000000005</v>
-      </c>
-      <c r="E61" s="14">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F61" s="14">
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="G61" s="14">
-        <v>0.56599999999999995</v>
-      </c>
-      <c r="H61" s="14">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="I61" s="14">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="J61" s="14">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="K61" s="14">
-        <v>0.55800000000000005</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="24">
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="13"/>
+      <c r="K70" s="13"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="18">
         <v>0.7</v>
       </c>
-      <c r="B62" s="13">
-        <v>0.186</v>
-      </c>
-      <c r="C62" s="13">
-        <v>0.214</v>
-      </c>
-      <c r="D62" s="13">
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="E62" s="14">
-        <v>0.26</v>
-      </c>
-      <c r="F62" s="14">
-        <v>0.26</v>
-      </c>
-      <c r="G62" s="14">
-        <v>0.26200000000000001</v>
-      </c>
-      <c r="H62" s="14">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="I62" s="14">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="J62" s="14">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="K62" s="14">
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="13"/>
+      <c r="K71" s="13"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B72" s="28"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="28"/>
+      <c r="J72" s="28"/>
+      <c r="K72" s="28"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="18">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="25"/>
-      <c r="K63" s="25"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="24" t="s">
+      <c r="B74" s="13"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="24"/>
+      <c r="I74" s="24"/>
+      <c r="J74" s="24"/>
+      <c r="K74" s="24"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="B75" s="13"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="24"/>
+      <c r="I75" s="24"/>
+      <c r="J75" s="24"/>
+      <c r="K75" s="24"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="B78" s="31"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="31"/>
+      <c r="K78" s="31"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B79" s="26"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="26"/>
+      <c r="J79" s="26"/>
+      <c r="K79" s="26"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B80" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="H64" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="J64" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="K64" s="5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="24">
+      <c r="C80" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="19">
         <v>0.3</v>
       </c>
-      <c r="B65" s="14">
-        <v>0.63800000000000001</v>
-      </c>
-      <c r="C65" s="13">
-        <v>0.66200000000000003</v>
-      </c>
-      <c r="D65" s="14">
-        <v>0.68</v>
-      </c>
-      <c r="E65" s="14">
+      <c r="B81" s="12"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="13"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="13"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="19">
         <v>0.7</v>
       </c>
-      <c r="F65" s="14">
-        <v>0.70599999999999996</v>
-      </c>
-      <c r="G65" s="32">
-        <v>0.70599999999999996</v>
-      </c>
-      <c r="H65" s="32">
-        <v>0.71</v>
-      </c>
-      <c r="I65" s="32">
-        <v>0.70399999999999996</v>
-      </c>
-      <c r="J65" s="32">
-        <v>0.70399999999999996</v>
-      </c>
-      <c r="K65" s="32">
-        <v>0.70199999999999996</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="24">
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="13"/>
+      <c r="K82" s="13"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B83" s="28"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="28"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="28"/>
+      <c r="I83" s="28"/>
+      <c r="J83" s="28"/>
+      <c r="K83" s="28"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K84" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="13"/>
+      <c r="J85" s="13"/>
+      <c r="K85" s="13"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="19">
         <v>0.7</v>
       </c>
-      <c r="B66" s="14">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="C66" s="13">
-        <v>0.18</v>
-      </c>
-      <c r="D66" s="14">
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="E66" s="14">
-        <v>0.252</v>
-      </c>
-      <c r="F66" s="14">
-        <v>0.26</v>
-      </c>
-      <c r="G66" s="32">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="H66" s="32">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="I66" s="32">
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="J66" s="32">
-        <v>0.31</v>
-      </c>
-      <c r="K66" s="32">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="B68" s="23"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="23"/>
-      <c r="H68" s="23"/>
-      <c r="I68" s="23"/>
-      <c r="J68" s="23"/>
-      <c r="K68" s="23"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="24" t="s">
+      <c r="B86" s="12"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="13"/>
+      <c r="I86" s="13"/>
+      <c r="J86" s="13"/>
+      <c r="K86" s="13"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B87" s="28"/>
+      <c r="C87" s="28"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="28"/>
+      <c r="F87" s="28"/>
+      <c r="G87" s="28"/>
+      <c r="H87" s="28"/>
+      <c r="I87" s="28"/>
+      <c r="J87" s="28"/>
+      <c r="K87" s="28"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B88" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C70" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="H70" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="I70" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="J70" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="K70" s="5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="24">
+      <c r="C88" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="J88" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K88" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="19">
         <v>0.3</v>
       </c>
-      <c r="B71" s="13">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="C71" s="32">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="D71" s="11">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="E71" s="14">
-        <v>0.33600000000000002</v>
-      </c>
-      <c r="F71" s="14">
-        <v>0.373</v>
-      </c>
-      <c r="G71" s="14">
-        <v>0.38</v>
-      </c>
-      <c r="H71" s="14">
-        <v>0.39200000000000002</v>
-      </c>
-      <c r="I71" s="14">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="J71" s="11">
-        <v>0.44900000000000001</v>
-      </c>
-      <c r="K71" s="14">
-        <v>0.434</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="24">
+      <c r="B89" s="13"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="24"/>
+      <c r="H89" s="24"/>
+      <c r="I89" s="24"/>
+      <c r="J89" s="24"/>
+      <c r="K89" s="24"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="19">
         <v>0.7</v>
       </c>
-      <c r="B72" s="13">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="C72" s="13">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="D72" s="13">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E72" s="13">
-        <v>0.33100000000000002</v>
-      </c>
-      <c r="F72" s="14">
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="G72" s="14">
-        <v>0.72</v>
-      </c>
-      <c r="H72" s="14">
-        <v>0.68200000000000005</v>
-      </c>
-      <c r="I72" s="14">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="J72" s="14">
-        <v>1.0429999999999999</v>
-      </c>
-      <c r="K72" s="14">
-        <v>1.208</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="25" t="s">
+      <c r="B90" s="13"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="24"/>
+      <c r="H90" s="24"/>
+      <c r="I90" s="24"/>
+      <c r="J90" s="24"/>
+      <c r="K90" s="24"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="B91" s="31"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="31"/>
+      <c r="F91" s="31"/>
+      <c r="G91" s="31"/>
+      <c r="H91" s="31"/>
+      <c r="I91" s="31"/>
+      <c r="J91" s="31"/>
+      <c r="K91" s="31"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B92" s="26"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="26"/>
+      <c r="I92" s="26"/>
+      <c r="J92" s="26"/>
+      <c r="K92" s="26"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="J93" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K93" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="18">
+        <v>0.3</v>
+      </c>
+      <c r="B94" s="12"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="13"/>
+      <c r="J94" s="10"/>
+      <c r="K94" s="13"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="B95" s="12"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="13"/>
+      <c r="I95" s="13"/>
+      <c r="J95" s="13"/>
+      <c r="K95" s="13"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B73" s="25"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="25"/>
-      <c r="H73" s="25"/>
-      <c r="I73" s="25"/>
-      <c r="J73" s="25"/>
-      <c r="K73" s="25"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="24" t="s">
+      <c r="B96" s="28"/>
+      <c r="C96" s="28"/>
+      <c r="D96" s="28"/>
+      <c r="E96" s="28"/>
+      <c r="F96" s="28"/>
+      <c r="G96" s="28"/>
+      <c r="H96" s="28"/>
+      <c r="I96" s="28"/>
+      <c r="J96" s="28"/>
+      <c r="K96" s="28"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B97" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C74" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="H74" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="I74" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="J74" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="K74" s="5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="24">
+      <c r="C97" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="I97" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K97" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="18">
         <v>0.3</v>
       </c>
-      <c r="B75" s="13">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="C75" s="13">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="D75" s="13">
+      <c r="B98" s="12"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="13"/>
+      <c r="J98" s="13"/>
+      <c r="K98" s="13"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="B99" s="12"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="13"/>
+      <c r="J99" s="13"/>
+      <c r="K99" s="13"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B100" s="28"/>
+      <c r="C100" s="28"/>
+      <c r="D100" s="28"/>
+      <c r="E100" s="28"/>
+      <c r="F100" s="28"/>
+      <c r="G100" s="28"/>
+      <c r="H100" s="28"/>
+      <c r="I100" s="28"/>
+      <c r="J100" s="28"/>
+      <c r="K100" s="28"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="I101" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="J101" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K101" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="18">
         <v>0.3</v>
       </c>
-      <c r="E75" s="14">
-        <v>0.315</v>
-      </c>
-      <c r="F75" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="G75" s="14">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="H75" s="14">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="I75" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="J75" s="14">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="K75" s="14">
-        <v>0.46600000000000003</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="24">
+      <c r="B102" s="13"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="24"/>
+      <c r="H102" s="24"/>
+      <c r="I102" s="24"/>
+      <c r="J102" s="24"/>
+      <c r="K102" s="24"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="18">
         <v>0.7</v>
       </c>
-      <c r="B76" s="13">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="C76" s="13">
-        <v>0.105</v>
-      </c>
-      <c r="D76" s="13">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="E76" s="14">
-        <v>0.36199999999999999</v>
-      </c>
-      <c r="F76" s="14">
-        <v>0.38800000000000001</v>
-      </c>
-      <c r="G76" s="14">
-        <v>0.64400000000000002</v>
-      </c>
-      <c r="H76" s="14">
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="I76" s="14">
-        <v>1.0329999999999999</v>
-      </c>
-      <c r="J76" s="14">
-        <v>1.4470000000000001</v>
-      </c>
-      <c r="K76" s="14">
-        <v>1.542</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="B77" s="25"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="25"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="25"/>
-      <c r="H77" s="25"/>
-      <c r="I77" s="25"/>
-      <c r="J77" s="25"/>
-      <c r="K77" s="25"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="H78" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="I78" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="J78" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="K78" s="5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="24">
-        <v>0.3</v>
-      </c>
-      <c r="B79" s="14">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="C79" s="13">
-        <v>0.217</v>
-      </c>
-      <c r="D79" s="14">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="E79" s="14">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="F79" s="14">
-        <v>0.36599999999999999</v>
-      </c>
-      <c r="G79" s="32">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="H79" s="32">
-        <v>0.41</v>
-      </c>
-      <c r="I79" s="32">
-        <v>0.45400000000000001</v>
-      </c>
-      <c r="J79" s="32">
-        <v>0.47</v>
-      </c>
-      <c r="K79" s="32">
-        <v>0.495</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="24">
-        <v>0.7</v>
-      </c>
-      <c r="B80" s="14">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="C80" s="13">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="D80" s="14">
-        <v>0.22</v>
-      </c>
-      <c r="E80" s="14">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="F80" s="14">
-        <v>0.38800000000000001</v>
-      </c>
-      <c r="G80" s="32">
-        <v>0.53400000000000003</v>
-      </c>
-      <c r="H80" s="32">
-        <v>0.67700000000000005</v>
-      </c>
-      <c r="I80" s="32">
-        <v>1.0369999999999999</v>
-      </c>
-      <c r="J80" s="32">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="K80" s="32">
-        <v>1.468</v>
-      </c>
+      <c r="B103" s="13"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="13"/>
+      <c r="F103" s="13"/>
+      <c r="G103" s="24"/>
+      <c r="H103" s="24"/>
+      <c r="I103" s="24"/>
+      <c r="J103" s="24"/>
+      <c r="K103" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A68:K68"/>
-    <mergeCell ref="A69:K69"/>
-    <mergeCell ref="A73:K73"/>
-    <mergeCell ref="A77:K77"/>
-    <mergeCell ref="A45:K45"/>
-    <mergeCell ref="A49:K49"/>
-    <mergeCell ref="A54:K54"/>
-    <mergeCell ref="A55:K55"/>
-    <mergeCell ref="A59:K59"/>
-    <mergeCell ref="A63:K63"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="A26:K26"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="A41:K41"/>
+  <mergeCells count="30">
+    <mergeCell ref="A50:K50"/>
     <mergeCell ref="A30:P30"/>
     <mergeCell ref="A12:K12"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A32:K32"/>
+    <mergeCell ref="A33:K33"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="A41:K41"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="A26:K26"/>
+    <mergeCell ref="A49:K49"/>
+    <mergeCell ref="A91:K91"/>
+    <mergeCell ref="A92:K92"/>
+    <mergeCell ref="A96:K96"/>
+    <mergeCell ref="A100:K100"/>
+    <mergeCell ref="A54:K54"/>
+    <mergeCell ref="A58:K58"/>
+    <mergeCell ref="A63:K63"/>
+    <mergeCell ref="A64:K64"/>
+    <mergeCell ref="A68:K68"/>
+    <mergeCell ref="A72:K72"/>
+    <mergeCell ref="A78:K78"/>
+    <mergeCell ref="A79:K79"/>
+    <mergeCell ref="A83:K83"/>
+    <mergeCell ref="A87:K87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8625,10 +8404,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M41"/>
+  <dimension ref="A2:M48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8643,40 +8422,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="H2" s="8" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="H2" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="H3" s="8" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="H3" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
     </row>
     <row r="4" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -8686,7 +8465,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>294</v>
+        <v>195</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>2</v>
@@ -8704,7 +8483,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>294</v>
+        <v>195</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>2</v>
@@ -8721,37 +8500,37 @@
         <v>0.1</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>204</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>207</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>210</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="F5" t="s">
-        <v>137</v>
+        <v>215</v>
       </c>
       <c r="H5" s="7">
         <v>0.1</v>
       </c>
       <c r="I5" t="s">
-        <v>91</v>
+        <v>218</v>
       </c>
       <c r="J5" t="s">
-        <v>106</v>
+        <v>224</v>
       </c>
       <c r="K5" t="s">
-        <v>117</v>
+        <v>231</v>
       </c>
       <c r="L5" t="s">
-        <v>126</v>
+        <v>237</v>
       </c>
       <c r="M5" t="s">
-        <v>136</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -8759,37 +8538,37 @@
         <v>0.3</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>203</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>206</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>209</v>
       </c>
       <c r="E6" t="s">
-        <v>122</v>
+        <v>211</v>
       </c>
       <c r="F6" t="s">
-        <v>132</v>
+        <v>291</v>
       </c>
       <c r="H6" s="7">
         <v>0.3</v>
       </c>
       <c r="I6" t="s">
-        <v>90</v>
+        <v>217</v>
       </c>
       <c r="J6" t="s">
-        <v>95</v>
+        <v>223</v>
       </c>
       <c r="K6" t="s">
-        <v>112</v>
+        <v>228</v>
       </c>
       <c r="L6" t="s">
-        <v>127</v>
+        <v>234</v>
       </c>
       <c r="M6" t="s">
-        <v>131</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -8797,37 +8576,37 @@
         <v>0.5</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>159</v>
+        <v>258</v>
       </c>
       <c r="D7" t="s">
-        <v>171</v>
+        <v>270</v>
       </c>
       <c r="E7" t="s">
-        <v>185</v>
+        <v>274</v>
       </c>
       <c r="F7" t="s">
-        <v>197</v>
+        <v>279</v>
       </c>
       <c r="H7" s="7">
         <v>0.5</v>
       </c>
       <c r="I7" t="s">
-        <v>143</v>
+        <v>246</v>
       </c>
       <c r="J7" t="s">
-        <v>158</v>
+        <v>257</v>
       </c>
       <c r="K7" t="s">
-        <v>170</v>
+        <v>269</v>
       </c>
       <c r="L7" t="s">
-        <v>184</v>
+        <v>273</v>
       </c>
       <c r="M7" t="s">
-        <v>196</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -8835,56 +8614,56 @@
         <v>0.7</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>245</v>
       </c>
       <c r="C8" t="s">
-        <v>160</v>
+        <v>253</v>
       </c>
       <c r="D8" t="s">
-        <v>166</v>
-      </c>
-      <c r="E8" t="s">
-        <v>175</v>
+        <v>103</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>101</v>
       </c>
       <c r="F8" t="s">
-        <v>171</v>
+        <v>286</v>
       </c>
       <c r="H8" s="7">
         <v>0.7</v>
       </c>
       <c r="I8" t="s">
-        <v>145</v>
+        <v>244</v>
       </c>
       <c r="J8" t="s">
-        <v>152</v>
+        <v>252</v>
       </c>
       <c r="K8" t="s">
-        <v>165</v>
+        <v>262</v>
       </c>
       <c r="L8" t="s">
-        <v>174</v>
+        <v>282</v>
       </c>
       <c r="M8" t="s">
-        <v>186</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="H9" s="8" t="s">
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="H9" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -8894,7 +8673,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>294</v>
+        <v>195</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>2</v>
@@ -8912,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>294</v>
+        <v>195</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>2</v>
@@ -8929,37 +8708,37 @@
         <v>0.1</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="F11" t="s">
-        <v>140</v>
+        <v>216</v>
       </c>
       <c r="H11" s="7">
         <v>0.1</v>
       </c>
       <c r="I11" t="s">
-        <v>93</v>
+        <v>220</v>
       </c>
       <c r="J11" t="s">
-        <v>108</v>
+        <v>226</v>
       </c>
       <c r="K11" t="s">
-        <v>120</v>
+        <v>233</v>
       </c>
       <c r="L11" t="s">
-        <v>130</v>
+        <v>239</v>
       </c>
       <c r="M11" t="s">
-        <v>139</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -8967,37 +8746,37 @@
         <v>0.3</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>205</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>208</v>
       </c>
       <c r="D12" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H12" s="7">
         <v>0.3</v>
       </c>
       <c r="I12" t="s">
-        <v>92</v>
+        <v>219</v>
       </c>
       <c r="J12" t="s">
-        <v>99</v>
+        <v>225</v>
       </c>
       <c r="K12" t="s">
-        <v>115</v>
+        <v>230</v>
       </c>
       <c r="L12" t="s">
-        <v>125</v>
+        <v>236</v>
       </c>
       <c r="M12" t="s">
-        <v>135</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -9005,37 +8784,37 @@
         <v>0.5</v>
       </c>
       <c r="B13" t="s">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="C13" t="s">
-        <v>162</v>
+        <v>261</v>
       </c>
       <c r="D13" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E13" t="s">
-        <v>191</v>
+        <v>120</v>
       </c>
       <c r="F13" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H13" s="7">
         <v>0.5</v>
       </c>
       <c r="I13" t="s">
-        <v>148</v>
+        <v>249</v>
       </c>
       <c r="J13" t="s">
-        <v>161</v>
+        <v>260</v>
       </c>
       <c r="K13" t="s">
-        <v>176</v>
+        <v>271</v>
       </c>
       <c r="L13" t="s">
-        <v>189</v>
+        <v>276</v>
       </c>
       <c r="M13" t="s">
-        <v>198</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -9043,56 +8822,56 @@
         <v>0.7</v>
       </c>
       <c r="B14" t="s">
-        <v>147</v>
+        <v>248</v>
       </c>
       <c r="C14" t="s">
-        <v>157</v>
+        <v>256</v>
       </c>
       <c r="D14" t="s">
-        <v>169</v>
+        <v>264</v>
       </c>
       <c r="E14" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="F14" t="s">
-        <v>188</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>0.7</v>
       </c>
       <c r="I14" t="s">
-        <v>149</v>
+        <v>247</v>
       </c>
       <c r="J14" t="s">
-        <v>156</v>
+        <v>255</v>
       </c>
       <c r="K14" t="s">
-        <v>168</v>
+        <v>263</v>
       </c>
       <c r="L14" t="s">
-        <v>178</v>
+        <v>283</v>
       </c>
       <c r="M14" t="s">
-        <v>187</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="H15" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
+      <c r="A15" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="H15" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
@@ -9102,15 +8881,15 @@
         <v>0</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>294</v>
+        <v>195</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="17" t="s">
         <v>4</v>
       </c>
       <c r="H16" s="7" t="s">
@@ -9120,7 +8899,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>294</v>
+        <v>195</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>2</v>
@@ -9137,37 +8916,37 @@
         <v>0.1</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="C17" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>124</v>
+        <v>212</v>
       </c>
       <c r="E17" t="s">
-        <v>134</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>142</v>
+        <v>214</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="H17" s="7">
         <v>0.1</v>
       </c>
       <c r="I17" t="s">
-        <v>96</v>
+        <v>222</v>
       </c>
       <c r="J17" t="s">
-        <v>113</v>
+        <v>229</v>
       </c>
       <c r="K17" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
       <c r="L17" t="s">
-        <v>133</v>
-      </c>
-      <c r="M17" s="11" t="s">
-        <v>141</v>
+        <v>240</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -9175,37 +8954,37 @@
         <v>0.3</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" t="s">
-        <v>97</v>
+        <v>213</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>294</v>
       </c>
       <c r="H18" s="7">
         <v>0.3</v>
       </c>
       <c r="I18" t="s">
-        <v>94</v>
+        <v>221</v>
       </c>
       <c r="J18" t="s">
-        <v>110</v>
+        <v>227</v>
       </c>
       <c r="K18" t="s">
-        <v>119</v>
+        <v>232</v>
       </c>
       <c r="L18" t="s">
-        <v>129</v>
+        <v>238</v>
       </c>
       <c r="M18" t="s">
-        <v>138</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -9213,37 +8992,37 @@
         <v>0.5</v>
       </c>
       <c r="B19" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>266</v>
       </c>
       <c r="D19" t="s">
-        <v>181</v>
+        <v>106</v>
       </c>
       <c r="E19" t="s">
-        <v>195</v>
+        <v>278</v>
       </c>
       <c r="F19" t="s">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="H19" s="7">
         <v>0.5</v>
       </c>
       <c r="I19" t="s">
-        <v>153</v>
+        <v>254</v>
       </c>
       <c r="J19" t="s">
-        <v>167</v>
+        <v>265</v>
       </c>
       <c r="K19" t="s">
-        <v>180</v>
+        <v>272</v>
       </c>
       <c r="L19" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="M19" t="s">
-        <v>199</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -9251,54 +9030,54 @@
         <v>0.7</v>
       </c>
       <c r="B20" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C20" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="D20" t="s">
-        <v>173</v>
-      </c>
-      <c r="E20" t="s">
-        <v>183</v>
-      </c>
-      <c r="F20" t="s">
-        <v>193</v>
+        <v>268</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>289</v>
       </c>
       <c r="H20" s="7">
         <v>0.7</v>
       </c>
       <c r="I20" t="s">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="J20" t="s">
-        <v>163</v>
+        <v>259</v>
       </c>
       <c r="K20" t="s">
-        <v>172</v>
+        <v>267</v>
       </c>
       <c r="L20" t="s">
-        <v>182</v>
+        <v>284</v>
       </c>
       <c r="M20" t="s">
-        <v>192</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
@@ -9321,69 +9100,162 @@
       <c r="A29" s="7"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="F38" s="11"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="H42" s="8"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="26"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="F45" s="10"/>
+      <c r="H45" s="8"/>
+      <c r="M45" s="10"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="H46" s="8"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="H47" s="8"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="H48" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A9:F9"/>
+  <mergeCells count="18">
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="H43:M43"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="H37:M37"/>
     <mergeCell ref="H3:M3"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="H2:M2"/>
@@ -9391,6 +9263,10 @@
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="H15:M15"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A9:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9402,7 +9278,7 @@
   <dimension ref="A2:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9412,40 +9288,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="I2" s="8" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="I2" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="I3" s="8" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="I3" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
     </row>
     <row r="4" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -9518,22 +9394,22 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="I9" s="8" t="s">
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="I9" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -9606,22 +9482,22 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="I15" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
+      <c r="A15" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="I15" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
@@ -9694,12 +9570,12 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
@@ -9740,40 +9616,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="I2" s="8" t="s">
+      <c r="A2" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="I2" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="I3" s="8" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="I3" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
     </row>
     <row r="4" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -9846,22 +9722,22 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="I9" s="8" t="s">
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="I9" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -9934,22 +9810,22 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="I15" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
+      <c r="A15" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="I15" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
@@ -10022,12 +9898,12 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
@@ -10069,63 +9945,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="H2" s="17" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="H2" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="O2" s="18" t="s">
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="O2" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="H3" s="8" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="H3" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="O3" s="8" t="s">
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="O3" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -10258,30 +10134,30 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="H9" s="8" t="s">
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="H9" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="O9" s="8" t="s">
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="O9" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -10414,30 +10290,30 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="H15" s="8" t="s">
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="H15" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="O15" s="8" t="s">
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="O15" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
@@ -10571,11 +10447,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="O2:T2"/>
-    <mergeCell ref="O3:T3"/>
-    <mergeCell ref="O9:T9"/>
-    <mergeCell ref="O15:T15"/>
-    <mergeCell ref="G1:I1"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A15:F15"/>
@@ -10584,6 +10455,11 @@
     <mergeCell ref="H3:M3"/>
     <mergeCell ref="H9:M9"/>
     <mergeCell ref="H15:M15"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="O3:T3"/>
+    <mergeCell ref="O9:T9"/>
+    <mergeCell ref="O15:T15"/>
+    <mergeCell ref="G1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/stats/exp_stats.xlsx
+++ b/stats/exp_stats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="lag(partial)" sheetId="4" r:id="rId1"/>
@@ -1001,9 +1001,6 @@
     <t>1.00/0.298</t>
   </si>
   <si>
-    <t>Time consumption</t>
-  </si>
-  <si>
     <t>0.897/0.000</t>
   </si>
   <si>
@@ -1163,9 +1160,6 @@
     <t>0.703/0.001</t>
   </si>
   <si>
-    <t>0.904/0.00</t>
-  </si>
-  <si>
     <t>1.00/0.150</t>
   </si>
   <si>
@@ -1608,6 +1602,12 @@
   </si>
   <si>
     <t>0.6425/67</t>
+  </si>
+  <si>
+    <t>Avg. round length</t>
+  </si>
+  <si>
+    <t>0.904/0.000</t>
   </si>
 </sst>
 </file>
@@ -1694,7 +1694,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1797,7 +1797,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1818,10 +1817,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1833,13 +1832,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1848,10 +1844,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1860,6 +1859,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -25990,14 +25996,14 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
@@ -26289,22 +26295,22 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="59" t="s">
+      <c r="A34" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
       <c r="G34" s="18"/>
-      <c r="I34" s="60" t="s">
+      <c r="I34" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="J34" s="60"/>
-      <c r="K34" s="60"/>
-      <c r="L34" s="60"/>
-      <c r="M34" s="60"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="59"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
@@ -26325,11 +26331,11 @@
       <c r="F35" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="I35" s="60" t="s">
+      <c r="I35" s="59" t="s">
         <v>167</v>
       </c>
-      <c r="J35" s="60"/>
-      <c r="K35" s="60"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="59"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="18">
@@ -26353,13 +26359,13 @@
       <c r="G36" s="5">
         <v>0.27</v>
       </c>
-      <c r="I36" s="61" t="s">
+      <c r="I36" s="60" t="s">
         <v>170</v>
       </c>
-      <c r="J36" s="61"/>
-      <c r="K36" s="61"/>
-      <c r="L36" s="61"/>
-      <c r="M36" s="61"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="60"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="18">
@@ -26431,14 +26437,14 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="59" t="s">
+      <c r="A40" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="58"/>
       <c r="G40" s="18"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -26555,14 +26561,14 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="59" t="s">
+      <c r="A46" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="59"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="58"/>
       <c r="G46" s="18"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -26819,23 +26825,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A2:F2"/>
     <mergeCell ref="A46:F46"/>
     <mergeCell ref="A52:F52"/>
     <mergeCell ref="A60:K60"/>
     <mergeCell ref="I34:M34"/>
     <mergeCell ref="I35:K35"/>
     <mergeCell ref="I36:M36"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A40:F40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -26846,8 +26852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26915,19 +26921,19 @@
       <c r="R3" s="23"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
       <c r="L4" s="21"/>
       <c r="M4" s="23"/>
       <c r="N4" s="23"/>
@@ -27062,19 +27068,19 @@
       <c r="R7" s="12"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
       <c r="L8" s="5"/>
       <c r="M8" s="23"/>
       <c r="N8" s="23"/>
@@ -27210,19 +27216,19 @@
       <c r="R11" s="12"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
       <c r="L12" s="18"/>
       <c r="M12" s="23"/>
       <c r="N12" s="23"/>
@@ -27507,19 +27513,19 @@
       <c r="L21" s="22"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="59" t="s">
+      <c r="A22" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
       <c r="L22" s="7"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -27631,19 +27637,19 @@
       <c r="L25" s="22"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
       <c r="L26" s="22"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -27909,19 +27915,19 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="59" t="s">
+      <c r="A37" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="59"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="59"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="58"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
@@ -28029,19 +28035,19 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="59" t="s">
+      <c r="A41" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="59"/>
-      <c r="J41" s="59"/>
-      <c r="K41" s="59"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="58"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
@@ -28182,19 +28188,19 @@
       <c r="K49" s="62"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="59" t="s">
+      <c r="A50" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="59"/>
-      <c r="H50" s="59"/>
-      <c r="I50" s="59"/>
-      <c r="J50" s="59"/>
-      <c r="K50" s="59"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="58"/>
+      <c r="I50" s="58"/>
+      <c r="J50" s="58"/>
+      <c r="K50" s="58"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
@@ -28302,19 +28308,19 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="59" t="s">
+      <c r="A54" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B54" s="59"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="59"/>
-      <c r="F54" s="59"/>
-      <c r="G54" s="59"/>
-      <c r="H54" s="59"/>
-      <c r="I54" s="59"/>
-      <c r="J54" s="59"/>
-      <c r="K54" s="59"/>
+      <c r="B54" s="58"/>
+      <c r="C54" s="58"/>
+      <c r="D54" s="58"/>
+      <c r="E54" s="58"/>
+      <c r="F54" s="58"/>
+      <c r="G54" s="58"/>
+      <c r="H54" s="58"/>
+      <c r="I54" s="58"/>
+      <c r="J54" s="58"/>
+      <c r="K54" s="58"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
@@ -28422,19 +28428,19 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="59" t="s">
+      <c r="A58" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="B58" s="59"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
-      <c r="E58" s="59"/>
-      <c r="F58" s="59"/>
-      <c r="G58" s="59"/>
-      <c r="H58" s="59"/>
-      <c r="I58" s="59"/>
-      <c r="J58" s="59"/>
-      <c r="K58" s="59"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="58"/>
+      <c r="E58" s="58"/>
+      <c r="F58" s="58"/>
+      <c r="G58" s="58"/>
+      <c r="H58" s="58"/>
+      <c r="I58" s="58"/>
+      <c r="J58" s="58"/>
+      <c r="K58" s="58"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
@@ -28677,19 +28683,19 @@
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="59" t="s">
+      <c r="A68" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B68" s="59"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="59"/>
-      <c r="E68" s="59"/>
-      <c r="F68" s="59"/>
-      <c r="G68" s="59"/>
-      <c r="H68" s="59"/>
-      <c r="I68" s="59"/>
-      <c r="J68" s="59"/>
-      <c r="K68" s="59"/>
+      <c r="B68" s="58"/>
+      <c r="C68" s="58"/>
+      <c r="D68" s="58"/>
+      <c r="E68" s="58"/>
+      <c r="F68" s="58"/>
+      <c r="G68" s="58"/>
+      <c r="H68" s="58"/>
+      <c r="I68" s="58"/>
+      <c r="J68" s="58"/>
+      <c r="K68" s="58"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
@@ -28797,19 +28803,19 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="59" t="s">
+      <c r="A72" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="B72" s="59"/>
-      <c r="C72" s="59"/>
-      <c r="D72" s="59"/>
-      <c r="E72" s="59"/>
-      <c r="F72" s="59"/>
-      <c r="G72" s="59"/>
-      <c r="H72" s="59"/>
-      <c r="I72" s="59"/>
-      <c r="J72" s="59"/>
-      <c r="K72" s="59"/>
+      <c r="B72" s="58"/>
+      <c r="C72" s="58"/>
+      <c r="D72" s="58"/>
+      <c r="E72" s="58"/>
+      <c r="F72" s="58"/>
+      <c r="G72" s="58"/>
+      <c r="H72" s="58"/>
+      <c r="I72" s="58"/>
+      <c r="J72" s="58"/>
+      <c r="K72" s="58"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
@@ -29052,19 +29058,19 @@
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="59" t="s">
+      <c r="A83" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B83" s="59"/>
-      <c r="C83" s="59"/>
-      <c r="D83" s="59"/>
-      <c r="E83" s="59"/>
-      <c r="F83" s="59"/>
-      <c r="G83" s="59"/>
-      <c r="H83" s="59"/>
-      <c r="I83" s="59"/>
-      <c r="J83" s="59"/>
-      <c r="K83" s="59"/>
+      <c r="B83" s="58"/>
+      <c r="C83" s="58"/>
+      <c r="D83" s="58"/>
+      <c r="E83" s="58"/>
+      <c r="F83" s="58"/>
+      <c r="G83" s="58"/>
+      <c r="H83" s="58"/>
+      <c r="I83" s="58"/>
+      <c r="J83" s="58"/>
+      <c r="K83" s="58"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="19" t="s">
@@ -29172,19 +29178,19 @@
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="59" t="s">
+      <c r="A87" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="B87" s="59"/>
-      <c r="C87" s="59"/>
-      <c r="D87" s="59"/>
-      <c r="E87" s="59"/>
-      <c r="F87" s="59"/>
-      <c r="G87" s="59"/>
-      <c r="H87" s="59"/>
-      <c r="I87" s="59"/>
-      <c r="J87" s="59"/>
-      <c r="K87" s="59"/>
+      <c r="B87" s="58"/>
+      <c r="C87" s="58"/>
+      <c r="D87" s="58"/>
+      <c r="E87" s="58"/>
+      <c r="F87" s="58"/>
+      <c r="G87" s="58"/>
+      <c r="H87" s="58"/>
+      <c r="I87" s="58"/>
+      <c r="J87" s="58"/>
+      <c r="K87" s="58"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="19" t="s">
@@ -29453,19 +29459,19 @@
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="59" t="s">
+      <c r="A98" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B98" s="59"/>
-      <c r="C98" s="59"/>
-      <c r="D98" s="59"/>
-      <c r="E98" s="59"/>
-      <c r="F98" s="59"/>
-      <c r="G98" s="59"/>
-      <c r="H98" s="59"/>
-      <c r="I98" s="59"/>
-      <c r="J98" s="59"/>
-      <c r="K98" s="59"/>
+      <c r="B98" s="58"/>
+      <c r="C98" s="58"/>
+      <c r="D98" s="58"/>
+      <c r="E98" s="58"/>
+      <c r="F98" s="58"/>
+      <c r="G98" s="58"/>
+      <c r="H98" s="58"/>
+      <c r="I98" s="58"/>
+      <c r="J98" s="58"/>
+      <c r="K98" s="58"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="27" t="s">
@@ -29573,19 +29579,19 @@
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="59" t="s">
+      <c r="A102" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="B102" s="59"/>
-      <c r="C102" s="59"/>
-      <c r="D102" s="59"/>
-      <c r="E102" s="59"/>
-      <c r="F102" s="59"/>
-      <c r="G102" s="59"/>
-      <c r="H102" s="59"/>
-      <c r="I102" s="59"/>
-      <c r="J102" s="59"/>
-      <c r="K102" s="59"/>
+      <c r="B102" s="58"/>
+      <c r="C102" s="58"/>
+      <c r="D102" s="58"/>
+      <c r="E102" s="58"/>
+      <c r="F102" s="58"/>
+      <c r="G102" s="58"/>
+      <c r="H102" s="58"/>
+      <c r="I102" s="58"/>
+      <c r="J102" s="58"/>
+      <c r="K102" s="58"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="27" t="s">
@@ -29694,20 +29700,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A93:K93"/>
-    <mergeCell ref="A94:K94"/>
-    <mergeCell ref="A98:K98"/>
-    <mergeCell ref="A102:K102"/>
-    <mergeCell ref="A54:K54"/>
-    <mergeCell ref="A58:K58"/>
-    <mergeCell ref="A63:K63"/>
-    <mergeCell ref="A64:K64"/>
-    <mergeCell ref="A68:K68"/>
-    <mergeCell ref="A72:K72"/>
-    <mergeCell ref="A78:K78"/>
-    <mergeCell ref="A79:K79"/>
-    <mergeCell ref="A83:K83"/>
-    <mergeCell ref="A87:K87"/>
     <mergeCell ref="A50:K50"/>
     <mergeCell ref="A30:P30"/>
     <mergeCell ref="A12:K12"/>
@@ -29724,6 +29716,20 @@
     <mergeCell ref="A22:K22"/>
     <mergeCell ref="A26:K26"/>
     <mergeCell ref="A49:K49"/>
+    <mergeCell ref="A93:K93"/>
+    <mergeCell ref="A94:K94"/>
+    <mergeCell ref="A98:K98"/>
+    <mergeCell ref="A102:K102"/>
+    <mergeCell ref="A54:K54"/>
+    <mergeCell ref="A58:K58"/>
+    <mergeCell ref="A63:K63"/>
+    <mergeCell ref="A64:K64"/>
+    <mergeCell ref="A68:K68"/>
+    <mergeCell ref="A72:K72"/>
+    <mergeCell ref="A78:K78"/>
+    <mergeCell ref="A79:K79"/>
+    <mergeCell ref="A83:K83"/>
+    <mergeCell ref="A87:K87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -29735,8 +29741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:DE48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:F43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29765,7 +29771,7 @@
       <c r="E2" s="57"/>
       <c r="F2" s="57"/>
       <c r="H2" s="57" t="s">
-        <v>325</v>
+        <v>526</v>
       </c>
       <c r="I2" s="57"/>
       <c r="J2" s="57"/>
@@ -29773,7 +29779,7 @@
       <c r="L2" s="57"/>
       <c r="M2" s="57"/>
       <c r="O2" s="57" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="P2" s="57"/>
       <c r="Q2" s="57"/>
@@ -29790,22 +29796,22 @@
       <c r="D3" s="57"/>
       <c r="E3" s="57"/>
       <c r="F3" s="57"/>
-      <c r="H3" s="63" t="s">
+      <c r="H3" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="O3" s="63" t="s">
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="O3" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
     </row>
     <row r="4" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -29868,37 +29874,37 @@
         <v>0.1</v>
       </c>
       <c r="B5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F5" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H5" s="38">
         <v>0.1</v>
       </c>
       <c r="I5" s="39">
-        <v>28855.13</v>
+        <v>288.55130000000003</v>
       </c>
       <c r="J5" s="39">
-        <v>45446.62</v>
+        <v>454.46620000000001</v>
       </c>
       <c r="K5" s="39">
-        <v>44543.03</v>
+        <v>445.43029999999999</v>
       </c>
       <c r="L5" s="39">
-        <v>64008.92</v>
+        <v>640.08920000000001</v>
       </c>
       <c r="M5" s="39">
-        <v>71487.509999999995</v>
+        <v>714.87509999999997</v>
       </c>
       <c r="O5" s="38">
         <v>0.1</v>
@@ -29924,37 +29930,37 @@
         <v>0.3</v>
       </c>
       <c r="B6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D6" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="H6" s="38">
         <v>0.3</v>
       </c>
       <c r="I6" s="39">
-        <v>19848.87</v>
+        <v>198.48869999999999</v>
       </c>
       <c r="J6" s="39">
-        <v>38640.800000000003</v>
+        <v>386.40800000000002</v>
       </c>
       <c r="K6" s="39">
-        <v>50744.22</v>
+        <v>507.44220000000001</v>
       </c>
       <c r="L6" s="39">
-        <v>69720.13</v>
+        <v>697.20130000000006</v>
       </c>
       <c r="M6" s="39">
-        <v>39797.18</v>
+        <v>397.97180000000003</v>
       </c>
       <c r="O6" s="38">
         <v>0.3</v>
@@ -29980,37 +29986,37 @@
         <v>0.5</v>
       </c>
       <c r="B7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="H7" s="38">
         <v>0.5</v>
       </c>
       <c r="I7" s="39">
-        <v>34753.32</v>
+        <v>347.53320000000002</v>
       </c>
       <c r="J7" s="39">
-        <v>51341.09</v>
+        <v>513.41089999999997</v>
       </c>
       <c r="K7" s="39">
-        <v>29266.63</v>
+        <v>292.66630000000004</v>
       </c>
       <c r="L7" s="39">
-        <v>68778.23</v>
+        <v>687.78229999999996</v>
       </c>
       <c r="M7" s="39">
-        <v>55273.85</v>
+        <v>552.73849999999993</v>
       </c>
       <c r="O7" s="38">
         <v>0.5</v>
@@ -30036,37 +30042,37 @@
         <v>0.7</v>
       </c>
       <c r="B8" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C8" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D8" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H8" s="38">
         <v>0.7</v>
       </c>
       <c r="I8" s="39">
-        <v>23427.89</v>
+        <v>234.27889999999999</v>
       </c>
       <c r="J8" s="39">
-        <v>35869.61</v>
+        <v>358.6961</v>
       </c>
       <c r="K8" s="39">
-        <v>49299.99</v>
+        <v>492.99989999999997</v>
       </c>
       <c r="L8" s="39">
-        <v>54327.95</v>
+        <v>543.27949999999998</v>
       </c>
       <c r="M8" s="39">
-        <v>93279.27</v>
+        <v>932.79270000000008</v>
       </c>
       <c r="O8" s="38">
         <v>0.7</v>
@@ -30132,40 +30138,41 @@
       <c r="F10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="O10" s="35" t="s">
+      <c r="N10" s="12"/>
+      <c r="O10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="35" t="s">
+      <c r="P10" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="Q10" s="35" t="s">
+      <c r="Q10" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="R10" s="35" t="s">
+      <c r="R10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="S10" s="35" t="s">
+      <c r="S10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="T10" s="35" t="s">
+      <c r="T10" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -30174,54 +30181,55 @@
         <v>0.1</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>521</v>
-      </c>
-      <c r="H11" s="26">
+        <v>519</v>
+      </c>
+      <c r="H11" s="56">
         <v>0.1</v>
       </c>
-      <c r="I11">
-        <v>41509.910000000003</v>
-      </c>
-      <c r="J11">
-        <v>62044.23</v>
-      </c>
-      <c r="K11">
-        <v>48725.69</v>
-      </c>
-      <c r="L11">
-        <v>71084.06</v>
-      </c>
-      <c r="M11" s="6">
-        <v>71487.5</v>
-      </c>
-      <c r="O11" s="29">
+      <c r="I11" s="12">
+        <v>415.09910000000002</v>
+      </c>
+      <c r="J11" s="12">
+        <v>620.44230000000005</v>
+      </c>
+      <c r="K11" s="12">
+        <v>487.25690000000003</v>
+      </c>
+      <c r="L11" s="12">
+        <v>710.84059999999999</v>
+      </c>
+      <c r="M11" s="12">
+        <v>714.875</v>
+      </c>
+      <c r="N11" s="12"/>
+      <c r="O11" s="56">
         <v>0.1</v>
       </c>
-      <c r="P11" s="46" t="s">
+      <c r="P11" s="44" t="s">
         <v>321</v>
       </c>
-      <c r="Q11" s="46" t="s">
+      <c r="Q11" s="44" t="s">
         <v>317</v>
       </c>
-      <c r="R11" s="46" t="s">
+      <c r="R11" s="44" t="s">
         <v>313</v>
       </c>
-      <c r="S11" s="46" t="s">
+      <c r="S11" s="44" t="s">
         <v>309</v>
       </c>
-      <c r="T11" s="43" t="s">
+      <c r="T11" s="71" t="s">
         <v>301</v>
       </c>
     </row>
@@ -30230,54 +30238,55 @@
         <v>0.3</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>522</v>
-      </c>
-      <c r="H12" s="26">
+        <v>520</v>
+      </c>
+      <c r="H12" s="56">
         <v>0.3</v>
       </c>
-      <c r="I12">
-        <v>77094.460000000006</v>
-      </c>
-      <c r="J12">
-        <v>70645.75</v>
-      </c>
-      <c r="K12">
-        <v>67532.88</v>
-      </c>
-      <c r="L12">
-        <v>78113.2</v>
-      </c>
-      <c r="M12" s="6">
-        <v>39797.17</v>
-      </c>
-      <c r="O12" s="29">
+      <c r="I12" s="12">
+        <v>770.94460000000004</v>
+      </c>
+      <c r="J12" s="12">
+        <v>706.45749999999998</v>
+      </c>
+      <c r="K12" s="12">
+        <v>675.3288</v>
+      </c>
+      <c r="L12" s="12">
+        <v>781.13199999999995</v>
+      </c>
+      <c r="M12" s="12">
+        <v>397.9717</v>
+      </c>
+      <c r="N12" s="12"/>
+      <c r="O12" s="56">
         <v>0.3</v>
       </c>
-      <c r="P12" s="46" t="s">
+      <c r="P12" s="44" t="s">
         <v>322</v>
       </c>
-      <c r="Q12" s="46" t="s">
+      <c r="Q12" s="44" t="s">
         <v>318</v>
       </c>
-      <c r="R12" s="46" t="s">
+      <c r="R12" s="44" t="s">
         <v>314</v>
       </c>
-      <c r="S12" s="46" t="s">
+      <c r="S12" s="44" t="s">
         <v>310</v>
       </c>
-      <c r="T12" s="43" t="s">
+      <c r="T12" s="71" t="s">
         <v>302</v>
       </c>
     </row>
@@ -30286,54 +30295,55 @@
         <v>0.5</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>523</v>
-      </c>
-      <c r="H13" s="26">
+        <v>521</v>
+      </c>
+      <c r="H13" s="56">
         <v>0.5</v>
       </c>
-      <c r="I13">
-        <v>86722.93</v>
-      </c>
-      <c r="J13">
-        <v>96974.2</v>
-      </c>
-      <c r="K13">
-        <v>32243.75</v>
-      </c>
-      <c r="L13">
-        <v>79594.33</v>
-      </c>
-      <c r="M13" s="6">
-        <v>55273.84</v>
-      </c>
-      <c r="O13" s="29">
+      <c r="I13" s="12">
+        <v>867.22929999999997</v>
+      </c>
+      <c r="J13" s="12">
+        <v>969.74199999999996</v>
+      </c>
+      <c r="K13" s="12">
+        <v>322.4375</v>
+      </c>
+      <c r="L13" s="12">
+        <v>795.94330000000002</v>
+      </c>
+      <c r="M13" s="12">
+        <v>552.73839999999996</v>
+      </c>
+      <c r="N13" s="12"/>
+      <c r="O13" s="56">
         <v>0.5</v>
       </c>
-      <c r="P13" s="46" t="s">
+      <c r="P13" s="44" t="s">
         <v>323</v>
       </c>
-      <c r="Q13" s="46" t="s">
+      <c r="Q13" s="44" t="s">
         <v>319</v>
       </c>
-      <c r="R13" s="46" t="s">
+      <c r="R13" s="44" t="s">
         <v>315</v>
       </c>
-      <c r="S13" s="46" t="s">
+      <c r="S13" s="44" t="s">
         <v>311</v>
       </c>
-      <c r="T13" s="43" t="s">
+      <c r="T13" s="71" t="s">
         <v>303</v>
       </c>
     </row>
@@ -30342,82 +30352,84 @@
         <v>0.7</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>524</v>
-      </c>
-      <c r="H14" s="26">
+        <v>522</v>
+      </c>
+      <c r="H14" s="56">
         <v>0.7</v>
       </c>
-      <c r="I14">
-        <v>73698.460000000006</v>
-      </c>
-      <c r="J14">
-        <v>50114.95</v>
-      </c>
-      <c r="K14">
-        <v>64854.64</v>
-      </c>
-      <c r="L14" s="6">
-        <v>58958.77</v>
-      </c>
-      <c r="M14" s="6">
-        <v>83279.259999999995</v>
-      </c>
-      <c r="O14" s="29">
+      <c r="I14" s="12">
+        <v>736.98460000000011</v>
+      </c>
+      <c r="J14" s="12">
+        <v>501.14949999999999</v>
+      </c>
+      <c r="K14" s="12">
+        <v>648.54639999999995</v>
+      </c>
+      <c r="L14" s="12">
+        <v>589.58769999999993</v>
+      </c>
+      <c r="M14" s="12">
+        <v>832.79259999999999</v>
+      </c>
+      <c r="N14" s="12"/>
+      <c r="O14" s="56">
         <v>0.7</v>
       </c>
-      <c r="P14" s="46" t="s">
+      <c r="P14" s="44" t="s">
         <v>324</v>
       </c>
-      <c r="Q14" s="46" t="s">
+      <c r="Q14" s="44" t="s">
         <v>320</v>
       </c>
-      <c r="R14" s="46" t="s">
+      <c r="R14" s="44" t="s">
         <v>316</v>
       </c>
-      <c r="S14" s="46" t="s">
+      <c r="S14" s="44" t="s">
         <v>312</v>
       </c>
-      <c r="T14" s="43" t="s">
+      <c r="T14" s="71" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="58" t="s">
         <v>274</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="H15" s="57" t="s">
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="H15" s="58" t="s">
         <v>274</v>
       </c>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="O15" s="57" t="s">
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="58" t="s">
         <v>274</v>
       </c>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="57"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="58"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="s">
@@ -30438,40 +30450,41 @@
       <c r="F16" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L16" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="O16" s="29" t="s">
+      <c r="N16" s="12"/>
+      <c r="O16" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="P16" s="35" t="s">
+      <c r="P16" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="Q16" s="35" t="s">
+      <c r="Q16" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="R16" s="35" t="s">
+      <c r="R16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="S16" s="35" t="s">
+      <c r="S16" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="T16" s="35" t="s">
+      <c r="T16" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -30480,39 +30493,40 @@
         <v>0.1</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="H17" s="26">
+        <v>523</v>
+      </c>
+      <c r="H17" s="56">
         <v>0.1</v>
       </c>
-      <c r="I17" s="6">
-        <v>33891.4</v>
-      </c>
-      <c r="J17" s="6">
-        <v>50339.58</v>
-      </c>
-      <c r="K17" s="6">
-        <v>38744.01</v>
-      </c>
-      <c r="L17" s="6">
-        <v>60657.53</v>
-      </c>
-      <c r="M17" s="9">
-        <v>71487.5</v>
-      </c>
-      <c r="O17" s="29">
+      <c r="I17" s="12">
+        <v>338.91399999999999</v>
+      </c>
+      <c r="J17" s="12">
+        <v>503.39580000000001</v>
+      </c>
+      <c r="K17" s="12">
+        <v>387.44010000000003</v>
+      </c>
+      <c r="L17" s="12">
+        <v>606.57529999999997</v>
+      </c>
+      <c r="M17" s="10">
+        <v>714.875</v>
+      </c>
+      <c r="N17" s="12"/>
+      <c r="O17" s="56">
         <v>0.1</v>
       </c>
       <c r="P17" s="44" t="s">
@@ -30536,39 +30550,40 @@
         <v>0.3</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>526</v>
-      </c>
-      <c r="H18" s="26">
+        <v>524</v>
+      </c>
+      <c r="H18" s="56">
         <v>0.3</v>
       </c>
-      <c r="I18" s="6">
-        <v>30414.23</v>
-      </c>
-      <c r="J18" s="6">
-        <v>44315.66</v>
-      </c>
-      <c r="K18" s="6">
-        <v>49983.03</v>
-      </c>
-      <c r="L18" s="6">
-        <v>72188.67</v>
-      </c>
-      <c r="M18" s="6">
-        <v>39797.17</v>
-      </c>
-      <c r="O18" s="29">
+      <c r="I18" s="12">
+        <v>304.14229999999998</v>
+      </c>
+      <c r="J18" s="12">
+        <v>443.15660000000003</v>
+      </c>
+      <c r="K18" s="12">
+        <v>499.83029999999997</v>
+      </c>
+      <c r="L18" s="12">
+        <v>721.88670000000002</v>
+      </c>
+      <c r="M18" s="12">
+        <v>397.9717</v>
+      </c>
+      <c r="N18" s="12"/>
+      <c r="O18" s="56">
         <v>0.3</v>
       </c>
       <c r="P18" s="44" t="s">
@@ -30592,39 +30607,40 @@
         <v>0.5</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>527</v>
-      </c>
-      <c r="H19" s="26">
+        <v>525</v>
+      </c>
+      <c r="H19" s="56">
         <v>0.5</v>
       </c>
-      <c r="I19" s="6">
-        <v>37293.71</v>
-      </c>
-      <c r="J19" s="6">
-        <v>61334.41</v>
-      </c>
-      <c r="K19" s="6">
-        <v>30165.67</v>
-      </c>
-      <c r="L19" s="6">
-        <v>76178.720000000001</v>
-      </c>
-      <c r="M19" s="6">
-        <v>55273.84</v>
-      </c>
-      <c r="O19" s="29">
+      <c r="I19" s="12">
+        <v>372.93709999999999</v>
+      </c>
+      <c r="J19" s="12">
+        <v>613.34410000000003</v>
+      </c>
+      <c r="K19" s="12">
+        <v>301.6567</v>
+      </c>
+      <c r="L19" s="12">
+        <v>761.78719999999998</v>
+      </c>
+      <c r="M19" s="12">
+        <v>552.73839999999996</v>
+      </c>
+      <c r="N19" s="12"/>
+      <c r="O19" s="56">
         <v>0.5</v>
       </c>
       <c r="P19" s="44" t="s">
@@ -30648,39 +30664,40 @@
         <v>0.7</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>487</v>
-      </c>
-      <c r="H20" s="26">
+        <v>485</v>
+      </c>
+      <c r="H20" s="56">
         <v>0.7</v>
       </c>
-      <c r="I20" s="6">
-        <v>34016.1</v>
-      </c>
-      <c r="J20" s="6">
-        <v>43618.21</v>
-      </c>
-      <c r="K20" s="6">
-        <v>62094.39</v>
-      </c>
-      <c r="L20">
-        <v>58958.78</v>
-      </c>
-      <c r="M20" s="6">
-        <v>83279.259999999995</v>
-      </c>
-      <c r="O20" s="29">
+      <c r="I20" s="12">
+        <v>340.161</v>
+      </c>
+      <c r="J20" s="12">
+        <v>436.18209999999999</v>
+      </c>
+      <c r="K20" s="12">
+        <v>620.94389999999999</v>
+      </c>
+      <c r="L20" s="12">
+        <v>589.58780000000002</v>
+      </c>
+      <c r="M20" s="12">
+        <v>832.79259999999999</v>
+      </c>
+      <c r="N20" s="12"/>
+      <c r="O20" s="56">
         <v>0.7</v>
       </c>
       <c r="P20" s="44" t="s">
@@ -30700,6 +30717,14 @@
       </c>
     </row>
     <row r="21" spans="1:109" x14ac:dyDescent="0.25">
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
       <c r="P21" s="12"/>
       <c r="Q21" s="12"/>
       <c r="R21" s="12"/>
@@ -30723,22 +30748,22 @@
       <c r="F24" s="57"/>
     </row>
     <row r="25" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A25" s="64" t="s">
+      <c r="A25" s="65" t="s">
         <v>277</v>
       </c>
-      <c r="B25" s="64"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="H25" s="66" t="s">
-        <v>386</v>
-      </c>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="66"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="H25" s="64" t="s">
+        <v>384</v>
+      </c>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="64"/>
     </row>
     <row r="26" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A26" s="57" t="s">
@@ -30760,7 +30785,7 @@
       <c r="C27" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="D27" s="55" t="s">
+      <c r="D27" s="54" t="s">
         <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -30769,7 +30794,7 @@
       <c r="F27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H27" s="65" t="s">
+      <c r="H27" s="63" t="s">
         <v>278</v>
       </c>
       <c r="I27" t="s">
@@ -30805,7 +30830,7 @@
       <c r="F28">
         <v>18272</v>
       </c>
-      <c r="H28" s="65"/>
+      <c r="H28" s="63"/>
       <c r="I28" t="s">
         <v>5</v>
       </c>
@@ -31129,7 +31154,7 @@
       <c r="F29">
         <v>18191</v>
       </c>
-      <c r="H29" s="65"/>
+      <c r="H29" s="63"/>
       <c r="I29" t="s">
         <v>6</v>
       </c>
@@ -31494,7 +31519,7 @@
       <c r="D32" s="57"/>
       <c r="E32" s="57"/>
       <c r="F32" s="57"/>
-      <c r="H32" s="65" t="s">
+      <c r="H32" s="63" t="s">
         <v>280</v>
       </c>
       <c r="I32" t="s">
@@ -31521,7 +31546,7 @@
       <c r="C33" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="D33" s="55" t="s">
+      <c r="D33" s="54" t="s">
         <v>1</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -31530,7 +31555,7 @@
       <c r="F33" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H33" s="65"/>
+      <c r="H33" s="63"/>
       <c r="I33" t="s">
         <v>5</v>
       </c>
@@ -31854,7 +31879,7 @@
       <c r="F34">
         <v>18326</v>
       </c>
-      <c r="H34" s="65"/>
+      <c r="H34" s="63"/>
       <c r="I34" t="s">
         <v>6</v>
       </c>
@@ -32222,7 +32247,7 @@
       <c r="F37">
         <v>19001</v>
       </c>
-      <c r="H37" s="65" t="s">
+      <c r="H37" s="63" t="s">
         <v>281</v>
       </c>
       <c r="I37" t="s">
@@ -32253,7 +32278,7 @@
       <c r="D38" s="57"/>
       <c r="E38" s="57"/>
       <c r="F38" s="57"/>
-      <c r="H38" s="65"/>
+      <c r="H38" s="63"/>
       <c r="I38" t="s">
         <v>5</v>
       </c>
@@ -32568,7 +32593,7 @@
       <c r="C39" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="D39" s="55" t="s">
+      <c r="D39" s="54" t="s">
         <v>1</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -32577,7 +32602,7 @@
       <c r="F39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H39" s="65"/>
+      <c r="H39" s="63"/>
       <c r="I39" t="s">
         <v>6</v>
       </c>
@@ -32923,7 +32948,7 @@
       <c r="F41">
         <v>18299</v>
       </c>
-      <c r="H41" s="65" t="s">
+      <c r="H41" s="63" t="s">
         <v>282</v>
       </c>
       <c r="I41" t="s">
@@ -32959,7 +32984,7 @@
       <c r="F42">
         <v>19163</v>
       </c>
-      <c r="H42" s="65"/>
+      <c r="H42" s="63"/>
       <c r="I42" t="s">
         <v>5</v>
       </c>
@@ -33283,7 +33308,7 @@
       <c r="F43">
         <v>19055</v>
       </c>
-      <c r="H43" s="65"/>
+      <c r="H43" s="63"/>
       <c r="I43" t="s">
         <v>6</v>
       </c>
@@ -33592,7 +33617,7 @@
       <c r="A44" s="8"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="55"/>
+      <c r="D44" s="54"/>
       <c r="E44" s="17"/>
       <c r="F44" s="17"/>
       <c r="H44" s="8"/>
@@ -33621,6 +33646,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="O3:T3"/>
+    <mergeCell ref="O9:T9"/>
+    <mergeCell ref="O15:T15"/>
+    <mergeCell ref="H3:M3"/>
     <mergeCell ref="H41:H43"/>
     <mergeCell ref="H25:M25"/>
     <mergeCell ref="A25:F25"/>
@@ -33630,20 +33669,6 @@
     <mergeCell ref="H37:H39"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A38:F38"/>
-    <mergeCell ref="O2:T2"/>
-    <mergeCell ref="O3:T3"/>
-    <mergeCell ref="O9:T9"/>
-    <mergeCell ref="O15:T15"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A9:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -33656,7 +33681,7 @@
   <dimension ref="A2:BG42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:F42"/>
+      <selection activeCell="O49" sqref="O49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33684,7 +33709,7 @@
       <c r="E2" s="57"/>
       <c r="F2" s="57"/>
       <c r="H2" s="57" t="s">
-        <v>325</v>
+        <v>526</v>
       </c>
       <c r="I2" s="57"/>
       <c r="J2" s="57"/>
@@ -33692,7 +33717,7 @@
       <c r="L2" s="57"/>
       <c r="M2" s="57"/>
       <c r="O2" s="57" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="P2" s="57"/>
       <c r="Q2" s="57"/>
@@ -33709,22 +33734,22 @@
       <c r="D3" s="57"/>
       <c r="E3" s="57"/>
       <c r="F3" s="57"/>
-      <c r="H3" s="63" t="s">
+      <c r="H3" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="O3" s="63" t="s">
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="O3" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
     </row>
     <row r="4" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -33745,22 +33770,22 @@
       <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="48" t="s">
+      <c r="I4" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="48" t="s">
+      <c r="J4" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="K4" s="48" t="s">
+      <c r="K4" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="48" t="s">
+      <c r="L4" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="48" t="s">
+      <c r="M4" s="47" t="s">
         <v>3</v>
       </c>
       <c r="O4" s="37" t="s">
@@ -33787,37 +33812,37 @@
         <v>0.1</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="H5" s="49">
+        <v>460</v>
+      </c>
+      <c r="H5" s="48">
         <v>0.1</v>
       </c>
-      <c r="I5" s="50">
-        <v>46428.69</v>
-      </c>
-      <c r="J5" s="50">
-        <v>117976.72</v>
-      </c>
-      <c r="K5" s="50">
-        <v>201504.7</v>
-      </c>
-      <c r="L5" s="50">
-        <v>264453.98</v>
-      </c>
-      <c r="M5" s="50">
-        <v>227739.97</v>
+      <c r="I5" s="49">
+        <v>928.57380000000001</v>
+      </c>
+      <c r="J5" s="49">
+        <v>2359.5344</v>
+      </c>
+      <c r="K5" s="49">
+        <v>4030.0940000000001</v>
+      </c>
+      <c r="L5" s="49">
+        <v>5289.0796</v>
+      </c>
+      <c r="M5" s="49">
+        <v>4554.7993999999999</v>
       </c>
       <c r="O5" s="38">
         <v>0.1</v>
@@ -33843,37 +33868,37 @@
         <v>0.3</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>463</v>
-      </c>
-      <c r="H6" s="49">
+        <v>461</v>
+      </c>
+      <c r="H6" s="48">
         <v>0.3</v>
       </c>
-      <c r="I6" s="50">
-        <v>72435.08</v>
-      </c>
-      <c r="J6" s="50">
-        <v>146037.60999999999</v>
-      </c>
-      <c r="K6" s="50">
-        <v>123995.23</v>
-      </c>
-      <c r="L6" s="50">
-        <v>291968.99</v>
-      </c>
-      <c r="M6" s="50">
-        <v>225317.2</v>
+      <c r="I6" s="49">
+        <v>1448.7016000000001</v>
+      </c>
+      <c r="J6" s="49">
+        <v>2920.7521999999999</v>
+      </c>
+      <c r="K6" s="49">
+        <v>2479.9045999999998</v>
+      </c>
+      <c r="L6" s="49">
+        <v>5839.3797999999997</v>
+      </c>
+      <c r="M6" s="49">
+        <v>4506.3440000000001</v>
       </c>
       <c r="O6" s="38">
         <v>0.3</v>
@@ -33899,37 +33924,37 @@
         <v>0.5</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>464</v>
-      </c>
-      <c r="H7" s="49">
+        <v>462</v>
+      </c>
+      <c r="H7" s="48">
         <v>0.5</v>
       </c>
-      <c r="I7" s="50">
-        <v>85500.19</v>
-      </c>
-      <c r="J7" s="50">
-        <v>122639.75</v>
-      </c>
-      <c r="K7" s="50">
-        <v>198888.44</v>
-      </c>
-      <c r="L7" s="50">
-        <v>327762.74</v>
-      </c>
-      <c r="M7" s="50">
-        <v>372413.68</v>
+      <c r="I7" s="49">
+        <v>1710.0038</v>
+      </c>
+      <c r="J7" s="49">
+        <v>2452.7950000000001</v>
+      </c>
+      <c r="K7" s="49">
+        <v>3977.7687999999998</v>
+      </c>
+      <c r="L7" s="49">
+        <v>6555.2547999999997</v>
+      </c>
+      <c r="M7" s="49">
+        <v>7448.2735999999995</v>
       </c>
       <c r="O7" s="38">
         <v>0.5</v>
@@ -33955,37 +33980,37 @@
         <v>0.7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>465</v>
-      </c>
-      <c r="H8" s="49">
+        <v>463</v>
+      </c>
+      <c r="H8" s="48">
         <v>0.7</v>
       </c>
-      <c r="I8" s="50">
-        <v>77742.62</v>
-      </c>
-      <c r="J8" s="50">
-        <v>110343.56</v>
-      </c>
-      <c r="K8" s="50">
-        <v>172257.36</v>
-      </c>
-      <c r="L8" s="50">
-        <v>210663.29</v>
-      </c>
-      <c r="M8" s="50">
-        <v>280002.48</v>
+      <c r="I8" s="49">
+        <v>1554.8524</v>
+      </c>
+      <c r="J8" s="49">
+        <v>2206.8712</v>
+      </c>
+      <c r="K8" s="49">
+        <v>3445.1471999999999</v>
+      </c>
+      <c r="L8" s="49">
+        <v>4213.2658000000001</v>
+      </c>
+      <c r="M8" s="49">
+        <v>5600.0495999999994</v>
       </c>
       <c r="O8" s="38">
         <v>0.7</v>
@@ -34007,22 +34032,22 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="H9" s="59" t="s">
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="H9" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
       <c r="O9" s="57" t="s">
         <v>5</v>
       </c>
@@ -34093,55 +34118,55 @@
         <v>0.1</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H11" s="30">
         <v>0.1</v>
       </c>
       <c r="I11" s="12">
-        <v>173293.43</v>
+        <v>3465.8685999999998</v>
       </c>
       <c r="J11" s="12">
-        <v>293500.74</v>
+        <v>5870.0147999999999</v>
       </c>
       <c r="K11" s="12">
-        <v>315651.74</v>
+        <v>6313.0347999999994</v>
       </c>
       <c r="L11" s="12">
-        <v>330534.44</v>
+        <v>6610.6887999999999</v>
       </c>
       <c r="M11" s="12">
-        <v>227739.96</v>
-      </c>
-      <c r="O11" s="53">
+        <v>4554.7991999999995</v>
+      </c>
+      <c r="O11" s="52">
         <v>0.1</v>
       </c>
-      <c r="P11" s="47" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q11" s="47" t="s">
+      <c r="P11" s="46" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q11" s="46" t="s">
         <v>301</v>
       </c>
-      <c r="R11" s="47" t="s">
+      <c r="R11" s="46" t="s">
         <v>309</v>
       </c>
-      <c r="S11" s="47" t="s">
-        <v>345</v>
-      </c>
-      <c r="T11" s="51" t="s">
-        <v>345</v>
+      <c r="S11" s="46" t="s">
+        <v>344</v>
+      </c>
+      <c r="T11" s="50" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -34149,55 +34174,55 @@
         <v>0.3</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H12" s="30">
         <v>0.3</v>
       </c>
       <c r="I12" s="12">
-        <v>233969.93</v>
+        <v>4679.3985999999995</v>
       </c>
       <c r="J12" s="12">
-        <v>342302.16</v>
+        <v>6846.0431999999992</v>
       </c>
       <c r="K12" s="12">
-        <v>160940.85</v>
+        <v>3218.817</v>
       </c>
       <c r="L12" s="12">
-        <v>350262.67</v>
+        <v>7005.2533999999996</v>
       </c>
       <c r="M12" s="12">
-        <v>225317.19</v>
-      </c>
-      <c r="O12" s="53">
+        <v>4506.3437999999996</v>
+      </c>
+      <c r="O12" s="52">
         <v>0.3</v>
       </c>
-      <c r="P12" s="47" t="s">
+      <c r="P12" s="46" t="s">
         <v>314</v>
       </c>
-      <c r="Q12" s="47" t="s">
-        <v>348</v>
-      </c>
-      <c r="R12" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="S12" s="47" t="s">
-        <v>354</v>
-      </c>
-      <c r="T12" s="51" t="s">
-        <v>356</v>
+      <c r="Q12" s="46" t="s">
+        <v>347</v>
+      </c>
+      <c r="R12" s="46" t="s">
+        <v>349</v>
+      </c>
+      <c r="S12" s="46" t="s">
+        <v>353</v>
+      </c>
+      <c r="T12" s="50" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -34205,55 +34230,55 @@
         <v>0.5</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H13" s="30">
         <v>0.5</v>
       </c>
       <c r="I13" s="12">
-        <v>339187.17</v>
+        <v>6783.7433999999994</v>
       </c>
       <c r="J13" s="12">
-        <v>296269.61</v>
+        <v>5925.3921999999993</v>
       </c>
       <c r="K13" s="12">
-        <v>329842.21999999997</v>
+        <v>6596.844399999999</v>
       </c>
       <c r="L13" s="12">
-        <v>405986.28</v>
+        <v>8119.7256000000007</v>
       </c>
       <c r="M13" s="12">
-        <v>372413.67</v>
-      </c>
-      <c r="O13" s="53">
+        <v>7448.2734</v>
+      </c>
+      <c r="O13" s="52">
         <v>0.5</v>
       </c>
-      <c r="P13" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q13" s="47" t="s">
-        <v>331</v>
-      </c>
-      <c r="R13" s="47" t="s">
-        <v>335</v>
-      </c>
-      <c r="S13" s="47" t="s">
-        <v>339</v>
-      </c>
-      <c r="T13" s="51" t="s">
-        <v>352</v>
+      <c r="P13" s="46" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q13" s="46" t="s">
+        <v>330</v>
+      </c>
+      <c r="R13" s="46" t="s">
+        <v>334</v>
+      </c>
+      <c r="S13" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="T13" s="50" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -34261,74 +34286,74 @@
         <v>0.7</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H14" s="30">
         <v>0.7</v>
       </c>
       <c r="I14" s="12">
-        <v>211472.82</v>
+        <v>4229.4564</v>
       </c>
       <c r="J14" s="12">
-        <v>318420.61</v>
+        <v>6368.4121999999998</v>
       </c>
       <c r="K14" s="12">
-        <v>249544.85</v>
+        <v>4990.8969999999999</v>
       </c>
       <c r="L14" s="12">
-        <v>244007.1</v>
+        <v>4880.1419999999998</v>
       </c>
       <c r="M14" s="12">
-        <v>280002.46999999997</v>
-      </c>
-      <c r="O14" s="53">
+        <v>5600.0493999999999</v>
+      </c>
+      <c r="O14" s="52">
         <v>0.7</v>
       </c>
-      <c r="P14" s="47" t="s">
+      <c r="P14" s="46" t="s">
         <v>316</v>
       </c>
-      <c r="Q14" s="47" t="s">
-        <v>330</v>
-      </c>
-      <c r="R14" s="47" t="s">
+      <c r="Q14" s="46" t="s">
+        <v>329</v>
+      </c>
+      <c r="R14" s="46" t="s">
         <v>316</v>
       </c>
-      <c r="S14" s="47" t="s">
+      <c r="S14" s="46" t="s">
         <v>312</v>
       </c>
-      <c r="T14" s="51" t="s">
-        <v>342</v>
+      <c r="T14" s="50" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="58" t="s">
         <v>274</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="H15" s="59" t="s">
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="H15" s="58" t="s">
         <v>274</v>
       </c>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
       <c r="O15" s="67" t="s">
         <v>274</v>
       </c>
@@ -34375,22 +34400,22 @@
       <c r="M16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="O16" s="53" t="s">
+      <c r="O16" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="P16" s="55" t="s">
+      <c r="P16" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="Q16" s="55" t="s">
+      <c r="Q16" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="R16" s="55" t="s">
+      <c r="R16" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="S16" s="55" t="s">
+      <c r="S16" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="T16" s="55" t="s">
+      <c r="T16" s="54" t="s">
         <v>3</v>
       </c>
     </row>
@@ -34399,55 +34424,55 @@
         <v>0.1</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H17" s="30">
         <v>0.1</v>
       </c>
       <c r="I17" s="12">
-        <v>91526.31</v>
+        <v>1830.5262</v>
       </c>
       <c r="J17" s="12">
-        <v>166577.96</v>
+        <v>3331.5591999999997</v>
       </c>
       <c r="K17" s="12">
-        <v>193710.93</v>
+        <v>3874.2185999999997</v>
       </c>
       <c r="L17" s="12">
-        <v>205927.46</v>
+        <v>4118.5491999999995</v>
       </c>
       <c r="M17" s="10">
-        <v>227739.96</v>
-      </c>
-      <c r="O17" s="53">
+        <v>4554.7991999999995</v>
+      </c>
+      <c r="O17" s="52">
         <v>0.1</v>
       </c>
-      <c r="P17" s="52" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q17" s="52" t="s">
-        <v>326</v>
-      </c>
-      <c r="R17" s="52" t="s">
-        <v>344</v>
-      </c>
-      <c r="S17" s="52" t="s">
-        <v>346</v>
-      </c>
-      <c r="T17" s="56" t="s">
-        <v>341</v>
+      <c r="P17" s="51" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q17" s="51" t="s">
+        <v>325</v>
+      </c>
+      <c r="R17" s="51" t="s">
+        <v>343</v>
+      </c>
+      <c r="S17" s="51" t="s">
+        <v>345</v>
+      </c>
+      <c r="T17" s="55" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="18" spans="1:59" x14ac:dyDescent="0.25">
@@ -34455,55 +34480,55 @@
         <v>0.3</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H18" s="30">
         <v>0.3</v>
       </c>
       <c r="I18" s="12">
-        <v>92749.47</v>
+        <v>1854.9893999999999</v>
       </c>
       <c r="J18" s="12">
-        <v>180811.15</v>
+        <v>3616.223</v>
       </c>
       <c r="K18" s="12">
-        <v>108137.38</v>
+        <v>2162.7476000000001</v>
       </c>
       <c r="L18" s="12">
-        <v>274373.71999999997</v>
+        <v>5487.4743999999992</v>
       </c>
       <c r="M18" s="12">
-        <v>225317.19</v>
-      </c>
-      <c r="O18" s="53">
+        <v>4506.3437999999996</v>
+      </c>
+      <c r="O18" s="52">
         <v>0.3</v>
       </c>
-      <c r="P18" s="52" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q18" s="52" t="s">
-        <v>347</v>
-      </c>
-      <c r="R18" s="52" t="s">
-        <v>351</v>
-      </c>
-      <c r="S18" s="52" t="s">
-        <v>355</v>
-      </c>
-      <c r="T18" s="52" t="s">
-        <v>357</v>
+      <c r="P18" s="51" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q18" s="51" t="s">
+        <v>346</v>
+      </c>
+      <c r="R18" s="51" t="s">
+        <v>350</v>
+      </c>
+      <c r="S18" s="51" t="s">
+        <v>354</v>
+      </c>
+      <c r="T18" s="51" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="19" spans="1:59" x14ac:dyDescent="0.25">
@@ -34511,55 +34536,55 @@
         <v>0.5</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H19" s="30">
         <v>0.5</v>
       </c>
       <c r="I19" s="12">
-        <v>66046.31</v>
+        <v>1320.9261999999999</v>
       </c>
       <c r="J19" s="12">
-        <v>147347.20000000001</v>
+        <v>2946.9440000000004</v>
       </c>
       <c r="K19" s="12">
-        <v>224672.83</v>
+        <v>4493.4565999999995</v>
       </c>
       <c r="L19" s="12">
-        <v>405986.28</v>
+        <v>8119.7256000000007</v>
       </c>
       <c r="M19" s="12">
-        <v>372413.67</v>
-      </c>
-      <c r="O19" s="53">
+        <v>7448.2734</v>
+      </c>
+      <c r="O19" s="52">
         <v>0.5</v>
       </c>
-      <c r="P19" s="52" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q19" s="52" t="s">
-        <v>333</v>
-      </c>
-      <c r="R19" s="52" t="s">
+      <c r="P19" s="51" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q19" s="51" t="s">
+        <v>332</v>
+      </c>
+      <c r="R19" s="51" t="s">
+        <v>336</v>
+      </c>
+      <c r="S19" s="51" t="s">
         <v>337</v>
       </c>
-      <c r="S19" s="52" t="s">
-        <v>338</v>
-      </c>
-      <c r="T19" s="52" t="s">
-        <v>353</v>
+      <c r="T19" s="51" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="20" spans="1:59" x14ac:dyDescent="0.25">
@@ -34567,55 +34592,55 @@
         <v>0.7</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H20" s="30">
         <v>0.7</v>
       </c>
       <c r="I20" s="12">
-        <v>69562.81</v>
+        <v>1391.2562</v>
       </c>
       <c r="J20" s="12">
-        <v>206630.93</v>
+        <v>4132.6185999999998</v>
       </c>
       <c r="K20" s="12">
-        <v>249544.85</v>
+        <v>4990.8969999999999</v>
       </c>
       <c r="L20" s="12">
-        <v>244007.1</v>
+        <v>4880.1419999999998</v>
       </c>
       <c r="M20" s="12">
-        <v>280002.46999999997</v>
-      </c>
-      <c r="O20" s="53">
+        <v>5600.0493999999999</v>
+      </c>
+      <c r="O20" s="52">
         <v>0.7</v>
       </c>
-      <c r="P20" s="52" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q20" s="52" t="s">
-        <v>332</v>
-      </c>
-      <c r="R20" s="52" t="s">
-        <v>334</v>
-      </c>
-      <c r="S20" s="52" t="s">
-        <v>336</v>
-      </c>
-      <c r="T20" s="52" t="s">
-        <v>343</v>
+      <c r="P20" s="51" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q20" s="51" t="s">
+        <v>331</v>
+      </c>
+      <c r="R20" s="51" t="s">
+        <v>333</v>
+      </c>
+      <c r="S20" s="51" t="s">
+        <v>335</v>
+      </c>
+      <c r="T20" s="51" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="23" spans="1:59" x14ac:dyDescent="0.25">
@@ -34627,22 +34652,22 @@
       <c r="F23" s="57"/>
     </row>
     <row r="24" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A24" s="64" t="s">
+      <c r="A24" s="65" t="s">
         <v>277</v>
       </c>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="H24" s="66" t="s">
-        <v>386</v>
-      </c>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="66"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="H24" s="64" t="s">
+        <v>384</v>
+      </c>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
     </row>
     <row r="25" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A25" s="57" t="s">
@@ -34664,7 +34689,7 @@
       <c r="C26" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="D26" s="55" t="s">
+      <c r="D26" s="54" t="s">
         <v>1</v>
       </c>
       <c r="E26" s="42" t="s">
@@ -34673,7 +34698,7 @@
       <c r="F26" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="65" t="s">
+      <c r="H26" s="63" t="s">
         <v>278</v>
       </c>
       <c r="I26" t="s">
@@ -34705,7 +34730,7 @@
       <c r="F27">
         <v>18272</v>
       </c>
-      <c r="H27" s="65"/>
+      <c r="H27" s="63"/>
       <c r="I27" t="s">
         <v>5</v>
       </c>
@@ -34879,7 +34904,7 @@
       <c r="F28">
         <v>18191</v>
       </c>
-      <c r="H28" s="65"/>
+      <c r="H28" s="63"/>
       <c r="I28" t="s">
         <v>6</v>
       </c>
@@ -35085,7 +35110,7 @@
       <c r="D31" s="57"/>
       <c r="E31" s="57"/>
       <c r="F31" s="57"/>
-      <c r="H31" s="65" t="s">
+      <c r="H31" s="63" t="s">
         <v>280</v>
       </c>
       <c r="I31" t="s">
@@ -35108,7 +35133,7 @@
       <c r="C32" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="D32" s="55" t="s">
+      <c r="D32" s="54" t="s">
         <v>1</v>
       </c>
       <c r="E32" s="42" t="s">
@@ -35117,7 +35142,7 @@
       <c r="F32" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="H32" s="65"/>
+      <c r="H32" s="63"/>
       <c r="I32" t="s">
         <v>5</v>
       </c>
@@ -35291,7 +35316,7 @@
       <c r="F33">
         <v>18326</v>
       </c>
-      <c r="H33" s="65"/>
+      <c r="H33" s="63"/>
       <c r="I33" t="s">
         <v>6</v>
       </c>
@@ -35507,7 +35532,7 @@
       <c r="F36">
         <v>19001</v>
       </c>
-      <c r="H36" s="65" t="s">
+      <c r="H36" s="63" t="s">
         <v>281</v>
       </c>
       <c r="I36" t="s">
@@ -35529,7 +35554,7 @@
       <c r="D37" s="57"/>
       <c r="E37" s="57"/>
       <c r="F37" s="57"/>
-      <c r="H37" s="65"/>
+      <c r="H37" s="63"/>
       <c r="I37" t="s">
         <v>5</v>
       </c>
@@ -35694,7 +35719,7 @@
       <c r="C38" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="D38" s="55" t="s">
+      <c r="D38" s="54" t="s">
         <v>1</v>
       </c>
       <c r="E38" s="42" t="s">
@@ -35703,7 +35728,7 @@
       <c r="F38" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="H38" s="65"/>
+      <c r="H38" s="63"/>
       <c r="I38" t="s">
         <v>6</v>
       </c>
@@ -35898,7 +35923,7 @@
       <c r="F40">
         <v>18299</v>
       </c>
-      <c r="H40" s="65" t="s">
+      <c r="H40" s="63" t="s">
         <v>282</v>
       </c>
       <c r="I40" t="s">
@@ -35930,7 +35955,7 @@
       <c r="F41">
         <v>19163</v>
       </c>
-      <c r="H41" s="65"/>
+      <c r="H41" s="63"/>
       <c r="I41" t="s">
         <v>5</v>
       </c>
@@ -36104,7 +36129,7 @@
       <c r="F42">
         <v>19055</v>
       </c>
-      <c r="H42" s="65"/>
+      <c r="H42" s="63"/>
       <c r="I42" t="s">
         <v>6</v>
       </c>
@@ -36261,16 +36286,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="H31:H33"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A23:F23"/>
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="H15:M15"/>
     <mergeCell ref="O2:T2"/>
@@ -36283,6 +36298,16 @@
     <mergeCell ref="H3:M3"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="H9:M9"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="H40:H42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -36294,8 +36319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:DE42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36323,7 +36348,7 @@
       <c r="E2" s="57"/>
       <c r="F2" s="57"/>
       <c r="H2" s="57" t="s">
-        <v>325</v>
+        <v>526</v>
       </c>
       <c r="I2" s="57"/>
       <c r="J2" s="57"/>
@@ -36331,7 +36356,7 @@
       <c r="L2" s="57"/>
       <c r="M2" s="57"/>
       <c r="O2" s="57" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="P2" s="57"/>
       <c r="Q2" s="57"/>
@@ -36348,22 +36373,22 @@
       <c r="D3" s="57"/>
       <c r="E3" s="57"/>
       <c r="F3" s="57"/>
-      <c r="H3" s="63" t="s">
+      <c r="H3" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="O3" s="63" t="s">
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="O3" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
     </row>
     <row r="4" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
@@ -36384,22 +36409,22 @@
       <c r="F4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="48" t="s">
+      <c r="I4" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="48" t="s">
+      <c r="J4" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="K4" s="48" t="s">
+      <c r="K4" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="48" t="s">
+      <c r="L4" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="48" t="s">
+      <c r="M4" s="47" t="s">
         <v>3</v>
       </c>
       <c r="O4" s="37" t="s">
@@ -36426,37 +36451,37 @@
         <v>0.1</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>404</v>
-      </c>
-      <c r="H5" s="49">
+        <v>402</v>
+      </c>
+      <c r="H5" s="48">
         <v>0.1</v>
       </c>
-      <c r="I5" s="50">
-        <v>64525.07</v>
-      </c>
-      <c r="J5" s="50">
-        <v>111762.56</v>
-      </c>
-      <c r="K5" s="50">
-        <v>150408.92000000001</v>
-      </c>
-      <c r="L5" s="50">
-        <v>183877.99</v>
-      </c>
-      <c r="M5" s="50">
-        <v>183504.92</v>
+      <c r="I5" s="72">
+        <v>645.25070000000005</v>
+      </c>
+      <c r="J5" s="72">
+        <v>1117.6256000000001</v>
+      </c>
+      <c r="K5" s="72">
+        <v>1504.0892000000001</v>
+      </c>
+      <c r="L5" s="72">
+        <v>1838.7799</v>
+      </c>
+      <c r="M5" s="72">
+        <v>1835.0492000000002</v>
       </c>
       <c r="O5" s="38">
         <v>0.1</v>
@@ -36482,37 +36507,37 @@
         <v>0.3</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>404</v>
-      </c>
-      <c r="H6" s="49">
+        <v>402</v>
+      </c>
+      <c r="H6" s="48">
         <v>0.3</v>
       </c>
-      <c r="I6" s="50">
-        <v>79340.88</v>
-      </c>
-      <c r="J6" s="50">
-        <v>110002.94</v>
-      </c>
-      <c r="K6" s="50">
-        <v>119705.63</v>
-      </c>
-      <c r="L6" s="50">
-        <v>118108.4</v>
-      </c>
-      <c r="M6" s="50">
-        <v>110850.2</v>
+      <c r="I6" s="72">
+        <v>793.40880000000004</v>
+      </c>
+      <c r="J6" s="72">
+        <v>1100.0294000000001</v>
+      </c>
+      <c r="K6" s="72">
+        <v>1197.0563</v>
+      </c>
+      <c r="L6" s="72">
+        <v>1181.0839999999998</v>
+      </c>
+      <c r="M6" s="72">
+        <v>1108.502</v>
       </c>
       <c r="O6" s="38">
         <v>0.3</v>
@@ -36538,37 +36563,37 @@
         <v>0.5</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>404</v>
-      </c>
-      <c r="H7" s="49">
+        <v>402</v>
+      </c>
+      <c r="H7" s="48">
         <v>0.5</v>
       </c>
-      <c r="I7" s="50">
-        <v>82974.3</v>
-      </c>
-      <c r="J7" s="50">
-        <v>130099.73</v>
-      </c>
-      <c r="K7" s="50">
-        <v>167563.78</v>
-      </c>
-      <c r="L7" s="50">
-        <v>162635.43</v>
-      </c>
-      <c r="M7" s="50">
-        <v>165787.21</v>
+      <c r="I7" s="72">
+        <v>829.74300000000005</v>
+      </c>
+      <c r="J7" s="72">
+        <v>1300.9973</v>
+      </c>
+      <c r="K7" s="72">
+        <v>1675.6378</v>
+      </c>
+      <c r="L7" s="72">
+        <v>1626.3543</v>
+      </c>
+      <c r="M7" s="72">
+        <v>1657.8720999999998</v>
       </c>
       <c r="O7" s="38">
         <v>0.5</v>
@@ -36594,37 +36619,37 @@
         <v>0.7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>414</v>
-      </c>
-      <c r="H8" s="49">
+        <v>412</v>
+      </c>
+      <c r="H8" s="48">
         <v>0.7</v>
       </c>
-      <c r="I8" s="50">
-        <v>88975.98</v>
-      </c>
-      <c r="J8" s="50">
-        <v>153635.35999999999</v>
-      </c>
-      <c r="K8" s="50">
-        <v>156337.35</v>
-      </c>
-      <c r="L8" s="50">
-        <v>205621.06</v>
-      </c>
-      <c r="M8" s="50">
-        <v>154819.1</v>
+      <c r="I8" s="72">
+        <v>889.75979999999993</v>
+      </c>
+      <c r="J8" s="72">
+        <v>1536.3535999999999</v>
+      </c>
+      <c r="K8" s="72">
+        <v>1563.3735000000001</v>
+      </c>
+      <c r="L8" s="72">
+        <v>2056.2105999999999</v>
+      </c>
+      <c r="M8" s="72">
+        <v>1548.191</v>
       </c>
       <c r="O8" s="38">
         <v>0.7</v>
@@ -36646,22 +36671,22 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="H9" s="59" t="s">
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="H9" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
       <c r="O9" s="57" t="s">
         <v>5</v>
       </c>
@@ -36732,55 +36757,55 @@
         <v>0.1</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H11" s="22">
         <v>0.1</v>
       </c>
-      <c r="I11" s="13">
-        <v>143007.19</v>
-      </c>
-      <c r="J11" s="13">
-        <v>164051.57</v>
-      </c>
-      <c r="K11" s="13">
-        <v>161990.54</v>
-      </c>
-      <c r="L11" s="13">
-        <v>200378.93</v>
-      </c>
-      <c r="M11" s="13">
-        <v>183504.91</v>
+      <c r="I11" s="73">
+        <v>1430.0718999999999</v>
+      </c>
+      <c r="J11" s="73">
+        <v>1640.5157000000002</v>
+      </c>
+      <c r="K11" s="73">
+        <v>1619.9054000000001</v>
+      </c>
+      <c r="L11" s="73">
+        <v>2003.7892999999999</v>
+      </c>
+      <c r="M11" s="73">
+        <v>1835.0491</v>
       </c>
       <c r="N11" s="15"/>
-      <c r="O11" s="54">
+      <c r="O11" s="53">
         <v>0.1</v>
       </c>
-      <c r="P11" s="47" t="s">
+      <c r="P11" s="46" t="s">
         <v>309</v>
       </c>
-      <c r="Q11" s="47" t="s">
-        <v>377</v>
-      </c>
-      <c r="R11" s="47" t="s">
+      <c r="Q11" s="46" t="s">
+        <v>376</v>
+      </c>
+      <c r="R11" s="46" t="s">
         <v>309</v>
       </c>
-      <c r="S11" s="47" t="s">
-        <v>345</v>
-      </c>
-      <c r="T11" s="51" t="s">
+      <c r="S11" s="46" t="s">
+        <v>344</v>
+      </c>
+      <c r="T11" s="50" t="s">
         <v>313</v>
       </c>
     </row>
@@ -36789,56 +36814,56 @@
         <v>0.3</v>
       </c>
       <c r="B12" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="E12" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>401</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>409</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>403</v>
       </c>
       <c r="H12" s="22">
         <v>0.3</v>
       </c>
-      <c r="I12" s="13">
-        <v>134225.63</v>
-      </c>
-      <c r="J12" s="13">
-        <v>148621.10999999999</v>
-      </c>
-      <c r="K12" s="13">
-        <v>127876.1</v>
-      </c>
-      <c r="L12" s="13">
-        <v>119074.17</v>
-      </c>
-      <c r="M12" s="13">
-        <v>110850.19</v>
+      <c r="I12" s="73">
+        <v>1342.2563</v>
+      </c>
+      <c r="J12" s="73">
+        <v>1486.2110999999998</v>
+      </c>
+      <c r="K12" s="73">
+        <v>1278.761</v>
+      </c>
+      <c r="L12" s="73">
+        <v>1190.7417</v>
+      </c>
+      <c r="M12" s="73">
+        <v>1108.5019</v>
       </c>
       <c r="N12" s="15"/>
-      <c r="O12" s="54">
+      <c r="O12" s="53">
         <v>0.3</v>
       </c>
-      <c r="P12" s="47" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q12" s="47" t="s">
-        <v>354</v>
-      </c>
-      <c r="R12" s="47" t="s">
+      <c r="P12" s="46" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q12" s="46" t="s">
+        <v>353</v>
+      </c>
+      <c r="R12" s="46" t="s">
+        <v>378</v>
+      </c>
+      <c r="S12" s="46" t="s">
         <v>380</v>
       </c>
-      <c r="S12" s="47" t="s">
+      <c r="T12" s="50" t="s">
         <v>382</v>
-      </c>
-      <c r="T12" s="51" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -36846,56 +36871,56 @@
         <v>0.5</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H13" s="22">
         <v>0.5</v>
       </c>
-      <c r="I13" s="13">
-        <v>157772.04</v>
-      </c>
-      <c r="J13" s="13">
-        <v>186754.38</v>
-      </c>
-      <c r="K13" s="13">
-        <v>204175.58</v>
-      </c>
-      <c r="L13" s="13">
-        <v>186879.72</v>
-      </c>
-      <c r="M13" s="13">
-        <v>165787.20000000001</v>
+      <c r="I13" s="73">
+        <v>1577.7204000000002</v>
+      </c>
+      <c r="J13" s="73">
+        <v>1867.5438000000001</v>
+      </c>
+      <c r="K13" s="73">
+        <v>2041.7557999999999</v>
+      </c>
+      <c r="L13" s="73">
+        <v>1868.7972</v>
+      </c>
+      <c r="M13" s="73">
+        <v>1657.8720000000001</v>
       </c>
       <c r="N13" s="15"/>
-      <c r="O13" s="54">
+      <c r="O13" s="53">
         <v>0.5</v>
       </c>
-      <c r="P13" s="47" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q13" s="47" t="s">
-        <v>365</v>
-      </c>
-      <c r="R13" s="47" t="s">
-        <v>339</v>
-      </c>
-      <c r="S13" s="47" t="s">
-        <v>370</v>
-      </c>
-      <c r="T13" s="51" t="s">
-        <v>372</v>
+      <c r="P13" s="46" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q13" s="46" t="s">
+        <v>364</v>
+      </c>
+      <c r="R13" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="S13" s="46" t="s">
+        <v>369</v>
+      </c>
+      <c r="T13" s="50" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -36903,76 +36928,76 @@
         <v>0.7</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="22">
         <v>0.7</v>
       </c>
-      <c r="I14" s="13">
-        <v>194473.02</v>
-      </c>
-      <c r="J14" s="13">
-        <v>243494.65</v>
-      </c>
-      <c r="K14" s="13">
-        <v>188988.97</v>
-      </c>
-      <c r="L14" s="13">
-        <v>238345.46</v>
-      </c>
-      <c r="M14" s="13">
-        <v>154819.09</v>
+      <c r="I14" s="73">
+        <v>1944.7302</v>
+      </c>
+      <c r="J14" s="73">
+        <v>2434.9465</v>
+      </c>
+      <c r="K14" s="73">
+        <v>1889.8896999999999</v>
+      </c>
+      <c r="L14" s="73">
+        <v>2383.4546</v>
+      </c>
+      <c r="M14" s="73">
+        <v>1548.1909000000001</v>
       </c>
       <c r="N14" s="15"/>
-      <c r="O14" s="54">
+      <c r="O14" s="53">
         <v>0.7</v>
       </c>
-      <c r="P14" s="47" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q14" s="47" t="s">
+      <c r="P14" s="46" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q14" s="46" t="s">
         <v>304</v>
       </c>
-      <c r="R14" s="47" t="s">
-        <v>330</v>
-      </c>
-      <c r="S14" s="47" t="s">
-        <v>360</v>
-      </c>
-      <c r="T14" s="51" t="s">
-        <v>330</v>
+      <c r="R14" s="46" t="s">
+        <v>329</v>
+      </c>
+      <c r="S14" s="46" t="s">
+        <v>359</v>
+      </c>
+      <c r="T14" s="50" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="58" t="s">
         <v>274</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="H15" s="69" t="s">
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="H15" s="68" t="s">
         <v>274</v>
       </c>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
       <c r="N15" s="15"/>
       <c r="O15" s="67" t="s">
         <v>274</v>
@@ -37021,22 +37046,22 @@
         <v>3</v>
       </c>
       <c r="N16" s="15"/>
-      <c r="O16" s="54" t="s">
+      <c r="O16" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="P16" s="55" t="s">
+      <c r="P16" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="Q16" s="55" t="s">
+      <c r="Q16" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="R16" s="55" t="s">
+      <c r="R16" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="S16" s="55" t="s">
+      <c r="S16" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="T16" s="55" t="s">
+      <c r="T16" s="54" t="s">
         <v>3</v>
       </c>
     </row>
@@ -37045,228 +37070,248 @@
         <v>0.1</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H17" s="22">
         <v>0.1</v>
       </c>
-      <c r="I17" s="13">
-        <v>91503.63</v>
-      </c>
-      <c r="J17" s="13">
-        <v>125234.91</v>
-      </c>
-      <c r="K17" s="13">
-        <v>152697.79</v>
-      </c>
-      <c r="L17" s="13">
-        <v>161830.25</v>
-      </c>
-      <c r="M17" s="20">
-        <v>183504.91</v>
+      <c r="I17" s="73">
+        <v>915.0363000000001</v>
+      </c>
+      <c r="J17" s="73">
+        <v>1252.3491000000001</v>
+      </c>
+      <c r="K17" s="73">
+        <v>1526.9779000000001</v>
+      </c>
+      <c r="L17" s="73">
+        <v>1618.3025</v>
+      </c>
+      <c r="M17" s="74">
+        <v>1835.0491</v>
       </c>
       <c r="N17" s="15"/>
-      <c r="O17" s="54">
+      <c r="O17" s="53">
         <v>0.1</v>
       </c>
-      <c r="P17" s="52" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q17" s="52" t="s">
-        <v>379</v>
-      </c>
-      <c r="R17" s="52" t="s">
-        <v>341</v>
-      </c>
-      <c r="S17" s="52" t="s">
-        <v>417</v>
-      </c>
-      <c r="T17" s="56" t="s">
-        <v>376</v>
-      </c>
+      <c r="P17" s="51" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q17" s="51" t="s">
+        <v>527</v>
+      </c>
+      <c r="R17" s="51" t="s">
+        <v>340</v>
+      </c>
+      <c r="S17" s="51" t="s">
+        <v>415</v>
+      </c>
+      <c r="T17" s="55" t="s">
+        <v>375</v>
+      </c>
+      <c r="W17" s="43"/>
+      <c r="X17" s="43"/>
+      <c r="Y17" s="43"/>
+      <c r="Z17" s="43"/>
+      <c r="AA17" s="43"/>
     </row>
     <row r="18" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A18" s="30">
         <v>0.3</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H18" s="22">
         <v>0.3</v>
       </c>
-      <c r="I18" s="13">
-        <v>70465.2</v>
-      </c>
-      <c r="J18" s="13">
-        <v>115144.1</v>
-      </c>
-      <c r="K18" s="13">
-        <v>115741.52</v>
-      </c>
-      <c r="L18" s="13">
-        <v>107161.16</v>
-      </c>
-      <c r="M18" s="13">
-        <v>110850.19</v>
+      <c r="I18" s="73">
+        <v>704.65199999999993</v>
+      </c>
+      <c r="J18" s="73">
+        <v>1151.441</v>
+      </c>
+      <c r="K18" s="73">
+        <v>1157.4152000000001</v>
+      </c>
+      <c r="L18" s="73">
+        <v>1071.6116</v>
+      </c>
+      <c r="M18" s="73">
+        <v>1108.5019</v>
       </c>
       <c r="N18" s="15"/>
-      <c r="O18" s="54">
+      <c r="O18" s="53">
         <v>0.3</v>
       </c>
-      <c r="P18" s="52" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q18" s="52" t="s">
-        <v>378</v>
-      </c>
-      <c r="R18" s="52" t="s">
+      <c r="P18" s="51" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q18" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="R18" s="51" t="s">
+        <v>379</v>
+      </c>
+      <c r="S18" s="51" t="s">
         <v>381</v>
       </c>
-      <c r="S18" s="52" t="s">
+      <c r="T18" s="51" t="s">
         <v>383</v>
       </c>
-      <c r="T18" s="52" t="s">
-        <v>385</v>
-      </c>
+      <c r="W18" s="43"/>
+      <c r="X18" s="43"/>
+      <c r="Y18" s="43"/>
+      <c r="Z18" s="43"/>
+      <c r="AA18" s="43"/>
     </row>
     <row r="19" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A19" s="30">
         <v>0.5</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H19" s="22">
         <v>0.5</v>
       </c>
-      <c r="I19" s="13">
-        <v>113873.79</v>
-      </c>
-      <c r="J19" s="13">
-        <v>133619.59</v>
-      </c>
-      <c r="K19" s="13">
-        <v>177500.77</v>
-      </c>
-      <c r="L19" s="13">
-        <v>186879.72</v>
-      </c>
-      <c r="M19" s="13">
-        <v>165787.20000000001</v>
+      <c r="I19" s="73">
+        <v>1138.7378999999999</v>
+      </c>
+      <c r="J19" s="73">
+        <v>1336.1958999999999</v>
+      </c>
+      <c r="K19" s="73">
+        <v>1775.0076999999999</v>
+      </c>
+      <c r="L19" s="73">
+        <v>1868.7972</v>
+      </c>
+      <c r="M19" s="73">
+        <v>1657.8720000000001</v>
       </c>
       <c r="N19" s="15"/>
-      <c r="O19" s="54">
+      <c r="O19" s="53">
         <v>0.5</v>
       </c>
-      <c r="P19" s="52" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q19" s="52" t="s">
-        <v>367</v>
-      </c>
-      <c r="R19" s="52" t="s">
-        <v>369</v>
-      </c>
-      <c r="S19" s="52" t="s">
-        <v>371</v>
-      </c>
-      <c r="T19" s="52" t="s">
-        <v>373</v>
-      </c>
+      <c r="P19" s="51" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q19" s="51" t="s">
+        <v>366</v>
+      </c>
+      <c r="R19" s="51" t="s">
+        <v>368</v>
+      </c>
+      <c r="S19" s="51" t="s">
+        <v>370</v>
+      </c>
+      <c r="T19" s="51" t="s">
+        <v>372</v>
+      </c>
+      <c r="W19" s="43"/>
+      <c r="X19" s="43"/>
+      <c r="Y19" s="43"/>
+      <c r="Z19" s="43"/>
+      <c r="AA19" s="43"/>
     </row>
     <row r="20" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A20" s="30">
         <v>0.7</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D20" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="E20" s="13" t="s">
-        <v>412</v>
-      </c>
       <c r="F20" s="13" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H20" s="22">
         <v>0.7</v>
       </c>
-      <c r="I20" s="13">
-        <v>126801.33</v>
-      </c>
-      <c r="J20" s="13">
-        <v>189356.35</v>
-      </c>
-      <c r="K20" s="13">
-        <v>188988.97</v>
-      </c>
-      <c r="L20" s="13">
-        <v>238345.46</v>
-      </c>
-      <c r="M20" s="13">
-        <v>154819.09</v>
+      <c r="I20" s="73">
+        <v>1268.0133000000001</v>
+      </c>
+      <c r="J20" s="73">
+        <v>1893.5635</v>
+      </c>
+      <c r="K20" s="73">
+        <v>1889.8896999999999</v>
+      </c>
+      <c r="L20" s="73">
+        <v>2383.4546</v>
+      </c>
+      <c r="M20" s="73">
+        <v>1548.1909000000001</v>
       </c>
       <c r="N20" s="15"/>
-      <c r="O20" s="54">
+      <c r="O20" s="53">
         <v>0.7</v>
       </c>
-      <c r="P20" s="52" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q20" s="52" t="s">
-        <v>366</v>
-      </c>
-      <c r="R20" s="52" t="s">
-        <v>368</v>
-      </c>
-      <c r="S20" s="52" t="s">
-        <v>361</v>
-      </c>
-      <c r="T20" s="52" t="s">
-        <v>361</v>
-      </c>
+      <c r="P20" s="51" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q20" s="51" t="s">
+        <v>365</v>
+      </c>
+      <c r="R20" s="51" t="s">
+        <v>367</v>
+      </c>
+      <c r="S20" s="51" t="s">
+        <v>360</v>
+      </c>
+      <c r="T20" s="51" t="s">
+        <v>360</v>
+      </c>
+      <c r="W20" s="43"/>
+      <c r="X20" s="43"/>
+      <c r="Y20" s="43"/>
+      <c r="Z20" s="43"/>
+      <c r="AA20" s="43"/>
     </row>
     <row r="23" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A23" s="57"/>
@@ -37277,22 +37322,22 @@
       <c r="F23" s="57"/>
     </row>
     <row r="24" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A24" s="64" t="s">
-        <v>358</v>
-      </c>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="H24" s="66" t="s">
-        <v>386</v>
-      </c>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="H24" s="64" t="s">
+        <v>384</v>
+      </c>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
     </row>
     <row r="25" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A25" s="57" t="s">
@@ -37314,7 +37359,7 @@
       <c r="C26" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="D26" s="55" t="s">
+      <c r="D26" s="54" t="s">
         <v>1</v>
       </c>
       <c r="E26" s="35" t="s">
@@ -37323,7 +37368,7 @@
       <c r="F26" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="65" t="s">
+      <c r="H26" s="63" t="s">
         <v>278</v>
       </c>
       <c r="I26" t="s">
@@ -37355,7 +37400,7 @@
       <c r="F27">
         <v>32229</v>
       </c>
-      <c r="H27" s="65"/>
+      <c r="H27" s="63"/>
       <c r="I27" t="s">
         <v>5</v>
       </c>
@@ -37679,7 +37724,7 @@
       <c r="F28">
         <v>32938</v>
       </c>
-      <c r="H28" s="65"/>
+      <c r="H28" s="63"/>
       <c r="I28" t="s">
         <v>6</v>
       </c>
@@ -38035,7 +38080,7 @@
       <c r="D31" s="57"/>
       <c r="E31" s="57"/>
       <c r="F31" s="57"/>
-      <c r="H31" s="65" t="s">
+      <c r="H31" s="63" t="s">
         <v>280</v>
       </c>
       <c r="I31" t="s">
@@ -38058,7 +38103,7 @@
       <c r="C32" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="D32" s="55" t="s">
+      <c r="D32" s="54" t="s">
         <v>1</v>
       </c>
       <c r="E32" s="35" t="s">
@@ -38067,7 +38112,7 @@
       <c r="F32" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H32" s="65"/>
+      <c r="H32" s="63"/>
       <c r="I32" t="s">
         <v>5</v>
       </c>
@@ -38391,7 +38436,7 @@
       <c r="F33">
         <v>32511</v>
       </c>
-      <c r="H33" s="65"/>
+      <c r="H33" s="63"/>
       <c r="I33" t="s">
         <v>6</v>
       </c>
@@ -38757,7 +38802,7 @@
       <c r="F36">
         <v>28377</v>
       </c>
-      <c r="H36" s="65" t="s">
+      <c r="H36" s="63" t="s">
         <v>281</v>
       </c>
       <c r="I36" t="s">
@@ -38779,7 +38824,7 @@
       <c r="D37" s="57"/>
       <c r="E37" s="57"/>
       <c r="F37" s="57"/>
-      <c r="H37" s="65"/>
+      <c r="H37" s="63"/>
       <c r="I37" t="s">
         <v>5</v>
       </c>
@@ -39094,7 +39139,7 @@
       <c r="C38" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="D38" s="55" t="s">
+      <c r="D38" s="54" t="s">
         <v>1</v>
       </c>
       <c r="E38" s="35" t="s">
@@ -39103,7 +39148,7 @@
       <c r="F38" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H38" s="65"/>
+      <c r="H38" s="63"/>
       <c r="I38" t="s">
         <v>6</v>
       </c>
@@ -39448,7 +39493,7 @@
       <c r="F40">
         <v>33349</v>
       </c>
-      <c r="H40" s="65" t="s">
+      <c r="H40" s="63" t="s">
         <v>282</v>
       </c>
       <c r="I40" t="s">
@@ -39480,7 +39525,7 @@
       <c r="F41">
         <v>27821</v>
       </c>
-      <c r="H41" s="65"/>
+      <c r="H41" s="63"/>
       <c r="I41" t="s">
         <v>5</v>
       </c>
@@ -39804,7 +39849,7 @@
       <c r="F42">
         <v>28659</v>
       </c>
-      <c r="H42" s="65"/>
+      <c r="H42" s="63"/>
       <c r="I42" t="s">
         <v>6</v>
       </c>
@@ -40111,18 +40156,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="O2:T2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="O3:T3"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="O9:T9"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="O15:T15"/>
     <mergeCell ref="H36:H38"/>
     <mergeCell ref="A37:F37"/>
     <mergeCell ref="H40:H42"/>
@@ -40133,6 +40166,18 @@
     <mergeCell ref="H26:H28"/>
     <mergeCell ref="A31:F31"/>
     <mergeCell ref="H31:H33"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="O9:T9"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="O15:T15"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="O3:T3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -40163,56 +40208,56 @@
       <c r="I1" s="57"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="H2" s="68" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="H2" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="O2" s="66" t="s">
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="O2" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>277</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="H3" s="64" t="s">
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="H3" s="65" t="s">
         <v>277</v>
       </c>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="O3" s="64" t="s">
-        <v>358</v>
-      </c>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="O3" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
@@ -40241,64 +40286,64 @@
       <c r="T4" s="57"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="H5" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="55" t="s">
+      <c r="I5" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="55" t="s">
+      <c r="J5" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="K5" s="55" t="s">
+      <c r="K5" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="55" t="s">
+      <c r="L5" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="55" t="s">
+      <c r="M5" s="54" t="s">
         <v>3</v>
       </c>
       <c r="N5" s="15"/>
-      <c r="O5" s="55" t="s">
+      <c r="O5" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="55" t="s">
+      <c r="P5" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="Q5" s="55" t="s">
+      <c r="Q5" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="R5" s="55" t="s">
+      <c r="R5" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="S5" s="55" t="s">
+      <c r="S5" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="T5" s="55" t="s">
+      <c r="T5" s="54" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="54">
+      <c r="A6" s="53">
         <v>0.1</v>
       </c>
       <c r="B6" s="15">
@@ -40316,7 +40361,7 @@
       <c r="F6" s="15">
         <v>18272</v>
       </c>
-      <c r="H6" s="54">
+      <c r="H6" s="53">
         <v>0.1</v>
       </c>
       <c r="I6" s="15">
@@ -40335,7 +40380,7 @@
         <v>18272</v>
       </c>
       <c r="N6" s="15"/>
-      <c r="O6" s="54">
+      <c r="O6" s="53">
         <v>0.1</v>
       </c>
       <c r="P6" s="15">
@@ -40355,7 +40400,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="54">
+      <c r="A7" s="53">
         <v>0.3</v>
       </c>
       <c r="B7" s="15">
@@ -40373,7 +40418,7 @@
       <c r="F7" s="15">
         <v>18191</v>
       </c>
-      <c r="H7" s="54">
+      <c r="H7" s="53">
         <v>0.3</v>
       </c>
       <c r="I7" s="15">
@@ -40392,7 +40437,7 @@
         <v>18191</v>
       </c>
       <c r="N7" s="15"/>
-      <c r="O7" s="54">
+      <c r="O7" s="53">
         <v>0.3</v>
       </c>
       <c r="P7" s="15">
@@ -40412,7 +40457,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="54">
+      <c r="A8" s="53">
         <v>0.5</v>
       </c>
       <c r="B8" s="15">
@@ -40430,7 +40475,7 @@
       <c r="F8" s="15">
         <v>19109</v>
       </c>
-      <c r="H8" s="54">
+      <c r="H8" s="53">
         <v>0.5</v>
       </c>
       <c r="I8" s="15">
@@ -40449,7 +40494,7 @@
         <v>19109</v>
       </c>
       <c r="N8" s="15"/>
-      <c r="O8" s="54">
+      <c r="O8" s="53">
         <v>0.5</v>
       </c>
       <c r="P8" s="15">
@@ -40469,7 +40514,7 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="54">
+      <c r="A9" s="53">
         <v>0.7</v>
       </c>
       <c r="B9" s="15">
@@ -40487,7 +40532,7 @@
       <c r="F9" s="15">
         <v>18947</v>
       </c>
-      <c r="H9" s="54">
+      <c r="H9" s="53">
         <v>0.7</v>
       </c>
       <c r="I9" s="15">
@@ -40506,7 +40551,7 @@
         <v>18947</v>
       </c>
       <c r="N9" s="15"/>
-      <c r="O9" s="54">
+      <c r="O9" s="53">
         <v>0.7</v>
       </c>
       <c r="P9" s="15">
@@ -40553,64 +40598,64 @@
       <c r="T10" s="67"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="55" t="s">
+      <c r="F11" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="55" t="s">
+      <c r="H11" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="55" t="s">
+      <c r="I11" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="J11" s="55" t="s">
+      <c r="J11" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="K11" s="55" t="s">
+      <c r="K11" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="L11" s="55" t="s">
+      <c r="L11" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="M11" s="55" t="s">
+      <c r="M11" s="54" t="s">
         <v>3</v>
       </c>
       <c r="N11" s="15"/>
-      <c r="O11" s="55" t="s">
+      <c r="O11" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="P11" s="55" t="s">
+      <c r="P11" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="Q11" s="55" t="s">
+      <c r="Q11" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="R11" s="55" t="s">
+      <c r="R11" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="S11" s="55" t="s">
+      <c r="S11" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="T11" s="55" t="s">
+      <c r="T11" s="54" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="54">
+      <c r="A12" s="53">
         <v>0.1</v>
       </c>
       <c r="B12" s="15">
@@ -40628,7 +40673,7 @@
       <c r="F12" s="15">
         <v>18326</v>
       </c>
-      <c r="H12" s="54">
+      <c r="H12" s="53">
         <v>0.1</v>
       </c>
       <c r="I12" s="15">
@@ -40647,7 +40692,7 @@
         <v>18326</v>
       </c>
       <c r="N12" s="15"/>
-      <c r="O12" s="54">
+      <c r="O12" s="53">
         <v>0.1</v>
       </c>
       <c r="P12" s="15">
@@ -40667,7 +40712,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="54">
+      <c r="A13" s="53">
         <v>0.3</v>
       </c>
       <c r="B13" s="15">
@@ -40685,7 +40730,7 @@
       <c r="F13" s="15">
         <v>18245</v>
       </c>
-      <c r="H13" s="54">
+      <c r="H13" s="53">
         <v>0.3</v>
       </c>
       <c r="I13" s="15">
@@ -40704,7 +40749,7 @@
         <v>18245</v>
       </c>
       <c r="N13" s="15"/>
-      <c r="O13" s="54">
+      <c r="O13" s="53">
         <v>0.3</v>
       </c>
       <c r="P13" s="15">
@@ -40724,7 +40769,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="54">
+      <c r="A14" s="53">
         <v>0.5</v>
       </c>
       <c r="B14" s="15">
@@ -40742,7 +40787,7 @@
       <c r="F14" s="15">
         <v>19136</v>
       </c>
-      <c r="H14" s="54">
+      <c r="H14" s="53">
         <v>0.5</v>
       </c>
       <c r="I14" s="15">
@@ -40761,7 +40806,7 @@
         <v>19136</v>
       </c>
       <c r="N14" s="15"/>
-      <c r="O14" s="54">
+      <c r="O14" s="53">
         <v>0.5</v>
       </c>
       <c r="P14" s="15">
@@ -40781,7 +40826,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="54">
+      <c r="A15" s="53">
         <v>0.7</v>
       </c>
       <c r="B15" s="15">
@@ -40799,7 +40844,7 @@
       <c r="F15" s="15">
         <v>19001</v>
       </c>
-      <c r="H15" s="54">
+      <c r="H15" s="53">
         <v>0.7</v>
       </c>
       <c r="I15" s="15">
@@ -40818,7 +40863,7 @@
         <v>19001</v>
       </c>
       <c r="N15" s="15"/>
-      <c r="O15" s="54">
+      <c r="O15" s="53">
         <v>0.7</v>
       </c>
       <c r="P15" s="15">
@@ -40865,64 +40910,64 @@
       <c r="T16" s="67"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="55" t="s">
+      <c r="E17" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="55" t="s">
+      <c r="F17" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="H17" s="54" t="s">
+      <c r="H17" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="I17" s="55" t="s">
+      <c r="I17" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="J17" s="55" t="s">
+      <c r="J17" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="K17" s="55" t="s">
+      <c r="K17" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="L17" s="55" t="s">
+      <c r="L17" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="M17" s="55" t="s">
+      <c r="M17" s="54" t="s">
         <v>3</v>
       </c>
       <c r="N17" s="15"/>
-      <c r="O17" s="54" t="s">
+      <c r="O17" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="P17" s="55" t="s">
+      <c r="P17" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="Q17" s="55" t="s">
+      <c r="Q17" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="R17" s="55" t="s">
+      <c r="R17" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="S17" s="55" t="s">
+      <c r="S17" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="T17" s="55" t="s">
+      <c r="T17" s="54" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="54">
+      <c r="A18" s="53">
         <v>0.1</v>
       </c>
       <c r="B18" s="15">
@@ -40940,7 +40985,7 @@
       <c r="F18" s="15">
         <v>18353</v>
       </c>
-      <c r="H18" s="54">
+      <c r="H18" s="53">
         <v>0.1</v>
       </c>
       <c r="I18" s="15">
@@ -40959,7 +41004,7 @@
         <v>18353</v>
       </c>
       <c r="N18" s="15"/>
-      <c r="O18" s="54">
+      <c r="O18" s="53">
         <v>0.1</v>
       </c>
       <c r="P18" s="15">
@@ -40979,7 +41024,7 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="54">
+      <c r="A19" s="53">
         <v>0.3</v>
       </c>
       <c r="B19" s="15">
@@ -40997,7 +41042,7 @@
       <c r="F19" s="15">
         <v>18299</v>
       </c>
-      <c r="H19" s="54">
+      <c r="H19" s="53">
         <v>0.3</v>
       </c>
       <c r="I19" s="15">
@@ -41016,7 +41061,7 @@
         <v>18299</v>
       </c>
       <c r="N19" s="15"/>
-      <c r="O19" s="54">
+      <c r="O19" s="53">
         <v>0.3</v>
       </c>
       <c r="P19" s="15">
@@ -41036,7 +41081,7 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="54">
+      <c r="A20" s="53">
         <v>0.5</v>
       </c>
       <c r="B20" s="15">
@@ -41054,7 +41099,7 @@
       <c r="F20" s="15">
         <v>19163</v>
       </c>
-      <c r="H20" s="54">
+      <c r="H20" s="53">
         <v>0.5</v>
       </c>
       <c r="I20" s="15">
@@ -41073,7 +41118,7 @@
         <v>19163</v>
       </c>
       <c r="N20" s="15"/>
-      <c r="O20" s="54">
+      <c r="O20" s="53">
         <v>0.5</v>
       </c>
       <c r="P20" s="15">
@@ -41093,7 +41138,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="54">
+      <c r="A21" s="53">
         <v>0.7</v>
       </c>
       <c r="B21" s="15">
@@ -41111,7 +41156,7 @@
       <c r="F21" s="15">
         <v>19055</v>
       </c>
-      <c r="H21" s="54">
+      <c r="H21" s="53">
         <v>0.7</v>
       </c>
       <c r="I21" s="15">
@@ -41130,7 +41175,7 @@
         <v>19055</v>
       </c>
       <c r="N21" s="15"/>
-      <c r="O21" s="54">
+      <c r="O21" s="53">
         <v>0.7</v>
       </c>
       <c r="P21" s="15">
@@ -41151,11 +41196,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="O2:T2"/>
-    <mergeCell ref="O3:T3"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="O10:T10"/>
-    <mergeCell ref="O16:T16"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="H4:M4"/>
     <mergeCell ref="H10:M10"/>
@@ -41167,6 +41207,11 @@
     <mergeCell ref="H3:M3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A10:F10"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="O3:T3"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="O10:T10"/>
+    <mergeCell ref="O16:T16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/stats/exp_stats.xlsx
+++ b/stats/exp_stats.xlsx
@@ -1820,7 +1820,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1832,10 +1839,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1845,9 +1852,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1862,10 +1866,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1923,7 +1923,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2472,7 +2471,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2586,7 +2584,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3234,7 +3231,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3983,7 +3979,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9155,7 +9150,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9703,7 +9697,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9818,7 +9811,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10366,7 +10358,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10478,7 +10469,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11026,7 +11016,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12171,7 +12160,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13128,7 +13116,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14259,7 +14246,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15170,7 +15156,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -25704,14 +25689,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
       <c r="H1" t="s">
         <v>15</v>
       </c>
@@ -25726,14 +25711,14 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
       <c r="H2" s="4">
         <v>1E-4</v>
       </c>
@@ -25742,14 +25727,14 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -25869,14 +25854,14 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -25996,14 +25981,14 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
@@ -26118,28 +26103,28 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="57" t="s">
+      <c r="A26" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
       <c r="G26" s="7" t="s">
         <v>164</v>
       </c>
@@ -26154,28 +26139,28 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="57" t="s">
+      <c r="A27" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
       <c r="G27" s="7"/>
       <c r="I27" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="57" t="s">
+      <c r="A28" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
       <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -26295,22 +26280,22 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="58" t="s">
+      <c r="A34" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
       <c r="G34" s="18"/>
-      <c r="I34" s="59" t="s">
+      <c r="I34" s="64" t="s">
         <v>166</v>
       </c>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="59"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="64"/>
+      <c r="M34" s="64"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
@@ -26331,11 +26316,11 @@
       <c r="F35" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="I35" s="59" t="s">
+      <c r="I35" s="64" t="s">
         <v>167</v>
       </c>
-      <c r="J35" s="59"/>
-      <c r="K35" s="59"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="18">
@@ -26359,13 +26344,13 @@
       <c r="G36" s="5">
         <v>0.27</v>
       </c>
-      <c r="I36" s="60" t="s">
+      <c r="I36" s="65" t="s">
         <v>170</v>
       </c>
-      <c r="J36" s="60"/>
-      <c r="K36" s="60"/>
-      <c r="L36" s="60"/>
-      <c r="M36" s="60"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="65"/>
+      <c r="L36" s="65"/>
+      <c r="M36" s="65"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="18">
@@ -26437,14 +26422,14 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="58" t="s">
+      <c r="A40" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="58"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="58"/>
-      <c r="E40" s="58"/>
-      <c r="F40" s="58"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
       <c r="G40" s="18"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -26561,14 +26546,14 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="58" t="s">
+      <c r="A46" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="B46" s="58"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
       <c r="G46" s="18"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -26685,14 +26670,14 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="57" t="s">
+      <c r="A52" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="B52" s="57"/>
-      <c r="C52" s="57"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="57"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="61"/>
       <c r="G52" s="7"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -26809,39 +26794,39 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="57" t="s">
+      <c r="A60" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="B60" s="57"/>
-      <c r="C60" s="57"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="57"/>
-      <c r="F60" s="57"/>
-      <c r="G60" s="57"/>
-      <c r="H60" s="57"/>
-      <c r="I60" s="57"/>
-      <c r="J60" s="57"/>
-      <c r="K60" s="57"/>
+      <c r="B60" s="61"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="61"/>
+      <c r="E60" s="61"/>
+      <c r="F60" s="61"/>
+      <c r="G60" s="61"/>
+      <c r="H60" s="61"/>
+      <c r="I60" s="61"/>
+      <c r="J60" s="61"/>
+      <c r="K60" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A60:K60"/>
+    <mergeCell ref="I34:M34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:M36"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A25:J25"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="A60:K60"/>
-    <mergeCell ref="I34:M34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:M36"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A40:F40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -26866,19 +26851,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
       <c r="L1" s="7" t="s">
         <v>164</v>
       </c>
@@ -26899,19 +26884,19 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
       <c r="L3" s="5"/>
       <c r="M3" s="23"/>
       <c r="N3" s="23"/>
@@ -26921,19 +26906,19 @@
       <c r="R3" s="23"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
       <c r="L4" s="21"/>
       <c r="M4" s="23"/>
       <c r="N4" s="23"/>
@@ -27068,19 +27053,19 @@
       <c r="R7" s="12"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
       <c r="L8" s="5"/>
       <c r="M8" s="23"/>
       <c r="N8" s="23"/>
@@ -27216,19 +27201,19 @@
       <c r="R11" s="12"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
       <c r="L12" s="18"/>
       <c r="M12" s="23"/>
       <c r="N12" s="23"/>
@@ -27367,38 +27352,38 @@
       <c r="L16" s="22"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="66" t="s">
         <v>197</v>
       </c>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
       <c r="L17" s="5"/>
       <c r="M17" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
       <c r="L18" s="5"/>
       <c r="M18" t="s">
         <v>272</v>
@@ -27513,19 +27498,19 @@
       <c r="L21" s="22"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="58" t="s">
+      <c r="A22" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
       <c r="L22" s="7"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -27637,19 +27622,19 @@
       <c r="L25" s="22"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="58" t="s">
+      <c r="A26" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
       <c r="L26" s="22"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -27759,55 +27744,55 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="57"/>
-      <c r="P30" s="57"/>
+      <c r="A30" s="61"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
+      <c r="N30" s="61"/>
+      <c r="O30" s="61"/>
+      <c r="P30" s="61"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="62" t="s">
+      <c r="A32" s="66" t="s">
         <v>199</v>
       </c>
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="62"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="66"/>
       <c r="M32" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="57" t="s">
+      <c r="A33" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
@@ -27915,19 +27900,19 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="58" t="s">
+      <c r="A37" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="58"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="58"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="63"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
@@ -28035,19 +28020,19 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="58" t="s">
+      <c r="A41" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="B41" s="58"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="58"/>
-      <c r="K41" s="58"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="63"/>
+      <c r="K41" s="63"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
@@ -28173,34 +28158,34 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="62" t="s">
+      <c r="A49" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="B49" s="62"/>
-      <c r="C49" s="62"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="62"/>
-      <c r="H49" s="62"/>
-      <c r="I49" s="62"/>
-      <c r="J49" s="62"/>
-      <c r="K49" s="62"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="66"/>
+      <c r="I49" s="66"/>
+      <c r="J49" s="66"/>
+      <c r="K49" s="66"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="58" t="s">
+      <c r="A50" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="58"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="58"/>
-      <c r="E50" s="58"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="58"/>
-      <c r="H50" s="58"/>
-      <c r="I50" s="58"/>
-      <c r="J50" s="58"/>
-      <c r="K50" s="58"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="63"/>
+      <c r="I50" s="63"/>
+      <c r="J50" s="63"/>
+      <c r="K50" s="63"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
@@ -28308,19 +28293,19 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="58" t="s">
+      <c r="A54" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B54" s="58"/>
-      <c r="C54" s="58"/>
-      <c r="D54" s="58"/>
-      <c r="E54" s="58"/>
-      <c r="F54" s="58"/>
-      <c r="G54" s="58"/>
-      <c r="H54" s="58"/>
-      <c r="I54" s="58"/>
-      <c r="J54" s="58"/>
-      <c r="K54" s="58"/>
+      <c r="B54" s="63"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="63"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="63"/>
+      <c r="J54" s="63"/>
+      <c r="K54" s="63"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
@@ -28428,19 +28413,19 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="58" t="s">
+      <c r="A58" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="B58" s="58"/>
-      <c r="C58" s="58"/>
-      <c r="D58" s="58"/>
-      <c r="E58" s="58"/>
-      <c r="F58" s="58"/>
-      <c r="G58" s="58"/>
-      <c r="H58" s="58"/>
-      <c r="I58" s="58"/>
-      <c r="J58" s="58"/>
-      <c r="K58" s="58"/>
+      <c r="B58" s="63"/>
+      <c r="C58" s="63"/>
+      <c r="D58" s="63"/>
+      <c r="E58" s="63"/>
+      <c r="F58" s="63"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="63"/>
+      <c r="I58" s="63"/>
+      <c r="J58" s="63"/>
+      <c r="K58" s="63"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
@@ -28548,34 +28533,34 @@
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="62" t="s">
+      <c r="A63" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="B63" s="62"/>
-      <c r="C63" s="62"/>
-      <c r="D63" s="62"/>
-      <c r="E63" s="62"/>
-      <c r="F63" s="62"/>
-      <c r="G63" s="62"/>
-      <c r="H63" s="62"/>
-      <c r="I63" s="62"/>
-      <c r="J63" s="62"/>
-      <c r="K63" s="62"/>
+      <c r="B63" s="66"/>
+      <c r="C63" s="66"/>
+      <c r="D63" s="66"/>
+      <c r="E63" s="66"/>
+      <c r="F63" s="66"/>
+      <c r="G63" s="66"/>
+      <c r="H63" s="66"/>
+      <c r="I63" s="66"/>
+      <c r="J63" s="66"/>
+      <c r="K63" s="66"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="57" t="s">
+      <c r="A64" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="B64" s="57"/>
-      <c r="C64" s="57"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="57"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="57"/>
-      <c r="H64" s="57"/>
-      <c r="I64" s="57"/>
-      <c r="J64" s="57"/>
-      <c r="K64" s="57"/>
+      <c r="B64" s="61"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="61"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="61"/>
+      <c r="G64" s="61"/>
+      <c r="H64" s="61"/>
+      <c r="I64" s="61"/>
+      <c r="J64" s="61"/>
+      <c r="K64" s="61"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
@@ -28683,19 +28668,19 @@
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="58" t="s">
+      <c r="A68" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B68" s="58"/>
-      <c r="C68" s="58"/>
-      <c r="D68" s="58"/>
-      <c r="E68" s="58"/>
-      <c r="F68" s="58"/>
-      <c r="G68" s="58"/>
-      <c r="H68" s="58"/>
-      <c r="I68" s="58"/>
-      <c r="J68" s="58"/>
-      <c r="K68" s="58"/>
+      <c r="B68" s="63"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="63"/>
+      <c r="F68" s="63"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="63"/>
+      <c r="I68" s="63"/>
+      <c r="J68" s="63"/>
+      <c r="K68" s="63"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
@@ -28803,19 +28788,19 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="58" t="s">
+      <c r="A72" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="B72" s="58"/>
-      <c r="C72" s="58"/>
-      <c r="D72" s="58"/>
-      <c r="E72" s="58"/>
-      <c r="F72" s="58"/>
-      <c r="G72" s="58"/>
-      <c r="H72" s="58"/>
-      <c r="I72" s="58"/>
-      <c r="J72" s="58"/>
-      <c r="K72" s="58"/>
+      <c r="B72" s="63"/>
+      <c r="C72" s="63"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="63"/>
+      <c r="F72" s="63"/>
+      <c r="G72" s="63"/>
+      <c r="H72" s="63"/>
+      <c r="I72" s="63"/>
+      <c r="J72" s="63"/>
+      <c r="K72" s="63"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
@@ -28923,34 +28908,34 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="62" t="s">
+      <c r="A78" s="66" t="s">
         <v>196</v>
       </c>
-      <c r="B78" s="62"/>
-      <c r="C78" s="62"/>
-      <c r="D78" s="62"/>
-      <c r="E78" s="62"/>
-      <c r="F78" s="62"/>
-      <c r="G78" s="62"/>
-      <c r="H78" s="62"/>
-      <c r="I78" s="62"/>
-      <c r="J78" s="62"/>
-      <c r="K78" s="62"/>
+      <c r="B78" s="66"/>
+      <c r="C78" s="66"/>
+      <c r="D78" s="66"/>
+      <c r="E78" s="66"/>
+      <c r="F78" s="66"/>
+      <c r="G78" s="66"/>
+      <c r="H78" s="66"/>
+      <c r="I78" s="66"/>
+      <c r="J78" s="66"/>
+      <c r="K78" s="66"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="57" t="s">
+      <c r="A79" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="B79" s="57"/>
-      <c r="C79" s="57"/>
-      <c r="D79" s="57"/>
-      <c r="E79" s="57"/>
-      <c r="F79" s="57"/>
-      <c r="G79" s="57"/>
-      <c r="H79" s="57"/>
-      <c r="I79" s="57"/>
-      <c r="J79" s="57"/>
-      <c r="K79" s="57"/>
+      <c r="B79" s="61"/>
+      <c r="C79" s="61"/>
+      <c r="D79" s="61"/>
+      <c r="E79" s="61"/>
+      <c r="F79" s="61"/>
+      <c r="G79" s="61"/>
+      <c r="H79" s="61"/>
+      <c r="I79" s="61"/>
+      <c r="J79" s="61"/>
+      <c r="K79" s="61"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="19" t="s">
@@ -29058,19 +29043,19 @@
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="58" t="s">
+      <c r="A83" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B83" s="58"/>
-      <c r="C83" s="58"/>
-      <c r="D83" s="58"/>
-      <c r="E83" s="58"/>
-      <c r="F83" s="58"/>
-      <c r="G83" s="58"/>
-      <c r="H83" s="58"/>
-      <c r="I83" s="58"/>
-      <c r="J83" s="58"/>
-      <c r="K83" s="58"/>
+      <c r="B83" s="63"/>
+      <c r="C83" s="63"/>
+      <c r="D83" s="63"/>
+      <c r="E83" s="63"/>
+      <c r="F83" s="63"/>
+      <c r="G83" s="63"/>
+      <c r="H83" s="63"/>
+      <c r="I83" s="63"/>
+      <c r="J83" s="63"/>
+      <c r="K83" s="63"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="19" t="s">
@@ -29178,19 +29163,19 @@
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="58" t="s">
+      <c r="A87" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="B87" s="58"/>
-      <c r="C87" s="58"/>
-      <c r="D87" s="58"/>
-      <c r="E87" s="58"/>
-      <c r="F87" s="58"/>
-      <c r="G87" s="58"/>
-      <c r="H87" s="58"/>
-      <c r="I87" s="58"/>
-      <c r="J87" s="58"/>
-      <c r="K87" s="58"/>
+      <c r="B87" s="63"/>
+      <c r="C87" s="63"/>
+      <c r="D87" s="63"/>
+      <c r="E87" s="63"/>
+      <c r="F87" s="63"/>
+      <c r="G87" s="63"/>
+      <c r="H87" s="63"/>
+      <c r="I87" s="63"/>
+      <c r="J87" s="63"/>
+      <c r="K87" s="63"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="19" t="s">
@@ -29324,34 +29309,34 @@
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="62" t="s">
+      <c r="A93" s="66" t="s">
         <v>199</v>
       </c>
-      <c r="B93" s="62"/>
-      <c r="C93" s="62"/>
-      <c r="D93" s="62"/>
-      <c r="E93" s="62"/>
-      <c r="F93" s="62"/>
-      <c r="G93" s="62"/>
-      <c r="H93" s="62"/>
-      <c r="I93" s="62"/>
-      <c r="J93" s="62"/>
-      <c r="K93" s="62"/>
+      <c r="B93" s="66"/>
+      <c r="C93" s="66"/>
+      <c r="D93" s="66"/>
+      <c r="E93" s="66"/>
+      <c r="F93" s="66"/>
+      <c r="G93" s="66"/>
+      <c r="H93" s="66"/>
+      <c r="I93" s="66"/>
+      <c r="J93" s="66"/>
+      <c r="K93" s="66"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="57" t="s">
+      <c r="A94" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="B94" s="57"/>
-      <c r="C94" s="57"/>
-      <c r="D94" s="57"/>
-      <c r="E94" s="57"/>
-      <c r="F94" s="57"/>
-      <c r="G94" s="57"/>
-      <c r="H94" s="57"/>
-      <c r="I94" s="57"/>
-      <c r="J94" s="57"/>
-      <c r="K94" s="57"/>
+      <c r="B94" s="61"/>
+      <c r="C94" s="61"/>
+      <c r="D94" s="61"/>
+      <c r="E94" s="61"/>
+      <c r="F94" s="61"/>
+      <c r="G94" s="61"/>
+      <c r="H94" s="61"/>
+      <c r="I94" s="61"/>
+      <c r="J94" s="61"/>
+      <c r="K94" s="61"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="27" t="s">
@@ -29459,19 +29444,19 @@
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="58" t="s">
+      <c r="A98" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B98" s="58"/>
-      <c r="C98" s="58"/>
-      <c r="D98" s="58"/>
-      <c r="E98" s="58"/>
-      <c r="F98" s="58"/>
-      <c r="G98" s="58"/>
-      <c r="H98" s="58"/>
-      <c r="I98" s="58"/>
-      <c r="J98" s="58"/>
-      <c r="K98" s="58"/>
+      <c r="B98" s="63"/>
+      <c r="C98" s="63"/>
+      <c r="D98" s="63"/>
+      <c r="E98" s="63"/>
+      <c r="F98" s="63"/>
+      <c r="G98" s="63"/>
+      <c r="H98" s="63"/>
+      <c r="I98" s="63"/>
+      <c r="J98" s="63"/>
+      <c r="K98" s="63"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="27" t="s">
@@ -29579,19 +29564,19 @@
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="58" t="s">
+      <c r="A102" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="B102" s="58"/>
-      <c r="C102" s="58"/>
-      <c r="D102" s="58"/>
-      <c r="E102" s="58"/>
-      <c r="F102" s="58"/>
-      <c r="G102" s="58"/>
-      <c r="H102" s="58"/>
-      <c r="I102" s="58"/>
-      <c r="J102" s="58"/>
-      <c r="K102" s="58"/>
+      <c r="B102" s="63"/>
+      <c r="C102" s="63"/>
+      <c r="D102" s="63"/>
+      <c r="E102" s="63"/>
+      <c r="F102" s="63"/>
+      <c r="G102" s="63"/>
+      <c r="H102" s="63"/>
+      <c r="I102" s="63"/>
+      <c r="J102" s="63"/>
+      <c r="K102" s="63"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="27" t="s">
@@ -29700,6 +29685,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A93:K93"/>
+    <mergeCell ref="A94:K94"/>
+    <mergeCell ref="A98:K98"/>
+    <mergeCell ref="A102:K102"/>
+    <mergeCell ref="A54:K54"/>
+    <mergeCell ref="A58:K58"/>
+    <mergeCell ref="A63:K63"/>
+    <mergeCell ref="A64:K64"/>
+    <mergeCell ref="A68:K68"/>
+    <mergeCell ref="A72:K72"/>
+    <mergeCell ref="A78:K78"/>
+    <mergeCell ref="A79:K79"/>
+    <mergeCell ref="A83:K83"/>
+    <mergeCell ref="A87:K87"/>
     <mergeCell ref="A50:K50"/>
     <mergeCell ref="A30:P30"/>
     <mergeCell ref="A12:K12"/>
@@ -29716,20 +29715,6 @@
     <mergeCell ref="A22:K22"/>
     <mergeCell ref="A26:K26"/>
     <mergeCell ref="A49:K49"/>
-    <mergeCell ref="A93:K93"/>
-    <mergeCell ref="A94:K94"/>
-    <mergeCell ref="A98:K98"/>
-    <mergeCell ref="A102:K102"/>
-    <mergeCell ref="A54:K54"/>
-    <mergeCell ref="A58:K58"/>
-    <mergeCell ref="A63:K63"/>
-    <mergeCell ref="A64:K64"/>
-    <mergeCell ref="A68:K68"/>
-    <mergeCell ref="A72:K72"/>
-    <mergeCell ref="A78:K78"/>
-    <mergeCell ref="A79:K79"/>
-    <mergeCell ref="A83:K83"/>
-    <mergeCell ref="A87:K87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -29742,7 +29727,7 @@
   <dimension ref="A2:DE48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29762,56 +29747,56 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="H2" s="57" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="H2" s="61" t="s">
         <v>526</v>
       </c>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="O2" s="57" t="s">
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="O2" s="61" t="s">
         <v>358</v>
       </c>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="H3" s="66" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="H3" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="O3" s="66" t="s">
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="O3" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
     </row>
     <row r="4" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -30094,30 +30079,30 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="H9" s="57" t="s">
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="H9" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="O9" s="57" t="s">
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="O9" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="57"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="61"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -30229,7 +30214,7 @@
       <c r="S11" s="44" t="s">
         <v>309</v>
       </c>
-      <c r="T11" s="71" t="s">
+      <c r="T11" s="57" t="s">
         <v>301</v>
       </c>
     </row>
@@ -30286,7 +30271,7 @@
       <c r="S12" s="44" t="s">
         <v>310</v>
       </c>
-      <c r="T12" s="71" t="s">
+      <c r="T12" s="57" t="s">
         <v>302</v>
       </c>
     </row>
@@ -30343,7 +30328,7 @@
       <c r="S13" s="44" t="s">
         <v>311</v>
       </c>
-      <c r="T13" s="71" t="s">
+      <c r="T13" s="57" t="s">
         <v>303</v>
       </c>
     </row>
@@ -30400,36 +30385,36 @@
       <c r="S14" s="44" t="s">
         <v>312</v>
       </c>
-      <c r="T14" s="71" t="s">
+      <c r="T14" s="57" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="63" t="s">
         <v>274</v>
       </c>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="H15" s="58" t="s">
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="H15" s="63" t="s">
         <v>274</v>
       </c>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
       <c r="N15" s="12"/>
-      <c r="O15" s="58" t="s">
+      <c r="O15" s="63" t="s">
         <v>274</v>
       </c>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="58"/>
-      <c r="T15" s="58"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="63"/>
+      <c r="S15" s="63"/>
+      <c r="T15" s="63"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="s">
@@ -30732,48 +30717,48 @@
       <c r="T21" s="12"/>
     </row>
     <row r="23" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
+      <c r="A23" s="61"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
     </row>
     <row r="24" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
+      <c r="A24" s="61"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
     </row>
     <row r="25" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A25" s="65" t="s">
+      <c r="A25" s="70" t="s">
         <v>277</v>
       </c>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="H25" s="64" t="s">
+      <c r="B25" s="70"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="H25" s="69" t="s">
         <v>384</v>
       </c>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="64"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="69"/>
     </row>
     <row r="26" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A26" s="57" t="s">
+      <c r="A26" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
     </row>
     <row r="27" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -30794,7 +30779,7 @@
       <c r="F27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H27" s="63" t="s">
+      <c r="H27" s="68" t="s">
         <v>278</v>
       </c>
       <c r="I27" t="s">
@@ -30830,7 +30815,7 @@
       <c r="F28">
         <v>18272</v>
       </c>
-      <c r="H28" s="63"/>
+      <c r="H28" s="68"/>
       <c r="I28" t="s">
         <v>5</v>
       </c>
@@ -31154,7 +31139,7 @@
       <c r="F29">
         <v>18191</v>
       </c>
-      <c r="H29" s="63"/>
+      <c r="H29" s="68"/>
       <c r="I29" t="s">
         <v>6</v>
       </c>
@@ -31511,15 +31496,15 @@
       <c r="M31" s="23"/>
     </row>
     <row r="32" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A32" s="57" t="s">
+      <c r="A32" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="H32" s="63" t="s">
+      <c r="B32" s="61"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="H32" s="68" t="s">
         <v>280</v>
       </c>
       <c r="I32" t="s">
@@ -31555,7 +31540,7 @@
       <c r="F33" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H33" s="63"/>
+      <c r="H33" s="68"/>
       <c r="I33" t="s">
         <v>5</v>
       </c>
@@ -31879,7 +31864,7 @@
       <c r="F34">
         <v>18326</v>
       </c>
-      <c r="H34" s="63"/>
+      <c r="H34" s="68"/>
       <c r="I34" t="s">
         <v>6</v>
       </c>
@@ -32247,7 +32232,7 @@
       <c r="F37">
         <v>19001</v>
       </c>
-      <c r="H37" s="63" t="s">
+      <c r="H37" s="68" t="s">
         <v>281</v>
       </c>
       <c r="I37" t="s">
@@ -32270,15 +32255,15 @@
       </c>
     </row>
     <row r="38" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A38" s="57" t="s">
+      <c r="A38" s="61" t="s">
         <v>274</v>
       </c>
-      <c r="B38" s="57"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="H38" s="63"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="H38" s="68"/>
       <c r="I38" t="s">
         <v>5</v>
       </c>
@@ -32602,7 +32587,7 @@
       <c r="F39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H39" s="63"/>
+      <c r="H39" s="68"/>
       <c r="I39" t="s">
         <v>6</v>
       </c>
@@ -32948,7 +32933,7 @@
       <c r="F41">
         <v>18299</v>
       </c>
-      <c r="H41" s="63" t="s">
+      <c r="H41" s="68" t="s">
         <v>282</v>
       </c>
       <c r="I41" t="s">
@@ -32984,7 +32969,7 @@
       <c r="F42">
         <v>19163</v>
       </c>
-      <c r="H42" s="63"/>
+      <c r="H42" s="68"/>
       <c r="I42" t="s">
         <v>5</v>
       </c>
@@ -33308,7 +33293,7 @@
       <c r="F43">
         <v>19055</v>
       </c>
-      <c r="H43" s="63"/>
+      <c r="H43" s="68"/>
       <c r="I43" t="s">
         <v>6</v>
       </c>
@@ -33646,6 +33631,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="H37:H39"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="O3:T3"/>
+    <mergeCell ref="O9:T9"/>
+    <mergeCell ref="O15:T15"/>
+    <mergeCell ref="H3:M3"/>
     <mergeCell ref="A24:F24"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A9:F9"/>
@@ -33655,20 +33654,6 @@
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="H15:M15"/>
-    <mergeCell ref="O2:T2"/>
-    <mergeCell ref="O3:T3"/>
-    <mergeCell ref="O9:T9"/>
-    <mergeCell ref="O15:T15"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="H37:H39"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A38:F38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -33681,7 +33666,7 @@
   <dimension ref="A2:BG42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O49" sqref="O49"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33700,56 +33685,56 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="H2" s="57" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="H2" s="61" t="s">
         <v>526</v>
       </c>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="O2" s="57" t="s">
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="O2" s="61" t="s">
         <v>358</v>
       </c>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="H3" s="66" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="H3" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="O3" s="66" t="s">
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="O3" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
     </row>
     <row r="4" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -34032,30 +34017,30 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="H9" s="58" t="s">
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="H9" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="O9" s="57" t="s">
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="O9" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="57"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="61"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -34338,30 +34323,30 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="63" t="s">
         <v>274</v>
       </c>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="H15" s="58" t="s">
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="H15" s="63" t="s">
         <v>274</v>
       </c>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="O15" s="67" t="s">
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="O15" s="71" t="s">
         <v>274</v>
       </c>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="67"/>
-      <c r="T15" s="67"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="71"/>
+      <c r="S15" s="71"/>
+      <c r="T15" s="71"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
@@ -34644,40 +34629,40 @@
       </c>
     </row>
     <row r="23" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
+      <c r="A23" s="61"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
     </row>
     <row r="24" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A24" s="65" t="s">
+      <c r="A24" s="70" t="s">
         <v>277</v>
       </c>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="H24" s="64" t="s">
+      <c r="B24" s="70"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="H24" s="69" t="s">
         <v>384</v>
       </c>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="64"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="69"/>
     </row>
     <row r="25" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
     </row>
     <row r="26" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A26" s="42" t="s">
@@ -34698,7 +34683,7 @@
       <c r="F26" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="63" t="s">
+      <c r="H26" s="68" t="s">
         <v>278</v>
       </c>
       <c r="I26" t="s">
@@ -34730,7 +34715,7 @@
       <c r="F27">
         <v>18272</v>
       </c>
-      <c r="H27" s="63"/>
+      <c r="H27" s="68"/>
       <c r="I27" t="s">
         <v>5</v>
       </c>
@@ -34904,7 +34889,7 @@
       <c r="F28">
         <v>18191</v>
       </c>
-      <c r="H28" s="63"/>
+      <c r="H28" s="68"/>
       <c r="I28" t="s">
         <v>6</v>
       </c>
@@ -35102,15 +35087,15 @@
       <c r="H30" s="23"/>
     </row>
     <row r="31" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A31" s="57" t="s">
+      <c r="A31" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="H31" s="63" t="s">
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="H31" s="68" t="s">
         <v>280</v>
       </c>
       <c r="I31" t="s">
@@ -35142,7 +35127,7 @@
       <c r="F32" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="H32" s="63"/>
+      <c r="H32" s="68"/>
       <c r="I32" t="s">
         <v>5</v>
       </c>
@@ -35316,7 +35301,7 @@
       <c r="F33">
         <v>18326</v>
       </c>
-      <c r="H33" s="63"/>
+      <c r="H33" s="68"/>
       <c r="I33" t="s">
         <v>6</v>
       </c>
@@ -35532,7 +35517,7 @@
       <c r="F36">
         <v>19001</v>
       </c>
-      <c r="H36" s="63" t="s">
+      <c r="H36" s="68" t="s">
         <v>281</v>
       </c>
       <c r="I36" t="s">
@@ -35546,15 +35531,15 @@
       </c>
     </row>
     <row r="37" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A37" s="57" t="s">
+      <c r="A37" s="61" t="s">
         <v>274</v>
       </c>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="H37" s="63"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="H37" s="68"/>
       <c r="I37" t="s">
         <v>5</v>
       </c>
@@ -35728,7 +35713,7 @@
       <c r="F38" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="H38" s="63"/>
+      <c r="H38" s="68"/>
       <c r="I38" t="s">
         <v>6</v>
       </c>
@@ -35923,7 +35908,7 @@
       <c r="F40">
         <v>18299</v>
       </c>
-      <c r="H40" s="63" t="s">
+      <c r="H40" s="68" t="s">
         <v>282</v>
       </c>
       <c r="I40" t="s">
@@ -35955,7 +35940,7 @@
       <c r="F41">
         <v>19163</v>
       </c>
-      <c r="H41" s="63"/>
+      <c r="H41" s="68"/>
       <c r="I41" t="s">
         <v>5</v>
       </c>
@@ -36129,7 +36114,7 @@
       <c r="F42">
         <v>19055</v>
       </c>
-      <c r="H42" s="63"/>
+      <c r="H42" s="68"/>
       <c r="I42" t="s">
         <v>6</v>
       </c>
@@ -36286,6 +36271,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A23:F23"/>
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="H15:M15"/>
     <mergeCell ref="O2:T2"/>
@@ -36298,16 +36293,6 @@
     <mergeCell ref="H3:M3"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="H9:M9"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="H31:H33"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="H40:H42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -36319,8 +36304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:DE42"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36339,56 +36324,56 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="H2" s="57" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="H2" s="61" t="s">
         <v>526</v>
       </c>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="O2" s="57" t="s">
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="O2" s="61" t="s">
         <v>358</v>
       </c>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="H3" s="66" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="H3" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="O3" s="66" t="s">
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="O3" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
     </row>
     <row r="4" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
@@ -36468,19 +36453,19 @@
       <c r="H5" s="48">
         <v>0.1</v>
       </c>
-      <c r="I5" s="72">
+      <c r="I5" s="58">
         <v>645.25070000000005</v>
       </c>
-      <c r="J5" s="72">
+      <c r="J5" s="58">
         <v>1117.6256000000001</v>
       </c>
-      <c r="K5" s="72">
+      <c r="K5" s="58">
         <v>1504.0892000000001</v>
       </c>
-      <c r="L5" s="72">
+      <c r="L5" s="58">
         <v>1838.7799</v>
       </c>
-      <c r="M5" s="72">
+      <c r="M5" s="58">
         <v>1835.0492000000002</v>
       </c>
       <c r="O5" s="38">
@@ -36524,19 +36509,19 @@
       <c r="H6" s="48">
         <v>0.3</v>
       </c>
-      <c r="I6" s="72">
+      <c r="I6" s="58">
         <v>793.40880000000004</v>
       </c>
-      <c r="J6" s="72">
+      <c r="J6" s="58">
         <v>1100.0294000000001</v>
       </c>
-      <c r="K6" s="72">
+      <c r="K6" s="58">
         <v>1197.0563</v>
       </c>
-      <c r="L6" s="72">
+      <c r="L6" s="58">
         <v>1181.0839999999998</v>
       </c>
-      <c r="M6" s="72">
+      <c r="M6" s="58">
         <v>1108.502</v>
       </c>
       <c r="O6" s="38">
@@ -36580,19 +36565,19 @@
       <c r="H7" s="48">
         <v>0.5</v>
       </c>
-      <c r="I7" s="72">
+      <c r="I7" s="58">
         <v>829.74300000000005</v>
       </c>
-      <c r="J7" s="72">
+      <c r="J7" s="58">
         <v>1300.9973</v>
       </c>
-      <c r="K7" s="72">
+      <c r="K7" s="58">
         <v>1675.6378</v>
       </c>
-      <c r="L7" s="72">
+      <c r="L7" s="58">
         <v>1626.3543</v>
       </c>
-      <c r="M7" s="72">
+      <c r="M7" s="58">
         <v>1657.8720999999998</v>
       </c>
       <c r="O7" s="38">
@@ -36636,19 +36621,19 @@
       <c r="H8" s="48">
         <v>0.7</v>
       </c>
-      <c r="I8" s="72">
+      <c r="I8" s="58">
         <v>889.75979999999993</v>
       </c>
-      <c r="J8" s="72">
+      <c r="J8" s="58">
         <v>1536.3535999999999</v>
       </c>
-      <c r="K8" s="72">
+      <c r="K8" s="58">
         <v>1563.3735000000001</v>
       </c>
-      <c r="L8" s="72">
+      <c r="L8" s="58">
         <v>2056.2105999999999</v>
       </c>
-      <c r="M8" s="72">
+      <c r="M8" s="58">
         <v>1548.191</v>
       </c>
       <c r="O8" s="38">
@@ -36671,30 +36656,30 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="H9" s="58" t="s">
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="H9" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="O9" s="57" t="s">
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="O9" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="57"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="61"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -36774,19 +36759,19 @@
       <c r="H11" s="22">
         <v>0.1</v>
       </c>
-      <c r="I11" s="73">
+      <c r="I11" s="59">
         <v>1430.0718999999999</v>
       </c>
-      <c r="J11" s="73">
+      <c r="J11" s="59">
         <v>1640.5157000000002</v>
       </c>
-      <c r="K11" s="73">
+      <c r="K11" s="59">
         <v>1619.9054000000001</v>
       </c>
-      <c r="L11" s="73">
+      <c r="L11" s="59">
         <v>2003.7892999999999</v>
       </c>
-      <c r="M11" s="73">
+      <c r="M11" s="59">
         <v>1835.0491</v>
       </c>
       <c r="N11" s="15"/>
@@ -36831,19 +36816,19 @@
       <c r="H12" s="22">
         <v>0.3</v>
       </c>
-      <c r="I12" s="73">
+      <c r="I12" s="59">
         <v>1342.2563</v>
       </c>
-      <c r="J12" s="73">
+      <c r="J12" s="59">
         <v>1486.2110999999998</v>
       </c>
-      <c r="K12" s="73">
+      <c r="K12" s="59">
         <v>1278.761</v>
       </c>
-      <c r="L12" s="73">
+      <c r="L12" s="59">
         <v>1190.7417</v>
       </c>
-      <c r="M12" s="73">
+      <c r="M12" s="59">
         <v>1108.5019</v>
       </c>
       <c r="N12" s="15"/>
@@ -36888,19 +36873,19 @@
       <c r="H13" s="22">
         <v>0.5</v>
       </c>
-      <c r="I13" s="73">
+      <c r="I13" s="59">
         <v>1577.7204000000002</v>
       </c>
-      <c r="J13" s="73">
+      <c r="J13" s="59">
         <v>1867.5438000000001</v>
       </c>
-      <c r="K13" s="73">
+      <c r="K13" s="59">
         <v>2041.7557999999999</v>
       </c>
-      <c r="L13" s="73">
+      <c r="L13" s="59">
         <v>1868.7972</v>
       </c>
-      <c r="M13" s="73">
+      <c r="M13" s="59">
         <v>1657.8720000000001</v>
       </c>
       <c r="N13" s="15"/>
@@ -36946,19 +36931,19 @@
       <c r="H14" s="22">
         <v>0.7</v>
       </c>
-      <c r="I14" s="73">
+      <c r="I14" s="59">
         <v>1944.7302</v>
       </c>
-      <c r="J14" s="73">
+      <c r="J14" s="59">
         <v>2434.9465</v>
       </c>
-      <c r="K14" s="73">
+      <c r="K14" s="59">
         <v>1889.8896999999999</v>
       </c>
-      <c r="L14" s="73">
+      <c r="L14" s="59">
         <v>2383.4546</v>
       </c>
-      <c r="M14" s="73">
+      <c r="M14" s="59">
         <v>1548.1909000000001</v>
       </c>
       <c r="N14" s="15"/>
@@ -36982,31 +36967,31 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="63" t="s">
         <v>274</v>
       </c>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="H15" s="68" t="s">
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="H15" s="72" t="s">
         <v>274</v>
       </c>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
       <c r="N15" s="15"/>
-      <c r="O15" s="67" t="s">
+      <c r="O15" s="71" t="s">
         <v>274</v>
       </c>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="67"/>
-      <c r="T15" s="67"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="71"/>
+      <c r="S15" s="71"/>
+      <c r="T15" s="71"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
@@ -37087,19 +37072,19 @@
       <c r="H17" s="22">
         <v>0.1</v>
       </c>
-      <c r="I17" s="73">
+      <c r="I17" s="59">
         <v>915.0363000000001</v>
       </c>
-      <c r="J17" s="73">
+      <c r="J17" s="59">
         <v>1252.3491000000001</v>
       </c>
-      <c r="K17" s="73">
+      <c r="K17" s="59">
         <v>1526.9779000000001</v>
       </c>
-      <c r="L17" s="73">
+      <c r="L17" s="59">
         <v>1618.3025</v>
       </c>
-      <c r="M17" s="74">
+      <c r="M17" s="60">
         <v>1835.0491</v>
       </c>
       <c r="N17" s="15"/>
@@ -37149,19 +37134,19 @@
       <c r="H18" s="22">
         <v>0.3</v>
       </c>
-      <c r="I18" s="73">
+      <c r="I18" s="59">
         <v>704.65199999999993</v>
       </c>
-      <c r="J18" s="73">
+      <c r="J18" s="59">
         <v>1151.441</v>
       </c>
-      <c r="K18" s="73">
+      <c r="K18" s="59">
         <v>1157.4152000000001</v>
       </c>
-      <c r="L18" s="73">
+      <c r="L18" s="59">
         <v>1071.6116</v>
       </c>
-      <c r="M18" s="73">
+      <c r="M18" s="59">
         <v>1108.5019</v>
       </c>
       <c r="N18" s="15"/>
@@ -37211,19 +37196,19 @@
       <c r="H19" s="22">
         <v>0.5</v>
       </c>
-      <c r="I19" s="73">
+      <c r="I19" s="59">
         <v>1138.7378999999999</v>
       </c>
-      <c r="J19" s="73">
+      <c r="J19" s="59">
         <v>1336.1958999999999</v>
       </c>
-      <c r="K19" s="73">
+      <c r="K19" s="59">
         <v>1775.0076999999999</v>
       </c>
-      <c r="L19" s="73">
+      <c r="L19" s="59">
         <v>1868.7972</v>
       </c>
-      <c r="M19" s="73">
+      <c r="M19" s="59">
         <v>1657.8720000000001</v>
       </c>
       <c r="N19" s="15"/>
@@ -37273,19 +37258,19 @@
       <c r="H20" s="22">
         <v>0.7</v>
       </c>
-      <c r="I20" s="73">
+      <c r="I20" s="59">
         <v>1268.0133000000001</v>
       </c>
-      <c r="J20" s="73">
+      <c r="J20" s="59">
         <v>1893.5635</v>
       </c>
-      <c r="K20" s="73">
+      <c r="K20" s="59">
         <v>1889.8896999999999</v>
       </c>
-      <c r="L20" s="73">
+      <c r="L20" s="59">
         <v>2383.4546</v>
       </c>
-      <c r="M20" s="73">
+      <c r="M20" s="59">
         <v>1548.1909000000001</v>
       </c>
       <c r="N20" s="15"/>
@@ -37314,40 +37299,40 @@
       <c r="AA20" s="43"/>
     </row>
     <row r="23" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
+      <c r="A23" s="61"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
     </row>
     <row r="24" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A24" s="65" t="s">
+      <c r="A24" s="70" t="s">
         <v>357</v>
       </c>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="H24" s="64" t="s">
+      <c r="B24" s="70"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="H24" s="69" t="s">
         <v>384</v>
       </c>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="64"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="69"/>
     </row>
     <row r="25" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
     </row>
     <row r="26" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
@@ -37368,7 +37353,7 @@
       <c r="F26" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="63" t="s">
+      <c r="H26" s="68" t="s">
         <v>278</v>
       </c>
       <c r="I26" t="s">
@@ -37400,7 +37385,7 @@
       <c r="F27">
         <v>32229</v>
       </c>
-      <c r="H27" s="63"/>
+      <c r="H27" s="68"/>
       <c r="I27" t="s">
         <v>5</v>
       </c>
@@ -37724,7 +37709,7 @@
       <c r="F28">
         <v>32938</v>
       </c>
-      <c r="H28" s="63"/>
+      <c r="H28" s="68"/>
       <c r="I28" t="s">
         <v>6</v>
       </c>
@@ -38072,15 +38057,15 @@
       <c r="H30" s="23"/>
     </row>
     <row r="31" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A31" s="57" t="s">
+      <c r="A31" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="H31" s="63" t="s">
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="H31" s="68" t="s">
         <v>280</v>
       </c>
       <c r="I31" t="s">
@@ -38112,7 +38097,7 @@
       <c r="F32" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H32" s="63"/>
+      <c r="H32" s="68"/>
       <c r="I32" t="s">
         <v>5</v>
       </c>
@@ -38436,7 +38421,7 @@
       <c r="F33">
         <v>32511</v>
       </c>
-      <c r="H33" s="63"/>
+      <c r="H33" s="68"/>
       <c r="I33" t="s">
         <v>6</v>
       </c>
@@ -38802,7 +38787,7 @@
       <c r="F36">
         <v>28377</v>
       </c>
-      <c r="H36" s="63" t="s">
+      <c r="H36" s="68" t="s">
         <v>281</v>
       </c>
       <c r="I36" t="s">
@@ -38816,15 +38801,15 @@
       </c>
     </row>
     <row r="37" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A37" s="57" t="s">
+      <c r="A37" s="61" t="s">
         <v>274</v>
       </c>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="H37" s="63"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="H37" s="68"/>
       <c r="I37" t="s">
         <v>5</v>
       </c>
@@ -39148,7 +39133,7 @@
       <c r="F38" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H38" s="63"/>
+      <c r="H38" s="68"/>
       <c r="I38" t="s">
         <v>6</v>
       </c>
@@ -39493,7 +39478,7 @@
       <c r="F40">
         <v>33349</v>
       </c>
-      <c r="H40" s="63" t="s">
+      <c r="H40" s="68" t="s">
         <v>282</v>
       </c>
       <c r="I40" t="s">
@@ -39525,7 +39510,7 @@
       <c r="F41">
         <v>27821</v>
       </c>
-      <c r="H41" s="63"/>
+      <c r="H41" s="68"/>
       <c r="I41" t="s">
         <v>5</v>
       </c>
@@ -39849,7 +39834,7 @@
       <c r="F42">
         <v>28659</v>
       </c>
-      <c r="H42" s="63"/>
+      <c r="H42" s="68"/>
       <c r="I42" t="s">
         <v>6</v>
       </c>
@@ -40156,6 +40141,18 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="O3:T3"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="O9:T9"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="O15:T15"/>
     <mergeCell ref="H36:H38"/>
     <mergeCell ref="A37:F37"/>
     <mergeCell ref="H40:H42"/>
@@ -40166,18 +40163,6 @@
     <mergeCell ref="H26:H28"/>
     <mergeCell ref="A31:F31"/>
     <mergeCell ref="H31:H33"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="O9:T9"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="O15:T15"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="O2:T2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="O3:T3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -40201,89 +40186,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="H2" s="70" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="H2" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="O2" s="64" t="s">
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="O2" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="70" t="s">
         <v>277</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="H3" s="65" t="s">
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="H3" s="70" t="s">
         <v>277</v>
       </c>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="O3" s="65" t="s">
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="O3" s="70" t="s">
         <v>357</v>
       </c>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="H4" s="57" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="H4" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="O4" s="57" t="s">
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="O4" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="54" t="s">
@@ -40571,31 +40556,31 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="H10" s="67" t="s">
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="H10" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
       <c r="N10" s="15"/>
-      <c r="O10" s="67" t="s">
+      <c r="O10" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="67"/>
-      <c r="S10" s="67"/>
-      <c r="T10" s="67"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="71"/>
+      <c r="T10" s="71"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="54" t="s">
@@ -40883,31 +40868,31 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="71" t="s">
         <v>274</v>
       </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="H16" s="67" t="s">
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="H16" s="71" t="s">
         <v>274</v>
       </c>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="71"/>
       <c r="N16" s="15"/>
-      <c r="O16" s="67" t="s">
+      <c r="O16" s="71" t="s">
         <v>274</v>
       </c>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="67"/>
-      <c r="T16" s="67"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="71"/>
+      <c r="S16" s="71"/>
+      <c r="T16" s="71"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
@@ -41196,6 +41181,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="O3:T3"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="O10:T10"/>
+    <mergeCell ref="O16:T16"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="H4:M4"/>
     <mergeCell ref="H10:M10"/>
@@ -41207,11 +41197,6 @@
     <mergeCell ref="H3:M3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A10:F10"/>
-    <mergeCell ref="O2:T2"/>
-    <mergeCell ref="O3:T3"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="O10:T10"/>
-    <mergeCell ref="O16:T16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
